--- a/Posts to report _ ARISE.xlsx
+++ b/Posts to report _ ARISE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="885">
   <si>
     <t>Links</t>
   </si>
@@ -605,12 +605,6 @@
     <t>Post 43 X</t>
   </si>
   <si>
-    <t>this is actually a creator showing the lies from Gaza media</t>
-  </si>
-  <si>
-    <t>https://x.com/GAZAWOOD1/status/1855703803158253968</t>
-  </si>
-  <si>
     <t>Post 41 Tik Tok</t>
   </si>
   <si>
@@ -1418,6 +1412,9 @@
     <t>Post 107 X</t>
   </si>
   <si>
+    <t>Post 107 X/limited access</t>
+  </si>
+  <si>
     <t>https://x.com/TourageNikkhah7/status/1864201748308488261</t>
   </si>
   <si>
@@ -1430,6 +1427,9 @@
     <t>Post 108 X</t>
   </si>
   <si>
+    <t>Post 108 X/comments down</t>
+  </si>
+  <si>
     <t>https://x.com/Aishalifett/status/1852006102843473973</t>
   </si>
   <si>
@@ -1442,6 +1442,9 @@
     <t>Post 109 X</t>
   </si>
   <si>
+    <t>Post 109 X/comments down</t>
+  </si>
+  <si>
     <t>https://x.com/PDeepdive/status/1863632355115585734</t>
   </si>
   <si>
@@ -1472,6 +1475,9 @@
     <t>Post 111 X</t>
   </si>
   <si>
+    <t>Post 111 X/comments down</t>
+  </si>
+  <si>
     <t>https://x.com/GotPropaganda/status/1713283613821636776</t>
   </si>
   <si>
@@ -1688,6 +1694,9 @@
     <t>Psot 131 X</t>
   </si>
   <si>
+    <t>Post 131 X/comments down</t>
+  </si>
+  <si>
     <t>https://x.com/RyanRozbiani/status/1868974423493296603</t>
   </si>
   <si>
@@ -1859,6 +1868,9 @@
     <t>Post 157 X</t>
   </si>
   <si>
+    <t>Post 157 X/down</t>
+  </si>
+  <si>
     <t>https://x.com/VatnikLobo91/status/1871619307308036523</t>
   </si>
   <si>
@@ -1901,18 +1913,21 @@
     <t>https://x.com/umyaznemo/status/1880665007102542014</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Post 164 X</t>
   </si>
   <si>
+    <t>Post 164 X/limited visiblity.png</t>
+  </si>
+  <si>
     <t>https://x.com/MsJamshidi/status/1881147926707323121</t>
   </si>
   <si>
     <t>Post 165 X</t>
   </si>
   <si>
+    <t>Post 165 X/down.png</t>
+  </si>
+  <si>
     <t>https://x.com/patternspodcast/status/1881485780591522235</t>
   </si>
   <si>
@@ -1925,6 +1940,9 @@
     <t>Post 167 X</t>
   </si>
   <si>
+    <t>Post 167 X/visibility limited</t>
+  </si>
+  <si>
     <t>https://x.com/TheRISEofROD/status/1881961144933605540</t>
   </si>
   <si>
@@ -1973,6 +1991,9 @@
     <t>Post 175 X</t>
   </si>
   <si>
+    <t>Post 175 X/ visibility limited</t>
+  </si>
+  <si>
     <t>https://x.com/TheRISEofROD/status/1882075499343876325</t>
   </si>
   <si>
@@ -1997,6 +2018,9 @@
     <t>Post 179 X</t>
   </si>
   <si>
+    <t>Post 179 X/suspended</t>
+  </si>
+  <si>
     <t>https://x.com/thisonecansee/status/1874672334726193211</t>
   </si>
   <si>
@@ -2009,6 +2033,9 @@
     <t>Post 181 X</t>
   </si>
   <si>
+    <t>Post 181 X/down</t>
+  </si>
+  <si>
     <t>https://x.com/henri_fjord/status/1879864247750193478</t>
   </si>
   <si>
@@ -2018,6 +2045,9 @@
     <t>Post 182 X</t>
   </si>
   <si>
+    <t>Post 182 X/down</t>
+  </si>
+  <si>
     <t>https://x.com/AdolfGoysniffer/status/1882815747656950135</t>
   </si>
   <si>
@@ -2066,15 +2096,12 @@
     <t>Post 190 X</t>
   </si>
   <si>
+    <t>Post 190 X/ down</t>
+  </si>
+  <si>
     <t>https://x.com/gazanotice/status/1882800964043714793</t>
   </si>
   <si>
-    <t>Post 191 X</t>
-  </si>
-  <si>
-    <t>https://x.com/EFischberger/status/1868725795075793012</t>
-  </si>
-  <si>
     <t>Post 192 X</t>
   </si>
   <si>
@@ -2135,6 +2162,9 @@
     <t>Post 202 X</t>
   </si>
   <si>
+    <t>Post 202 X/down.png</t>
+  </si>
+  <si>
     <t>https://x.com/Knot_Shur/status/1886014258447892692</t>
   </si>
   <si>
@@ -2228,6 +2258,9 @@
     <t>Post 218 X</t>
   </si>
   <si>
+    <t>Post 218 X/comments down.png</t>
+  </si>
+  <si>
     <t>https://x.com/Haitham47117914/status/1878544495823716715</t>
   </si>
   <si>
@@ -2249,9 +2282,21 @@
     <t>https://x.com/LailaPalestini1/status/1886527488047632512</t>
   </si>
   <si>
+    <t>Post 222 X</t>
+  </si>
+  <si>
+    <t>Post 222 X/limited access.png</t>
+  </si>
+  <si>
+    <t>https://x.com/grove_sentinel/status/1885741771487125506</t>
+  </si>
+  <si>
     <t>Post 223 X</t>
   </si>
   <si>
+    <t>Post 223 X/limited access.png</t>
+  </si>
+  <si>
     <t>https://x.com/PatriotSt0rm17/status/1886780110700691947</t>
   </si>
   <si>
@@ -2261,6 +2306,270 @@
     <t>https://x.com/AdameMedia/status/1886987859728441621</t>
   </si>
   <si>
+    <t>Post 225 X</t>
+  </si>
+  <si>
+    <t>https://x.com/ShakuJohannes/status/1887090092524654847</t>
+  </si>
+  <si>
+    <t>Post 226 X</t>
+  </si>
+  <si>
+    <t>https://x.com/Tom5731/status/1887086906988466345</t>
+  </si>
+  <si>
+    <t>Post 227 X</t>
+  </si>
+  <si>
+    <t>https://x.com/Hulk764/status/1887592531279397002</t>
+  </si>
+  <si>
+    <t>Post 228 X</t>
+  </si>
+  <si>
+    <t>https://x.com/Sir_Dan_X/status/1886093317110108222</t>
+  </si>
+  <si>
+    <t>Post 229 X</t>
+  </si>
+  <si>
+    <t>https://x.com/helenegrimm6/status/1888447700376695049</t>
+  </si>
+  <si>
+    <t>Post 230 X</t>
+  </si>
+  <si>
+    <t>https://x.com/GentileAssoc/status/1889016440981971031</t>
+  </si>
+  <si>
+    <t>Post 231 X</t>
+  </si>
+  <si>
+    <t>Post 231 X/limited access.png</t>
+  </si>
+  <si>
+    <t>https://x.com/albion_of20312/status/1889074700304736566</t>
+  </si>
+  <si>
+    <t>Post 232 X</t>
+  </si>
+  <si>
+    <t>https://x.com/SaveWeimerica/status/1886962981310787707</t>
+  </si>
+  <si>
+    <t>Post 233 X</t>
+  </si>
+  <si>
+    <t>Post 233 X/limited access .png</t>
+  </si>
+  <si>
+    <t>https://x.com/Knot_Shur/status/1887892186823614540</t>
+  </si>
+  <si>
+    <t>Post 234 X</t>
+  </si>
+  <si>
+    <t>https://x.com/KyleKulinski/status/1889176630968438952</t>
+  </si>
+  <si>
+    <t>Post 235 X</t>
+  </si>
+  <si>
+    <t>https://x.com/Vigilante2801/status/1889090037070897479</t>
+  </si>
+  <si>
+    <t>Post 236 X</t>
+  </si>
+  <si>
+    <t>https://x.com/Vigilante2801/status/1888078472540536940</t>
+  </si>
+  <si>
+    <t>Post 237 X</t>
+  </si>
+  <si>
+    <t>https://x.com/Vigilante2801/status/1888412251582767364</t>
+  </si>
+  <si>
+    <t>Post 238 X</t>
+  </si>
+  <si>
+    <t>https://x.com/stairwayto3dom/status/1887347988642865387</t>
+  </si>
+  <si>
+    <t>Post 239 X</t>
+  </si>
+  <si>
+    <t>https://x.com/AdameMedia/status/1888783379203551461</t>
+  </si>
+  <si>
+    <t>Post 240 X</t>
+  </si>
+  <si>
+    <t>https://x.com/GentileAssoc/status/1888805319201218792</t>
+  </si>
+  <si>
+    <t>Post 241 X</t>
+  </si>
+  <si>
+    <t>https://x.com/GentileAssoc/status/1888980495675072897</t>
+  </si>
+  <si>
+    <t>Post 242 X</t>
+  </si>
+  <si>
+    <t>https://x.com/Leon_vid_cast/status/1888967535359312303</t>
+  </si>
+  <si>
+    <t>Post 243 X</t>
+  </si>
+  <si>
+    <t>https://x.com/grove_sentinel/status/1886926284833612114</t>
+  </si>
+  <si>
+    <t>Post 244 X</t>
+  </si>
+  <si>
+    <t>https://x.com/AlexKuhuwael/status/1888009790561075573</t>
+  </si>
+  <si>
+    <t>Post 245 X</t>
+  </si>
+  <si>
+    <t>https://x.com/AlexKuhuwael/status/1886557510741700962</t>
+  </si>
+  <si>
+    <t>Post 246 X</t>
+  </si>
+  <si>
+    <t>https://x.com/jacksonhinklle/status/1891276376583426239</t>
+  </si>
+  <si>
+    <t>Post 247 X</t>
+  </si>
+  <si>
+    <t>https://x.com/voiceofrabbis/status/1891551408060555515</t>
+  </si>
+  <si>
+    <t>Post 248 X</t>
+  </si>
+  <si>
+    <t>Post 248 X/content warning.png</t>
+  </si>
+  <si>
+    <t>https://x.com/xIsraelExposedx/status/1891758000383176886</t>
+  </si>
+  <si>
+    <t>Post 249 X</t>
+  </si>
+  <si>
+    <t>https://x.com/xIsraelExposedx/status/1889815153849540973</t>
+  </si>
+  <si>
+    <t>Post 250 X</t>
+  </si>
+  <si>
+    <t>https://x.com/jacksonhinklle/status/1890922039214555637</t>
+  </si>
+  <si>
+    <t>Post 251 X</t>
+  </si>
+  <si>
+    <t>https://x.com/BurnieBitch420/status/1890224193029173661</t>
+  </si>
+  <si>
+    <t>Post 252 X</t>
+  </si>
+  <si>
+    <t>https://x.com/LetsGoBrando45/status/1891323054627713374</t>
+  </si>
+  <si>
+    <t>Post 253 X</t>
+  </si>
+  <si>
+    <t>https://x.com/Partisangirl/status/1891592000173973739</t>
+  </si>
+  <si>
+    <t>Post 254 X</t>
+  </si>
+  <si>
+    <t>https://x.com/Vigilante2801/status/1891501951763829041</t>
+  </si>
+  <si>
+    <t>Post 255 X</t>
+  </si>
+  <si>
+    <t>https://x.com/jakeshieldsajj/status/1891610758644904442</t>
+  </si>
+  <si>
+    <t>Post 256 X</t>
+  </si>
+  <si>
+    <t>https://x.com/LetsGoBrando45/status/1875594687299645958</t>
+  </si>
+  <si>
+    <t>Post 257 X</t>
+  </si>
+  <si>
+    <t>Post 257 X/down</t>
+  </si>
+  <si>
+    <t>https://x.com/Resist_05/status/1891765356248609181</t>
+  </si>
+  <si>
+    <t>Post 258 X</t>
+  </si>
+  <si>
+    <t>https://x.com/Resist_05/status/1891662036133670969</t>
+  </si>
+  <si>
+    <t>Post 259 X</t>
+  </si>
+  <si>
+    <t>https://x.com/jorymicah/status/1891569051522023867</t>
+  </si>
+  <si>
+    <t>Post 260 X</t>
+  </si>
+  <si>
+    <t>https://x.com/jorymicah/status/1891607293835305251</t>
+  </si>
+  <si>
+    <t>Post 261 X</t>
+  </si>
+  <si>
+    <t>https://x.com/SuperLandBaby/status/1720824414479036876</t>
+  </si>
+  <si>
+    <t>Post 263 X</t>
+  </si>
+  <si>
+    <t>https://x.com/PalMediaOrg/status/1888162852445257763</t>
+  </si>
+  <si>
+    <t>Post 264 X</t>
+  </si>
+  <si>
+    <t>https://x.com/100_alpha/status/1891224052255105153</t>
+  </si>
+  <si>
+    <t>Note-to-self infomation (just for Jess)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note to self - start chipping the links instead of having to type out the rename </t>
+  </si>
+  <si>
+    <t>https://x.com/NextWaveAmerica/status/1891731751212310863</t>
+  </si>
+  <si>
+    <t>https://x.com/MrAssholeFace</t>
+  </si>
+  <si>
+    <t>@Knot_Shur lots of posts to ban</t>
+  </si>
+  <si>
+    <t>so many posts to ban here</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -2337,13 +2646,52 @@
   </si>
   <si>
     <t>2 accounts not easy to access</t>
+  </si>
+  <si>
+    <t>Febuary 9th</t>
+  </si>
+  <si>
+    <t>220 Posts</t>
+  </si>
+  <si>
+    <t>22 comments taken down</t>
+  </si>
+  <si>
+    <t>22 posts taken down</t>
+  </si>
+  <si>
+    <t>1 accounts not easy to access</t>
+  </si>
+  <si>
+    <t>Febuary 16th</t>
+  </si>
+  <si>
+    <t>239 Posts</t>
+  </si>
+  <si>
+    <t>23 comments taken down</t>
+  </si>
+  <si>
+    <t>23 posts taken down</t>
+  </si>
+  <si>
+    <t>Febuary 23rd</t>
+  </si>
+  <si>
+    <t>259 Posts</t>
+  </si>
+  <si>
+    <t>26 posts taken down</t>
+  </si>
+  <si>
+    <t>6 accounts not easy to access</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2452,12 +2800,32 @@
     </font>
     <font>
       <u/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2470,19 +2838,16 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <u/>
       <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF536471"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2509,26 +2874,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB6D7A8"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2538,7 +2897,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2620,52 +2979,47 @@
     <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -2688,7 +3042,7 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -3875,20 +4229,15 @@
       <c r="A44" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>192</v>
-      </c>
+      <c r="C44" s="27"/>
       <c r="D44" s="18">
         <v>13.0</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H44" s="7">
         <v>15.0</v>
@@ -3896,22 +4245,22 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="D45" s="18">
         <v>4.0</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H45" s="7">
         <v>10.0</v>
@@ -3919,51 +4268,51 @@
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D46" s="18">
         <v>5.0</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="H46" s="7">
         <v>8.0</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>206</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>208</v>
       </c>
       <c r="D47" s="18">
         <v>5.0</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G47" s="25" t="s">
         <v>209</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>211</v>
       </c>
       <c r="H47" s="7">
         <v>10.0</v>
@@ -3971,19 +4320,19 @@
     </row>
     <row r="48">
       <c r="A48" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D48" s="18">
         <v>5.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H48" s="7">
         <v>8.0</v>
@@ -3991,19 +4340,19 @@
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D49" s="18">
         <v>5.0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H49" s="7">
         <v>8.0</v>
@@ -4011,40 +4360,39 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D50" s="18">
         <v>7.0</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H50" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="24" t="s">
-        <v>225</v>
+      <c r="A51" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>223</v>
       </c>
       <c r="D51" s="18">
         <v>5.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H51" s="7">
         <v>8.0</v>
@@ -4052,19 +4400,19 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D52" s="18">
         <v>4.0</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H52" s="7">
         <v>8.0</v>
@@ -4072,19 +4420,19 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D53" s="18">
         <v>5.0</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H53" s="7">
         <v>8.0</v>
@@ -4092,19 +4440,19 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D54" s="18">
         <v>14.0</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H54" s="7">
         <v>8.0</v>
@@ -4112,25 +4460,25 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" s="26" t="s">
         <v>240</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>242</v>
       </c>
       <c r="D55" s="18">
         <v>5.0</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G55" s="25" t="s">
         <v>243</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>245</v>
       </c>
       <c r="H55" s="7">
         <v>10.0</v>
@@ -4138,19 +4486,19 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D56" s="18">
         <v>5.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H56" s="7">
         <v>8.0</v>
@@ -4158,19 +4506,19 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D57" s="18">
         <v>1.0</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H57" s="7">
         <v>8.0</v>
@@ -4178,19 +4526,19 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D58" s="18">
         <v>5.0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H58" s="7">
         <v>8.0</v>
@@ -4198,19 +4546,19 @@
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D59" s="18">
         <v>5.0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H59" s="7">
         <v>8.0</v>
@@ -4218,19 +4566,19 @@
     </row>
     <row r="60">
       <c r="A60" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D60" s="18">
         <v>10.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H60" s="7">
         <v>8.0</v>
@@ -4238,19 +4586,19 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D61" s="18">
         <v>9.0</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H61" s="7">
         <v>10.0</v>
@@ -4258,19 +4606,19 @@
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D62" s="18">
         <v>5.0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H62" s="7">
         <v>10.0</v>
@@ -4278,19 +4626,19 @@
     </row>
     <row r="63">
       <c r="A63" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D63" s="18">
         <v>2.0</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H63" s="7">
         <v>8.0</v>
@@ -4298,22 +4646,22 @@
     </row>
     <row r="64">
       <c r="A64" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>278</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>280</v>
       </c>
       <c r="D64" s="18">
         <v>2.0</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H64" s="7">
         <v>8.0</v>
@@ -4321,19 +4669,19 @@
     </row>
     <row r="65">
       <c r="A65" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D65" s="18">
         <v>1.0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H65" s="7">
         <v>8.0</v>
@@ -4341,19 +4689,19 @@
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D66" s="18">
         <v>5.0</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H66" s="7">
         <v>8.0</v>
@@ -4361,19 +4709,19 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D67" s="18">
         <v>1.0</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H67" s="7">
         <v>15.0</v>
@@ -4381,19 +4729,19 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D68" s="18">
         <v>5.0</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H68" s="7">
         <v>8.0</v>
@@ -4401,19 +4749,19 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D69" s="18">
         <v>9.0</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H69" s="7">
         <v>9.0</v>
@@ -4421,19 +4769,19 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D70" s="18">
         <v>5.0</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H70" s="7">
         <v>9.0</v>
@@ -4441,22 +4789,22 @@
     </row>
     <row r="71">
       <c r="A71" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C71" s="14" t="s">
         <v>307</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>309</v>
       </c>
       <c r="D71" s="18">
         <v>17.0</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H71" s="7">
         <v>8.0</v>
@@ -4464,19 +4812,19 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D72" s="18">
         <v>2.0</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H72" s="7">
         <v>8.0</v>
@@ -4484,19 +4832,19 @@
     </row>
     <row r="73">
       <c r="A73" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D73" s="18">
         <v>5.0</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H73" s="7">
         <v>10.0</v>
@@ -4504,19 +4852,19 @@
     </row>
     <row r="74">
       <c r="A74" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D74" s="18">
         <v>5.0</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H74" s="7">
         <v>9.0</v>
@@ -4524,19 +4872,19 @@
     </row>
     <row r="75">
       <c r="A75" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D75" s="18">
         <v>5.0</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H75" s="7">
         <v>9.0</v>
@@ -4544,22 +4892,22 @@
     </row>
     <row r="76">
       <c r="A76" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>328</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>330</v>
       </c>
       <c r="D76" s="18">
         <v>5.0</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H76" s="7">
         <v>8.0</v>
@@ -4567,22 +4915,22 @@
     </row>
     <row r="77">
       <c r="A77" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C77" s="24" t="s">
         <v>333</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>335</v>
       </c>
       <c r="D77" s="18">
         <v>2.0</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H77" s="7">
         <v>10.0</v>
@@ -4590,19 +4938,19 @@
     </row>
     <row r="78">
       <c r="A78" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D78" s="18">
         <v>10.0</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H78" s="7">
         <v>8.0</v>
@@ -4610,19 +4958,19 @@
     </row>
     <row r="79">
       <c r="A79" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D79" s="18">
         <v>5.0</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H79" s="7">
         <v>8.0</v>
@@ -4630,19 +4978,19 @@
     </row>
     <row r="80">
       <c r="A80" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D80" s="18">
         <v>7.0</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H80" s="7">
         <v>8.0</v>
@@ -4650,19 +4998,19 @@
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D81" s="18">
         <v>5.0</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H81" s="7">
         <v>8.0</v>
@@ -4670,19 +5018,19 @@
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D82" s="18">
         <v>10.0</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H82" s="7">
         <v>8.0</v>
@@ -4690,19 +5038,19 @@
     </row>
     <row r="83">
       <c r="A83" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D83" s="18">
         <v>4.0</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H83" s="7">
         <v>8.0</v>
@@ -4710,19 +5058,19 @@
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D84" s="18">
         <v>5.0</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H84" s="7">
         <v>8.0</v>
@@ -4730,19 +5078,19 @@
     </row>
     <row r="85">
       <c r="A85" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D85" s="18">
         <v>5.0</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H85" s="7">
         <v>8.0</v>
@@ -4750,19 +5098,19 @@
     </row>
     <row r="86">
       <c r="A86" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D86" s="18">
         <v>5.0</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H86" s="7">
         <v>8.0</v>
@@ -4770,19 +5118,19 @@
     </row>
     <row r="87">
       <c r="A87" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D87" s="18">
         <v>5.0</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H87" s="7">
         <v>9.0</v>
@@ -4790,19 +5138,19 @@
     </row>
     <row r="88">
       <c r="A88" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D88" s="18">
         <v>5.0</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H88" s="7">
         <v>8.0</v>
@@ -4810,19 +5158,19 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D89" s="18">
         <v>5.0</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H89" s="7">
         <v>8.0</v>
@@ -4830,19 +5178,19 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D90" s="18">
         <v>12.0</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H90" s="7">
         <v>2.0</v>
@@ -4850,22 +5198,22 @@
     </row>
     <row r="91">
       <c r="A91" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D91" s="18">
         <v>6.0</v>
       </c>
       <c r="E91" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G91" s="25" t="s">
         <v>392</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="G91" s="25" t="s">
-        <v>394</v>
       </c>
       <c r="H91" s="7">
         <v>8.0</v>
@@ -4873,19 +5221,19 @@
     </row>
     <row r="92">
       <c r="A92" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D92" s="18">
         <v>4.0</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H92" s="7">
         <v>14.0</v>
@@ -4893,19 +5241,19 @@
     </row>
     <row r="93">
       <c r="A93" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D93" s="18">
         <v>10.0</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H93" s="7">
         <v>14.0</v>
@@ -4913,22 +5261,22 @@
     </row>
     <row r="94">
       <c r="A94" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C94" s="24" t="s">
         <v>403</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="C94" s="24" t="s">
-        <v>405</v>
       </c>
       <c r="D94" s="18">
         <v>10.0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H94" s="7">
         <v>10.0</v>
@@ -4936,22 +5284,22 @@
     </row>
     <row r="95">
       <c r="A95" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C95" s="24" t="s">
         <v>408</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>410</v>
       </c>
       <c r="D95" s="18">
         <v>5.0</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H95" s="7">
         <v>8.0</v>
@@ -4959,19 +5307,19 @@
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D96" s="18">
         <v>5.0</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H96" s="7">
         <v>14.0</v>
@@ -4979,19 +5327,19 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D97" s="18">
         <v>5.0</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H97" s="7">
         <v>8.0</v>
@@ -4999,19 +5347,19 @@
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D98" s="18">
         <v>5.0</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H98" s="7">
         <v>8.0</v>
@@ -5019,36 +5367,36 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D99" s="18">
         <v>6.0</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D100" s="18">
         <v>2.0</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H100" s="7">
         <v>10.0</v>
@@ -5056,19 +5404,19 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D101" s="18">
         <v>2.0</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H101" s="7">
         <v>10.0</v>
@@ -5076,19 +5424,19 @@
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D102" s="18">
         <v>13.0</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H102" s="7">
         <v>8.0</v>
@@ -5096,19 +5444,19 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D103" s="18">
         <v>10.0</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H103" s="7">
         <v>10.0</v>
@@ -5116,19 +5464,19 @@
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D104" s="18">
         <v>9.0</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H104" s="7">
         <v>10.0</v>
@@ -5136,19 +5484,19 @@
     </row>
     <row r="105">
       <c r="A105" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D105" s="18">
         <v>5.0</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H105" s="7">
         <v>10.0</v>
@@ -5156,19 +5504,19 @@
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D106" s="18">
         <v>5.0</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H106" s="7">
         <v>8.0</v>
@@ -5176,39 +5524,42 @@
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D107" s="18">
         <v>5.0</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H107" s="7">
         <v>8.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="B108" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="C108" s="28" t="s">
         <v>461</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>462</v>
       </c>
       <c r="D108" s="18">
         <v>1.0</v>
       </c>
       <c r="E108" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="G108" s="10" t="s">
         <v>463</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>464</v>
       </c>
       <c r="H108" s="7">
         <v>10.0</v>
@@ -5216,9 +5567,11 @@
     </row>
     <row r="109">
       <c r="A109" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B109" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="B109" s="27"/>
       <c r="C109" s="14" t="s">
         <v>466</v>
       </c>
@@ -5236,311 +5589,315 @@
       <c r="A110" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="B110" s="27"/>
-      <c r="C110" s="28" t="s">
+      <c r="B110" s="14" t="s">
         <v>470</v>
+      </c>
+      <c r="C110" s="29" t="s">
+        <v>471</v>
       </c>
       <c r="D110" s="18">
         <v>5.0</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D111" s="18">
         <v>5.0</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="B112" s="27"/>
+        <v>480</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>481</v>
+      </c>
       <c r="C112" s="24" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D112" s="18">
         <v>1.0</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D113" s="18">
         <v>1.0</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D114" s="18">
         <v>2.0</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D115" s="18">
         <v>1.0</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D116" s="18">
         <v>1.0</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="14" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D117" s="18">
         <v>2.0</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="10" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D118" s="18">
         <v>17.0</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D119" s="18">
         <v>3.0</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D120" s="18">
         <v>1.0</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D121" s="18">
         <v>1.0</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="14" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D122" s="18">
         <v>6.0</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="10" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D123" s="18">
         <v>17.0</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="10" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D124" s="18">
         <v>13.0</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="10" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D125" s="18">
         <v>7.0</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="10" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D126" s="18">
         <v>7.0</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="10" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D127" s="18">
         <v>8.0</v>
@@ -5548,10 +5905,10 @@
     </row>
     <row r="128">
       <c r="A128" s="10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D128" s="18">
         <v>7.0</v>
@@ -5559,10 +5916,10 @@
     </row>
     <row r="129">
       <c r="A129" s="10" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D129" s="18">
         <v>2.0</v>
@@ -5570,10 +5927,10 @@
     </row>
     <row r="130">
       <c r="A130" s="10" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D130" s="18">
         <v>5.0</v>
@@ -5581,21 +5938,24 @@
     </row>
     <row r="131">
       <c r="A131" s="10" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D131" s="18">
         <v>13.0</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>552</v>
+      <c r="A132" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>555</v>
       </c>
       <c r="D132" s="18">
         <v>5.0</v>
@@ -5603,10 +5963,10 @@
     </row>
     <row r="133">
       <c r="A133" s="10" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D133" s="18">
         <v>15.0</v>
@@ -5614,34 +5974,34 @@
     </row>
     <row r="134">
       <c r="A134" s="14" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="D134" s="29"/>
+        <v>560</v>
+      </c>
+      <c r="D134" s="30"/>
     </row>
     <row r="135">
       <c r="A135" s="3" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D135" s="29"/>
+        <v>563</v>
+      </c>
+      <c r="D135" s="30"/>
     </row>
     <row r="136">
       <c r="A136" s="10" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D136" s="18">
         <v>15.0</v>
@@ -5649,10 +6009,10 @@
     </row>
     <row r="137">
       <c r="A137" s="10" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D137" s="18">
         <v>11.0</v>
@@ -5660,10 +6020,10 @@
     </row>
     <row r="138">
       <c r="A138" s="10" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D138" s="18">
         <v>15.0</v>
@@ -5671,10 +6031,10 @@
     </row>
     <row r="139">
       <c r="A139" s="10" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D139" s="18">
         <v>15.0</v>
@@ -5682,10 +6042,10 @@
     </row>
     <row r="140">
       <c r="A140" s="10" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D140" s="18">
         <v>4.0</v>
@@ -5693,10 +6053,10 @@
     </row>
     <row r="141">
       <c r="A141" s="10" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D141" s="18">
         <v>15.0</v>
@@ -5704,10 +6064,10 @@
     </row>
     <row r="142">
       <c r="A142" s="10" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D142" s="18">
         <v>15.0</v>
@@ -5715,10 +6075,10 @@
     </row>
     <row r="143">
       <c r="A143" s="10" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D143" s="18">
         <v>15.0</v>
@@ -5726,10 +6086,10 @@
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D144" s="18">
         <v>5.0</v>
@@ -5737,10 +6097,10 @@
     </row>
     <row r="145">
       <c r="A145" s="10" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D145" s="18">
         <v>9.0</v>
@@ -5748,10 +6108,10 @@
     </row>
     <row r="146">
       <c r="A146" s="10" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D146" s="18">
         <v>9.0</v>
@@ -5759,10 +6119,10 @@
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D147" s="18">
         <v>13.0</v>
@@ -5770,10 +6130,10 @@
     </row>
     <row r="148">
       <c r="A148" s="10" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D148" s="18">
         <v>15.0</v>
@@ -5781,10 +6141,10 @@
     </row>
     <row r="149">
       <c r="A149" s="10" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D149" s="18">
         <v>15.0</v>
@@ -5792,10 +6152,10 @@
     </row>
     <row r="150">
       <c r="A150" s="10" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D150" s="18">
         <v>15.0</v>
@@ -5803,10 +6163,10 @@
     </row>
     <row r="151">
       <c r="A151" s="10" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D151" s="18">
         <v>15.0</v>
@@ -5814,10 +6174,10 @@
     </row>
     <row r="152">
       <c r="A152" s="10" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D152" s="18">
         <v>5.0</v>
@@ -5825,13 +6185,13 @@
     </row>
     <row r="153">
       <c r="A153" s="3" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D153" s="18">
         <v>15.0</v>
@@ -5839,10 +6199,10 @@
     </row>
     <row r="154">
       <c r="A154" s="10" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D154" s="18">
         <v>15.0</v>
@@ -5850,10 +6210,10 @@
     </row>
     <row r="155">
       <c r="A155" s="10" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D155" s="18">
         <v>10.0</v>
@@ -5861,13 +6221,13 @@
     </row>
     <row r="156">
       <c r="A156" s="3" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D156" s="18">
         <v>6.0</v>
@@ -5875,24 +6235,27 @@
     </row>
     <row r="157">
       <c r="A157" s="3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D157" s="18">
         <v>2.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>609</v>
+      <c r="A158" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>613</v>
       </c>
       <c r="D158" s="18">
         <v>15.0</v>
@@ -5900,13 +6263,13 @@
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D159" s="18">
         <v>7.0</v>
@@ -5914,10 +6277,10 @@
     </row>
     <row r="160">
       <c r="A160" s="10" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D160" s="18">
         <v>10.0</v>
@@ -5925,10 +6288,10 @@
     </row>
     <row r="161">
       <c r="A161" s="10" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D161" s="18">
         <v>5.0</v>
@@ -5936,2971 +6299,3381 @@
     </row>
     <row r="162">
       <c r="A162" s="10" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D162" s="18">
         <v>5.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="30" t="s">
-        <v>619</v>
-      </c>
-      <c r="B163" s="31"/>
-      <c r="C163" s="32" t="s">
-        <v>620</v>
-      </c>
-      <c r="D163" s="29"/>
+      <c r="A163" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="D163" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" s="30" t="s">
-        <v>621</v>
-      </c>
-      <c r="B164" s="31"/>
-      <c r="C164" s="32" t="s">
-        <v>622</v>
-      </c>
-      <c r="D164" s="18" t="s">
-        <v>623</v>
+      <c r="A164" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="D164" s="18">
+        <v>5.0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="33" t="s">
-        <v>624</v>
-      </c>
-      <c r="B165" s="34"/>
-      <c r="C165" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="D165" s="29"/>
+      <c r="A165" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="B165" s="31" t="s">
+        <v>628</v>
+      </c>
+      <c r="C165" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="D165" s="18">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" s="30" t="s">
-        <v>626</v>
-      </c>
-      <c r="B166" s="31"/>
-      <c r="C166" s="32" t="s">
-        <v>627</v>
-      </c>
-      <c r="D166" s="18" t="s">
-        <v>623</v>
+      <c r="A166" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B166" s="33" t="s">
+        <v>631</v>
+      </c>
+      <c r="C166" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="D166" s="18">
+        <v>2.0</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="30" t="s">
-        <v>628</v>
-      </c>
-      <c r="B167" s="31"/>
-      <c r="C167" s="30" t="s">
-        <v>629</v>
-      </c>
-      <c r="D167" s="29"/>
+      <c r="A167" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="D167" s="18">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="30" t="s">
-        <v>630</v>
-      </c>
-      <c r="B168" s="31"/>
-      <c r="C168" s="30" t="s">
-        <v>631</v>
-      </c>
-      <c r="D168" s="29"/>
+      <c r="A168" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="D168" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" s="30" t="s">
-        <v>632</v>
-      </c>
-      <c r="B169" s="31"/>
-      <c r="C169" s="32" t="s">
-        <v>633</v>
-      </c>
-      <c r="D169" s="29"/>
+      <c r="A169" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="D169" s="18">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" s="30" t="s">
-        <v>634</v>
-      </c>
-      <c r="B170" s="31"/>
-      <c r="C170" s="32" t="s">
-        <v>635</v>
-      </c>
-      <c r="D170" s="18" t="s">
-        <v>623</v>
+      <c r="A170" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="D170" s="18">
+        <v>5.0</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="30" t="s">
-        <v>636</v>
-      </c>
-      <c r="B171" s="36"/>
-      <c r="C171" s="37" t="s">
-        <v>637</v>
-      </c>
-      <c r="D171" s="29"/>
+      <c r="A171" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="B171" s="7"/>
+      <c r="C171" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="D171" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" s="30" t="s">
-        <v>638</v>
-      </c>
-      <c r="B172" s="31"/>
-      <c r="C172" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="D172" s="29"/>
+      <c r="A172" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="D172" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="B173" s="31"/>
-      <c r="C173" s="32" t="s">
-        <v>641</v>
-      </c>
-      <c r="D173" s="18" t="s">
-        <v>623</v>
+      <c r="A173" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="D173" s="18">
+        <v>13.0</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="B174" s="31"/>
-      <c r="C174" s="30" t="s">
-        <v>643</v>
-      </c>
-      <c r="D174" s="29"/>
+      <c r="A174" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="D174" s="18">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" s="30" t="s">
-        <v>644</v>
-      </c>
-      <c r="B175" s="31"/>
-      <c r="C175" s="32" t="s">
-        <v>645</v>
-      </c>
-      <c r="D175" s="18" t="s">
-        <v>623</v>
+      <c r="A175" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="D175" s="18">
+        <v>4.0</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="30" t="s">
-        <v>646</v>
-      </c>
-      <c r="B176" s="31"/>
-      <c r="C176" s="32" t="s">
-        <v>647</v>
-      </c>
-      <c r="D176" s="18" t="s">
-        <v>623</v>
+      <c r="A176" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="C176" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="D176" s="18">
+        <v>4.0</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="B177" s="31"/>
-      <c r="C177" s="32" t="s">
-        <v>649</v>
-      </c>
-      <c r="D177" s="29"/>
+      <c r="A177" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="D177" s="18">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" s="30" t="s">
-        <v>650</v>
-      </c>
-      <c r="B178" s="31"/>
-      <c r="C178" s="30" t="s">
-        <v>651</v>
-      </c>
-      <c r="D178" s="29"/>
+      <c r="A178" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="D178" s="18">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="179">
-      <c r="A179" s="30" t="s">
-        <v>652</v>
-      </c>
-      <c r="B179" s="31"/>
-      <c r="C179" s="32" t="s">
-        <v>653</v>
-      </c>
-      <c r="D179" s="29"/>
+      <c r="A179" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="D179" s="18">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" s="33" t="s">
-        <v>654</v>
-      </c>
-      <c r="B180" s="34"/>
-      <c r="C180" s="35" t="s">
-        <v>655</v>
-      </c>
-      <c r="D180" s="18" t="s">
-        <v>623</v>
+      <c r="A180" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C180" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="D180" s="18">
+        <v>15.0</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="30" t="s">
-        <v>656</v>
-      </c>
-      <c r="B181" s="31"/>
-      <c r="C181" s="32" t="s">
-        <v>657</v>
-      </c>
-      <c r="D181" s="18" t="s">
-        <v>623</v>
+      <c r="A181" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="D181" s="18">
+        <v>2.0</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="B182" s="31"/>
-      <c r="C182" s="32" t="s">
-        <v>659</v>
-      </c>
-      <c r="D182" s="29"/>
+      <c r="A182" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="D182" s="18">
+        <v>2.0</v>
+      </c>
       <c r="F182" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="B183" s="38"/>
+        <v>670</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>671</v>
+      </c>
       <c r="C183" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="D183" s="18" t="s">
-        <v>623</v>
+        <v>672</v>
+      </c>
+      <c r="D183" s="18">
+        <v>4.0</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="39" t="s">
-        <v>663</v>
-      </c>
-      <c r="B184" s="40"/>
-      <c r="C184" s="41" t="s">
-        <v>664</v>
-      </c>
-      <c r="D184" s="29"/>
+      <c r="A184" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="D184" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="185">
-      <c r="A185" s="39" t="s">
-        <v>665</v>
-      </c>
-      <c r="B185" s="40"/>
-      <c r="C185" s="39" t="s">
-        <v>666</v>
-      </c>
-      <c r="D185" s="29"/>
+      <c r="A185" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="D185" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" s="39" t="s">
-        <v>667</v>
-      </c>
-      <c r="B186" s="40"/>
-      <c r="C186" s="41" t="s">
-        <v>668</v>
-      </c>
-      <c r="D186" s="18" t="s">
-        <v>623</v>
+      <c r="A186" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="D186" s="18">
+        <v>5.0</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="39" t="s">
-        <v>669</v>
-      </c>
-      <c r="B187" s="40"/>
-      <c r="C187" s="39" t="s">
-        <v>670</v>
-      </c>
-      <c r="D187" s="29"/>
+      <c r="A187" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="D187" s="18">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" s="39" t="s">
-        <v>671</v>
-      </c>
-      <c r="B188" s="40"/>
-      <c r="C188" s="39" t="s">
-        <v>672</v>
-      </c>
-      <c r="D188" s="29"/>
+      <c r="A188" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="D188" s="18">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" s="39" t="s">
-        <v>673</v>
-      </c>
-      <c r="B189" s="40"/>
-      <c r="C189" s="39" t="s">
-        <v>674</v>
-      </c>
-      <c r="D189" s="29"/>
+      <c r="A189" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="D189" s="18">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" s="39" t="s">
-        <v>675</v>
-      </c>
-      <c r="B190" s="40"/>
-      <c r="C190" s="42" t="s">
-        <v>676</v>
-      </c>
-      <c r="D190" s="29"/>
+      <c r="A190" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="D190" s="18">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="B191" s="40"/>
-      <c r="C191" s="39" t="s">
-        <v>678</v>
-      </c>
-      <c r="D191" s="29"/>
+      <c r="A191" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D191" s="18">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="192">
-      <c r="A192" s="39" t="s">
-        <v>679</v>
-      </c>
-      <c r="B192" s="40"/>
-      <c r="C192" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="D192" s="29"/>
+      <c r="A192" s="11"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="30"/>
     </row>
     <row r="193">
-      <c r="A193" s="39" t="s">
-        <v>681</v>
-      </c>
-      <c r="B193" s="40"/>
-      <c r="C193" s="39" t="s">
-        <v>682</v>
-      </c>
-      <c r="D193" s="29"/>
+      <c r="A193" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="D193" s="18">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="194">
-      <c r="A194" s="43"/>
-      <c r="B194" s="40"/>
-      <c r="C194" s="43"/>
-      <c r="D194" s="29"/>
+      <c r="A194" s="11"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="30"/>
     </row>
     <row r="195">
-      <c r="A195" s="39" t="s">
-        <v>683</v>
-      </c>
-      <c r="B195" s="40"/>
-      <c r="C195" s="39" t="s">
-        <v>684</v>
-      </c>
-      <c r="D195" s="29"/>
+      <c r="A195" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="D195" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" s="39" t="s">
-        <v>685</v>
-      </c>
-      <c r="B196" s="40"/>
-      <c r="C196" s="39" t="s">
-        <v>686</v>
-      </c>
-      <c r="D196" s="29"/>
+      <c r="A196" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="D196" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="197">
-      <c r="A197" s="39" t="s">
-        <v>687</v>
-      </c>
-      <c r="B197" s="40"/>
-      <c r="C197" s="41" t="s">
-        <v>688</v>
-      </c>
-      <c r="D197" s="18" t="s">
-        <v>623</v>
+      <c r="A197" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="D197" s="18">
+        <v>5.0</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="39" t="s">
-        <v>689</v>
-      </c>
-      <c r="B198" s="40"/>
-      <c r="C198" s="41" t="s">
-        <v>690</v>
-      </c>
-      <c r="D198" s="18" t="s">
-        <v>623</v>
+      <c r="A198" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="D198" s="18">
+        <v>5.0</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="39" t="s">
-        <v>691</v>
-      </c>
-      <c r="B199" s="44"/>
-      <c r="C199" s="41" t="s">
-        <v>692</v>
-      </c>
-      <c r="D199" s="18" t="s">
-        <v>623</v>
+      <c r="A199" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B199" s="7"/>
+      <c r="C199" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="D199" s="18">
+        <v>12.0</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="39" t="s">
-        <v>693</v>
-      </c>
-      <c r="B200" s="40"/>
-      <c r="C200" s="41" t="s">
-        <v>694</v>
-      </c>
-      <c r="D200" s="18" t="s">
-        <v>623</v>
+      <c r="A200" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="C200" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="D200" s="18">
+        <v>9.0</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="39" t="s">
-        <v>695</v>
-      </c>
-      <c r="B201" s="40"/>
-      <c r="C201" s="41" t="s">
-        <v>696</v>
-      </c>
-      <c r="D201" s="18" t="s">
-        <v>623</v>
+      <c r="A201" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="C201" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="D201" s="18">
+        <v>5.0</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="39" t="s">
-        <v>697</v>
-      </c>
-      <c r="B202" s="40"/>
-      <c r="C202" s="41" t="s">
-        <v>698</v>
-      </c>
-      <c r="D202" s="18" t="s">
-        <v>623</v>
+      <c r="A202" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="C202" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="D202" s="18">
+        <v>13.0</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="C203" s="20" t="s">
-        <v>701</v>
-      </c>
-      <c r="D203" s="45"/>
+      <c r="A203" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B203" s="34" t="s">
+        <v>710</v>
+      </c>
+      <c r="C203" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="D203" s="35">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="10" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="D204" s="18" t="s">
-        <v>623</v>
+        <v>713</v>
+      </c>
+      <c r="D204" s="18">
+        <v>3.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="10" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>705</v>
-      </c>
-      <c r="D205" s="29"/>
+        <v>715</v>
+      </c>
+      <c r="D205" s="18">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="10" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>707</v>
-      </c>
-      <c r="D206" s="29"/>
+        <v>717</v>
+      </c>
+      <c r="D206" s="18">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="10" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>709</v>
-      </c>
-      <c r="D207" s="29"/>
+        <v>719</v>
+      </c>
+      <c r="D207" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="10" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>674</v>
-      </c>
-      <c r="D208" s="18" t="s">
-        <v>623</v>
+        <v>684</v>
+      </c>
+      <c r="D208" s="18">
+        <v>12.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="10" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>712</v>
-      </c>
-      <c r="D209" s="18" t="s">
-        <v>623</v>
+        <v>722</v>
+      </c>
+      <c r="D209" s="18">
+        <v>5.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="10" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="D210" s="29"/>
+        <v>724</v>
+      </c>
+      <c r="D210" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="10" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>716</v>
-      </c>
-      <c r="D211" s="18" t="s">
-        <v>623</v>
+        <v>726</v>
+      </c>
+      <c r="D211" s="18">
+        <v>5.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="10" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>718</v>
-      </c>
-      <c r="D212" s="29"/>
+        <v>728</v>
+      </c>
+      <c r="D212" s="18">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="10" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>720</v>
-      </c>
-      <c r="D213" s="18" t="s">
-        <v>623</v>
+        <v>730</v>
+      </c>
+      <c r="D213" s="18">
+        <v>5.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="10" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>722</v>
-      </c>
-      <c r="D214" s="29"/>
+        <v>732</v>
+      </c>
+      <c r="D214" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="10" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>724</v>
-      </c>
-      <c r="D215" s="18" t="s">
-        <v>623</v>
+        <v>734</v>
+      </c>
+      <c r="D215" s="18">
+        <v>6.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="10" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>726</v>
-      </c>
-      <c r="D216" s="29"/>
+        <v>736</v>
+      </c>
+      <c r="D216" s="18">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="10" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>728</v>
-      </c>
-      <c r="D217" s="29"/>
+        <v>738</v>
+      </c>
+      <c r="D217" s="18">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="10" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>730</v>
-      </c>
-      <c r="D218" s="18" t="s">
-        <v>623</v>
+        <v>740</v>
+      </c>
+      <c r="D218" s="18">
+        <v>5.0</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="10" t="s">
-        <v>731</v>
-      </c>
-      <c r="C219" s="20" t="s">
-        <v>732</v>
-      </c>
-      <c r="D219" s="18" t="s">
-        <v>623</v>
+      <c r="A219" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="B219" s="36" t="s">
+        <v>742</v>
+      </c>
+      <c r="C219" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="D219" s="18">
+        <v>5.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="10" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>734</v>
-      </c>
-      <c r="D220" s="29"/>
+        <v>745</v>
+      </c>
+      <c r="D220" s="18">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="10" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>736</v>
-      </c>
-      <c r="D221" s="29"/>
+        <v>747</v>
+      </c>
+      <c r="D221" s="18">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="10" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>738</v>
-      </c>
-      <c r="D222" s="29"/>
+        <v>749</v>
+      </c>
+      <c r="D222" s="18">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="223">
-      <c r="A223" s="10" t="s">
-        <v>739</v>
-      </c>
-      <c r="C223" s="20" t="s">
-        <v>740</v>
-      </c>
-      <c r="D223" s="18" t="s">
-        <v>623</v>
+      <c r="A223" s="28" t="s">
+        <v>750</v>
+      </c>
+      <c r="B223" s="31" t="s">
+        <v>751</v>
+      </c>
+      <c r="C223" s="32" t="s">
+        <v>752</v>
+      </c>
+      <c r="D223" s="18">
+        <v>2.0</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="C224" s="20" t="s">
-        <v>742</v>
-      </c>
-      <c r="D224" s="29"/>
+      <c r="A224" s="28" t="s">
+        <v>753</v>
+      </c>
+      <c r="B224" s="31" t="s">
+        <v>754</v>
+      </c>
+      <c r="C224" s="32" t="s">
+        <v>755</v>
+      </c>
+      <c r="D224" s="18">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="225">
-      <c r="D225" s="29"/>
+      <c r="A225" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="C225" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="D225" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="226">
-      <c r="D226" s="29"/>
+      <c r="A226" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="C226" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="D226" s="18">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="227">
-      <c r="D227" s="29"/>
+      <c r="A227" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="C227" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="D227" s="18">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="228">
-      <c r="D228" s="29"/>
+      <c r="A228" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="C228" s="20" t="s">
+        <v>763</v>
+      </c>
+      <c r="D228" s="18">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="229">
-      <c r="D229" s="29"/>
+      <c r="A229" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="C229" s="20" t="s">
+        <v>765</v>
+      </c>
+      <c r="D229" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="230">
-      <c r="D230" s="29"/>
+      <c r="A230" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="C230" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D230" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="231">
-      <c r="D231" s="29"/>
+      <c r="A231" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="C231" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D231" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="232">
-      <c r="D232" s="29"/>
+      <c r="A232" s="28" t="s">
+        <v>770</v>
+      </c>
+      <c r="B232" s="31" t="s">
+        <v>771</v>
+      </c>
+      <c r="C232" s="32" t="s">
+        <v>772</v>
+      </c>
+      <c r="D232" s="18">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="233">
-      <c r="D233" s="29"/>
+      <c r="A233" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="C233" s="20" t="s">
+        <v>774</v>
+      </c>
+      <c r="D233" s="18">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="234">
-      <c r="D234" s="29"/>
+      <c r="A234" s="28" t="s">
+        <v>775</v>
+      </c>
+      <c r="B234" s="31" t="s">
+        <v>776</v>
+      </c>
+      <c r="C234" s="32" t="s">
+        <v>777</v>
+      </c>
+      <c r="D234" s="18">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="235">
-      <c r="D235" s="29"/>
+      <c r="A235" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="C235" s="20" t="s">
+        <v>779</v>
+      </c>
+      <c r="D235" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="236">
-      <c r="D236" s="29"/>
+      <c r="A236" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="C236" s="20" t="s">
+        <v>781</v>
+      </c>
+      <c r="D236" s="18">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="237">
-      <c r="D237" s="29"/>
+      <c r="A237" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="C237" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="D237" s="18">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="238">
-      <c r="D238" s="29"/>
+      <c r="A238" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="C238" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="D238" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="239">
-      <c r="D239" s="29"/>
+      <c r="A239" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C239" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="D239" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="240">
-      <c r="D240" s="29"/>
+      <c r="A240" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="C240" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="D240" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="241">
-      <c r="D241" s="29"/>
+      <c r="A241" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="C241" s="20" t="s">
+        <v>791</v>
+      </c>
+      <c r="D241" s="18">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="242">
-      <c r="D242" s="29"/>
+      <c r="A242" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="C242" s="20" t="s">
+        <v>793</v>
+      </c>
+      <c r="D242" s="18">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="243">
-      <c r="D243" s="29"/>
+      <c r="A243" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="C243" s="20" t="s">
+        <v>795</v>
+      </c>
+      <c r="D243" s="18">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="244">
-      <c r="D244" s="29"/>
+      <c r="A244" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="C244" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="D244" s="18">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="245">
-      <c r="D245" s="29"/>
+      <c r="A245" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C245" s="37" t="s">
+        <v>799</v>
+      </c>
+      <c r="D245" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="246">
-      <c r="D246" s="29"/>
+      <c r="A246" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="C246" s="37" t="s">
+        <v>801</v>
+      </c>
+      <c r="D246" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="247">
-      <c r="D247" s="29"/>
+      <c r="A247" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="C247" s="37" t="s">
+        <v>803</v>
+      </c>
+      <c r="D247" s="18">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="248">
-      <c r="D248" s="29"/>
+      <c r="A248" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="C248" s="37" t="s">
+        <v>805</v>
+      </c>
+      <c r="D248" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="249">
-      <c r="D249" s="29"/>
+      <c r="A249" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B249" s="33" t="s">
+        <v>807</v>
+      </c>
+      <c r="C249" s="26" t="s">
+        <v>808</v>
+      </c>
+      <c r="D249" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="250">
-      <c r="D250" s="29"/>
+      <c r="A250" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="C250" s="37" t="s">
+        <v>810</v>
+      </c>
+      <c r="D250" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="251">
-      <c r="D251" s="29"/>
+      <c r="A251" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="C251" s="37" t="s">
+        <v>812</v>
+      </c>
+      <c r="D251" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="252">
-      <c r="D252" s="29"/>
+      <c r="A252" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="C252" s="38" t="s">
+        <v>814</v>
+      </c>
+      <c r="D252" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="253">
-      <c r="D253" s="29"/>
+      <c r="A253" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="C253" s="37" t="s">
+        <v>816</v>
+      </c>
+      <c r="D253" s="18">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="254">
-      <c r="D254" s="29"/>
+      <c r="A254" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="C254" s="37" t="s">
+        <v>818</v>
+      </c>
+      <c r="D254" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="255">
-      <c r="D255" s="29"/>
+      <c r="A255" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="C255" s="37" t="s">
+        <v>820</v>
+      </c>
+      <c r="D255" s="18">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="256">
-      <c r="D256" s="29"/>
+      <c r="A256" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="C256" s="37" t="s">
+        <v>822</v>
+      </c>
+      <c r="D256" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="257">
-      <c r="D257" s="29"/>
+      <c r="A257" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="C257" s="37" t="s">
+        <v>824</v>
+      </c>
+      <c r="D257" s="18">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="258">
-      <c r="D258" s="29"/>
+      <c r="A258" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C258" s="26" t="s">
+        <v>827</v>
+      </c>
+      <c r="D258" s="18">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="259">
-      <c r="D259" s="29"/>
+      <c r="A259" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="C259" s="37" t="s">
+        <v>829</v>
+      </c>
+      <c r="D259" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="260">
-      <c r="D260" s="29"/>
+      <c r="A260" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C260" s="37" t="s">
+        <v>831</v>
+      </c>
+      <c r="D260" s="18">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="261">
-      <c r="D261" s="29"/>
+      <c r="A261" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="C261" s="37" t="s">
+        <v>833</v>
+      </c>
+      <c r="D261" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="262">
-      <c r="D262" s="29"/>
+      <c r="A262" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="C262" s="37" t="s">
+        <v>835</v>
+      </c>
+      <c r="D262" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="263">
-      <c r="D263" s="29"/>
+      <c r="A263" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="C263" s="37" t="s">
+        <v>837</v>
+      </c>
+      <c r="D263" s="18">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="264">
-      <c r="D264" s="29"/>
+      <c r="A264" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="C264" s="37" t="s">
+        <v>839</v>
+      </c>
+      <c r="D264" s="18">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="265">
-      <c r="D265" s="29"/>
+      <c r="D265" s="30"/>
     </row>
     <row r="266">
-      <c r="D266" s="29"/>
+      <c r="D266" s="30"/>
     </row>
     <row r="267">
-      <c r="D267" s="29"/>
+      <c r="D267" s="30"/>
     </row>
     <row r="268">
-      <c r="D268" s="29"/>
+      <c r="D268" s="30"/>
     </row>
     <row r="269">
-      <c r="D269" s="29"/>
+      <c r="D269" s="30"/>
     </row>
     <row r="270">
-      <c r="D270" s="29"/>
+      <c r="D270" s="30"/>
     </row>
     <row r="271">
-      <c r="D271" s="29"/>
+      <c r="D271" s="30"/>
+      <c r="G271" s="7" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="272">
-      <c r="D272" s="29"/>
+      <c r="D272" s="30"/>
+      <c r="G272" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="H272" s="30"/>
     </row>
     <row r="273">
-      <c r="D273" s="29"/>
+      <c r="D273" s="30"/>
+      <c r="H273" s="30"/>
     </row>
     <row r="274">
-      <c r="D274" s="29"/>
+      <c r="D274" s="30"/>
+      <c r="G274" s="39" t="s">
+        <v>842</v>
+      </c>
+      <c r="H274" s="30"/>
     </row>
     <row r="275">
-      <c r="D275" s="29"/>
+      <c r="G275" s="13" t="s">
+        <v>843</v>
+      </c>
+      <c r="H275" s="30"/>
     </row>
     <row r="276">
-      <c r="D276" s="29"/>
+      <c r="G276" s="40" t="s">
+        <v>844</v>
+      </c>
+      <c r="H276" s="30"/>
     </row>
     <row r="277">
-      <c r="D277" s="29"/>
-    </row>
-    <row r="278">
-      <c r="D278" s="29"/>
-    </row>
-    <row r="279">
-      <c r="D279" s="29"/>
-    </row>
-    <row r="280">
-      <c r="D280" s="29"/>
+      <c r="H277" s="18" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="281">
-      <c r="D281" s="29"/>
+      <c r="D281" s="30"/>
     </row>
     <row r="282">
-      <c r="D282" s="29"/>
+      <c r="D282" s="30"/>
     </row>
     <row r="283">
-      <c r="D283" s="29"/>
+      <c r="D283" s="30"/>
     </row>
     <row r="284">
-      <c r="D284" s="29"/>
+      <c r="D284" s="30"/>
     </row>
     <row r="285">
-      <c r="D285" s="29"/>
+      <c r="D285" s="30"/>
     </row>
     <row r="286">
-      <c r="D286" s="29"/>
+      <c r="D286" s="30"/>
     </row>
     <row r="287">
-      <c r="D287" s="29"/>
+      <c r="D287" s="30"/>
     </row>
     <row r="288">
-      <c r="D288" s="29"/>
+      <c r="D288" s="30"/>
     </row>
     <row r="289">
-      <c r="D289" s="29"/>
+      <c r="D289" s="30"/>
     </row>
     <row r="290">
-      <c r="D290" s="29"/>
+      <c r="D290" s="30"/>
     </row>
     <row r="291">
-      <c r="D291" s="29"/>
+      <c r="D291" s="30"/>
     </row>
     <row r="292">
-      <c r="D292" s="29"/>
+      <c r="D292" s="30"/>
     </row>
     <row r="293">
-      <c r="D293" s="29"/>
+      <c r="D293" s="30"/>
     </row>
     <row r="294">
-      <c r="D294" s="29"/>
+      <c r="D294" s="30"/>
     </row>
     <row r="295">
-      <c r="D295" s="29"/>
+      <c r="D295" s="30"/>
     </row>
     <row r="296">
-      <c r="D296" s="29"/>
+      <c r="D296" s="30"/>
     </row>
     <row r="297">
-      <c r="D297" s="29"/>
+      <c r="D297" s="30"/>
     </row>
     <row r="298">
-      <c r="D298" s="29"/>
+      <c r="D298" s="30"/>
     </row>
     <row r="299">
-      <c r="D299" s="29"/>
+      <c r="D299" s="30"/>
     </row>
     <row r="300">
-      <c r="D300" s="29"/>
+      <c r="D300" s="30"/>
     </row>
     <row r="301">
-      <c r="D301" s="29"/>
+      <c r="D301" s="30"/>
     </row>
     <row r="302">
-      <c r="D302" s="29"/>
+      <c r="D302" s="30"/>
     </row>
     <row r="303">
-      <c r="D303" s="29"/>
+      <c r="D303" s="30"/>
     </row>
     <row r="304">
-      <c r="D304" s="29"/>
+      <c r="D304" s="30"/>
     </row>
     <row r="305">
-      <c r="D305" s="29"/>
+      <c r="D305" s="30"/>
     </row>
     <row r="306">
-      <c r="D306" s="29"/>
+      <c r="D306" s="30"/>
     </row>
     <row r="307">
-      <c r="D307" s="29"/>
+      <c r="D307" s="30"/>
     </row>
     <row r="308">
-      <c r="D308" s="29"/>
+      <c r="D308" s="30"/>
     </row>
     <row r="309">
-      <c r="D309" s="29"/>
+      <c r="D309" s="30"/>
     </row>
     <row r="310">
-      <c r="D310" s="29"/>
+      <c r="D310" s="30"/>
     </row>
     <row r="311">
-      <c r="D311" s="29"/>
+      <c r="D311" s="30"/>
     </row>
     <row r="312">
-      <c r="D312" s="29"/>
+      <c r="D312" s="30"/>
     </row>
     <row r="313">
-      <c r="D313" s="29"/>
+      <c r="D313" s="30"/>
     </row>
     <row r="314">
-      <c r="D314" s="29"/>
+      <c r="D314" s="30"/>
     </row>
     <row r="315">
-      <c r="D315" s="29"/>
+      <c r="D315" s="30"/>
     </row>
     <row r="316">
-      <c r="D316" s="29"/>
+      <c r="D316" s="30"/>
     </row>
     <row r="317">
-      <c r="D317" s="29"/>
+      <c r="D317" s="30"/>
     </row>
     <row r="318">
-      <c r="D318" s="29"/>
+      <c r="D318" s="30"/>
     </row>
     <row r="319">
-      <c r="D319" s="29"/>
+      <c r="D319" s="30"/>
     </row>
     <row r="320">
-      <c r="D320" s="29"/>
+      <c r="D320" s="30"/>
     </row>
     <row r="321">
-      <c r="D321" s="29"/>
+      <c r="D321" s="30"/>
     </row>
     <row r="322">
-      <c r="D322" s="29"/>
+      <c r="D322" s="30"/>
     </row>
     <row r="323">
-      <c r="D323" s="29"/>
+      <c r="D323" s="30"/>
     </row>
     <row r="324">
-      <c r="D324" s="29"/>
+      <c r="D324" s="30"/>
     </row>
     <row r="325">
-      <c r="D325" s="29"/>
+      <c r="D325" s="30"/>
     </row>
     <row r="326">
-      <c r="D326" s="29"/>
+      <c r="D326" s="30"/>
     </row>
     <row r="327">
-      <c r="D327" s="29"/>
+      <c r="D327" s="30"/>
     </row>
     <row r="328">
-      <c r="D328" s="29"/>
+      <c r="D328" s="30"/>
     </row>
     <row r="329">
-      <c r="D329" s="29"/>
+      <c r="D329" s="30"/>
     </row>
     <row r="330">
-      <c r="D330" s="29"/>
+      <c r="D330" s="30"/>
     </row>
     <row r="331">
-      <c r="D331" s="29"/>
+      <c r="D331" s="30"/>
     </row>
     <row r="332">
-      <c r="D332" s="29"/>
+      <c r="D332" s="30"/>
     </row>
     <row r="333">
-      <c r="D333" s="29"/>
+      <c r="D333" s="30"/>
     </row>
     <row r="334">
-      <c r="D334" s="29"/>
+      <c r="D334" s="30"/>
     </row>
     <row r="335">
-      <c r="D335" s="29"/>
+      <c r="D335" s="30"/>
     </row>
     <row r="336">
-      <c r="D336" s="29"/>
+      <c r="D336" s="30"/>
     </row>
     <row r="337">
-      <c r="D337" s="29"/>
+      <c r="D337" s="30"/>
     </row>
     <row r="338">
-      <c r="D338" s="29"/>
+      <c r="D338" s="30"/>
     </row>
     <row r="339">
-      <c r="D339" s="29"/>
+      <c r="D339" s="30"/>
     </row>
     <row r="340">
-      <c r="D340" s="29"/>
+      <c r="D340" s="30"/>
     </row>
     <row r="341">
-      <c r="D341" s="29"/>
+      <c r="D341" s="30"/>
     </row>
     <row r="342">
-      <c r="D342" s="29"/>
+      <c r="D342" s="30"/>
     </row>
     <row r="343">
-      <c r="D343" s="29"/>
+      <c r="D343" s="30"/>
     </row>
     <row r="344">
-      <c r="D344" s="29"/>
+      <c r="D344" s="30"/>
     </row>
     <row r="345">
-      <c r="D345" s="29"/>
+      <c r="D345" s="30"/>
     </row>
     <row r="346">
-      <c r="D346" s="29"/>
+      <c r="D346" s="30"/>
     </row>
     <row r="347">
-      <c r="D347" s="29"/>
+      <c r="D347" s="30"/>
     </row>
     <row r="348">
-      <c r="D348" s="29"/>
+      <c r="D348" s="30"/>
     </row>
     <row r="349">
-      <c r="D349" s="29"/>
+      <c r="D349" s="30"/>
     </row>
     <row r="350">
-      <c r="D350" s="29"/>
+      <c r="D350" s="30"/>
     </row>
     <row r="351">
-      <c r="D351" s="29"/>
+      <c r="D351" s="30"/>
     </row>
     <row r="352">
-      <c r="D352" s="29"/>
+      <c r="D352" s="30"/>
     </row>
     <row r="353">
-      <c r="D353" s="29"/>
+      <c r="D353" s="30"/>
     </row>
     <row r="354">
-      <c r="D354" s="29"/>
+      <c r="D354" s="30"/>
     </row>
     <row r="355">
-      <c r="D355" s="29"/>
+      <c r="D355" s="30"/>
     </row>
     <row r="356">
-      <c r="D356" s="29"/>
+      <c r="D356" s="30"/>
     </row>
     <row r="357">
-      <c r="D357" s="29"/>
+      <c r="D357" s="30"/>
     </row>
     <row r="358">
-      <c r="D358" s="29"/>
+      <c r="D358" s="30"/>
     </row>
     <row r="359">
-      <c r="D359" s="29"/>
+      <c r="D359" s="30"/>
     </row>
     <row r="360">
-      <c r="D360" s="29"/>
+      <c r="D360" s="30"/>
     </row>
     <row r="361">
-      <c r="D361" s="29"/>
+      <c r="D361" s="30"/>
     </row>
     <row r="362">
-      <c r="D362" s="29"/>
+      <c r="D362" s="30"/>
     </row>
     <row r="363">
-      <c r="D363" s="29"/>
+      <c r="D363" s="30"/>
     </row>
     <row r="364">
-      <c r="D364" s="29"/>
+      <c r="D364" s="30"/>
     </row>
     <row r="365">
-      <c r="D365" s="29"/>
+      <c r="D365" s="30"/>
     </row>
     <row r="366">
-      <c r="D366" s="29"/>
+      <c r="D366" s="30"/>
     </row>
     <row r="367">
-      <c r="D367" s="29"/>
+      <c r="D367" s="30"/>
     </row>
     <row r="368">
-      <c r="D368" s="29"/>
+      <c r="D368" s="30"/>
     </row>
     <row r="369">
-      <c r="D369" s="29"/>
+      <c r="D369" s="30"/>
     </row>
     <row r="370">
-      <c r="D370" s="29"/>
+      <c r="D370" s="30"/>
     </row>
     <row r="371">
-      <c r="D371" s="29"/>
+      <c r="D371" s="30"/>
     </row>
     <row r="372">
-      <c r="D372" s="29"/>
+      <c r="D372" s="30"/>
     </row>
     <row r="373">
-      <c r="D373" s="29"/>
+      <c r="D373" s="30"/>
     </row>
     <row r="374">
-      <c r="D374" s="29"/>
+      <c r="D374" s="30"/>
     </row>
     <row r="375">
-      <c r="D375" s="29"/>
+      <c r="D375" s="30"/>
     </row>
     <row r="376">
-      <c r="D376" s="29"/>
+      <c r="D376" s="30"/>
     </row>
     <row r="377">
-      <c r="D377" s="29"/>
+      <c r="D377" s="30"/>
     </row>
     <row r="378">
-      <c r="D378" s="29"/>
+      <c r="D378" s="30"/>
     </row>
     <row r="379">
-      <c r="D379" s="29"/>
+      <c r="D379" s="30"/>
     </row>
     <row r="380">
-      <c r="D380" s="29"/>
+      <c r="D380" s="30"/>
     </row>
     <row r="381">
-      <c r="D381" s="29"/>
+      <c r="D381" s="30"/>
     </row>
     <row r="382">
-      <c r="D382" s="29"/>
+      <c r="D382" s="30"/>
     </row>
     <row r="383">
-      <c r="D383" s="29"/>
+      <c r="D383" s="30"/>
     </row>
     <row r="384">
-      <c r="D384" s="29"/>
+      <c r="D384" s="30"/>
     </row>
     <row r="385">
-      <c r="D385" s="29"/>
+      <c r="D385" s="30"/>
     </row>
     <row r="386">
-      <c r="D386" s="29"/>
+      <c r="D386" s="30"/>
     </row>
     <row r="387">
-      <c r="D387" s="29"/>
+      <c r="D387" s="30"/>
     </row>
     <row r="388">
-      <c r="D388" s="29"/>
+      <c r="D388" s="30"/>
     </row>
     <row r="389">
-      <c r="D389" s="29"/>
+      <c r="D389" s="30"/>
     </row>
     <row r="390">
-      <c r="D390" s="29"/>
+      <c r="D390" s="30"/>
     </row>
     <row r="391">
-      <c r="D391" s="29"/>
+      <c r="D391" s="30"/>
     </row>
     <row r="392">
-      <c r="D392" s="29"/>
+      <c r="D392" s="30"/>
     </row>
     <row r="393">
-      <c r="D393" s="29"/>
+      <c r="D393" s="30"/>
     </row>
     <row r="394">
-      <c r="D394" s="29"/>
+      <c r="D394" s="30"/>
     </row>
     <row r="395">
-      <c r="D395" s="29"/>
+      <c r="D395" s="30"/>
     </row>
     <row r="396">
-      <c r="D396" s="29"/>
+      <c r="D396" s="30"/>
     </row>
     <row r="397">
-      <c r="D397" s="29"/>
+      <c r="D397" s="30"/>
     </row>
     <row r="398">
-      <c r="D398" s="29"/>
+      <c r="D398" s="30"/>
     </row>
     <row r="399">
-      <c r="D399" s="29"/>
+      <c r="D399" s="30"/>
     </row>
     <row r="400">
-      <c r="D400" s="29"/>
+      <c r="D400" s="30"/>
     </row>
     <row r="401">
-      <c r="D401" s="29"/>
+      <c r="D401" s="30"/>
     </row>
     <row r="402">
-      <c r="D402" s="29"/>
+      <c r="D402" s="30"/>
     </row>
     <row r="403">
-      <c r="D403" s="29"/>
+      <c r="D403" s="30"/>
     </row>
     <row r="404">
-      <c r="D404" s="29"/>
+      <c r="D404" s="30"/>
     </row>
     <row r="405">
-      <c r="D405" s="29"/>
+      <c r="D405" s="30"/>
     </row>
     <row r="406">
-      <c r="D406" s="29"/>
+      <c r="D406" s="30"/>
     </row>
     <row r="407">
-      <c r="D407" s="29"/>
+      <c r="D407" s="30"/>
     </row>
     <row r="408">
-      <c r="D408" s="29"/>
+      <c r="D408" s="30"/>
     </row>
     <row r="409">
-      <c r="D409" s="29"/>
+      <c r="D409" s="30"/>
     </row>
     <row r="410">
-      <c r="D410" s="29"/>
+      <c r="D410" s="30"/>
     </row>
     <row r="411">
-      <c r="D411" s="29"/>
+      <c r="D411" s="30"/>
     </row>
     <row r="412">
-      <c r="D412" s="29"/>
+      <c r="D412" s="30"/>
     </row>
     <row r="413">
-      <c r="D413" s="29"/>
+      <c r="D413" s="30"/>
     </row>
     <row r="414">
-      <c r="D414" s="29"/>
+      <c r="D414" s="30"/>
     </row>
     <row r="415">
-      <c r="D415" s="29"/>
+      <c r="D415" s="30"/>
     </row>
     <row r="416">
-      <c r="D416" s="29"/>
+      <c r="D416" s="30"/>
     </row>
     <row r="417">
-      <c r="D417" s="29"/>
+      <c r="D417" s="30"/>
     </row>
     <row r="418">
-      <c r="D418" s="29"/>
+      <c r="D418" s="30"/>
     </row>
     <row r="419">
-      <c r="D419" s="29"/>
+      <c r="D419" s="30"/>
     </row>
     <row r="420">
-      <c r="D420" s="29"/>
+      <c r="D420" s="30"/>
     </row>
     <row r="421">
-      <c r="D421" s="29"/>
+      <c r="D421" s="30"/>
     </row>
     <row r="422">
-      <c r="D422" s="29"/>
+      <c r="D422" s="30"/>
     </row>
     <row r="423">
-      <c r="D423" s="29"/>
+      <c r="D423" s="30"/>
     </row>
     <row r="424">
-      <c r="D424" s="29"/>
+      <c r="D424" s="30"/>
     </row>
     <row r="425">
-      <c r="D425" s="29"/>
+      <c r="D425" s="30"/>
     </row>
     <row r="426">
-      <c r="D426" s="29"/>
+      <c r="D426" s="30"/>
     </row>
     <row r="427">
-      <c r="D427" s="29"/>
+      <c r="D427" s="30"/>
     </row>
     <row r="428">
-      <c r="D428" s="29"/>
+      <c r="D428" s="30"/>
     </row>
     <row r="429">
-      <c r="D429" s="29"/>
+      <c r="D429" s="30"/>
     </row>
     <row r="430">
-      <c r="D430" s="29"/>
+      <c r="D430" s="30"/>
     </row>
     <row r="431">
-      <c r="D431" s="29"/>
+      <c r="D431" s="30"/>
     </row>
     <row r="432">
-      <c r="D432" s="29"/>
+      <c r="D432" s="30"/>
     </row>
     <row r="433">
-      <c r="D433" s="29"/>
+      <c r="D433" s="30"/>
     </row>
     <row r="434">
-      <c r="D434" s="29"/>
+      <c r="D434" s="30"/>
     </row>
     <row r="435">
-      <c r="D435" s="29"/>
+      <c r="D435" s="30"/>
     </row>
     <row r="436">
-      <c r="D436" s="29"/>
+      <c r="D436" s="30"/>
     </row>
     <row r="437">
-      <c r="D437" s="29"/>
+      <c r="D437" s="30"/>
     </row>
     <row r="438">
-      <c r="D438" s="29"/>
+      <c r="D438" s="30"/>
     </row>
     <row r="439">
-      <c r="D439" s="29"/>
+      <c r="D439" s="30"/>
     </row>
     <row r="440">
-      <c r="D440" s="29"/>
+      <c r="D440" s="30"/>
     </row>
     <row r="441">
-      <c r="D441" s="29"/>
+      <c r="D441" s="30"/>
     </row>
     <row r="442">
-      <c r="D442" s="29"/>
+      <c r="D442" s="30"/>
     </row>
     <row r="443">
-      <c r="D443" s="29"/>
+      <c r="D443" s="30"/>
     </row>
     <row r="444">
-      <c r="D444" s="29"/>
+      <c r="D444" s="30"/>
     </row>
     <row r="445">
-      <c r="D445" s="29"/>
+      <c r="D445" s="30"/>
     </row>
     <row r="446">
-      <c r="D446" s="29"/>
+      <c r="D446" s="30"/>
     </row>
     <row r="447">
-      <c r="D447" s="29"/>
+      <c r="D447" s="30"/>
     </row>
     <row r="448">
-      <c r="D448" s="29"/>
+      <c r="D448" s="30"/>
     </row>
     <row r="449">
-      <c r="D449" s="29"/>
+      <c r="D449" s="30"/>
     </row>
     <row r="450">
-      <c r="D450" s="29"/>
+      <c r="D450" s="30"/>
     </row>
     <row r="451">
-      <c r="D451" s="29"/>
+      <c r="D451" s="30"/>
     </row>
     <row r="452">
-      <c r="D452" s="29"/>
+      <c r="D452" s="30"/>
     </row>
     <row r="453">
-      <c r="D453" s="29"/>
+      <c r="D453" s="30"/>
     </row>
     <row r="454">
-      <c r="D454" s="29"/>
+      <c r="D454" s="30"/>
     </row>
     <row r="455">
-      <c r="D455" s="29"/>
+      <c r="D455" s="30"/>
     </row>
     <row r="456">
-      <c r="D456" s="29"/>
+      <c r="D456" s="30"/>
     </row>
     <row r="457">
-      <c r="D457" s="29"/>
+      <c r="D457" s="30"/>
     </row>
     <row r="458">
-      <c r="D458" s="29"/>
+      <c r="D458" s="30"/>
     </row>
     <row r="459">
-      <c r="D459" s="29"/>
+      <c r="D459" s="30"/>
     </row>
     <row r="460">
-      <c r="D460" s="29"/>
+      <c r="D460" s="30"/>
     </row>
     <row r="461">
-      <c r="D461" s="29"/>
+      <c r="D461" s="30"/>
     </row>
     <row r="462">
-      <c r="D462" s="29"/>
+      <c r="D462" s="30"/>
     </row>
     <row r="463">
-      <c r="D463" s="29"/>
+      <c r="D463" s="30"/>
     </row>
     <row r="464">
-      <c r="D464" s="29"/>
+      <c r="D464" s="30"/>
     </row>
     <row r="465">
-      <c r="D465" s="29"/>
+      <c r="D465" s="30"/>
     </row>
     <row r="466">
-      <c r="D466" s="29"/>
+      <c r="D466" s="30"/>
     </row>
     <row r="467">
-      <c r="D467" s="29"/>
+      <c r="D467" s="30"/>
     </row>
     <row r="468">
-      <c r="D468" s="29"/>
+      <c r="D468" s="30"/>
     </row>
     <row r="469">
-      <c r="D469" s="29"/>
+      <c r="D469" s="30"/>
     </row>
     <row r="470">
-      <c r="D470" s="29"/>
+      <c r="D470" s="30"/>
     </row>
     <row r="471">
-      <c r="D471" s="29"/>
+      <c r="D471" s="30"/>
     </row>
     <row r="472">
-      <c r="D472" s="29"/>
+      <c r="D472" s="30"/>
     </row>
     <row r="473">
-      <c r="D473" s="29"/>
+      <c r="D473" s="30"/>
     </row>
     <row r="474">
-      <c r="D474" s="29"/>
+      <c r="D474" s="30"/>
     </row>
     <row r="475">
-      <c r="D475" s="29"/>
+      <c r="D475" s="30"/>
     </row>
     <row r="476">
-      <c r="D476" s="29"/>
+      <c r="D476" s="30"/>
     </row>
     <row r="477">
-      <c r="D477" s="29"/>
+      <c r="D477" s="30"/>
     </row>
     <row r="478">
-      <c r="D478" s="29"/>
+      <c r="D478" s="30"/>
     </row>
     <row r="479">
-      <c r="D479" s="29"/>
+      <c r="D479" s="30"/>
     </row>
     <row r="480">
-      <c r="D480" s="29"/>
+      <c r="D480" s="30"/>
     </row>
     <row r="481">
-      <c r="D481" s="29"/>
+      <c r="D481" s="30"/>
     </row>
     <row r="482">
-      <c r="D482" s="29"/>
+      <c r="D482" s="30"/>
     </row>
     <row r="483">
-      <c r="D483" s="29"/>
+      <c r="D483" s="30"/>
     </row>
     <row r="484">
-      <c r="D484" s="29"/>
+      <c r="D484" s="30"/>
     </row>
     <row r="485">
-      <c r="D485" s="29"/>
+      <c r="D485" s="30"/>
     </row>
     <row r="486">
-      <c r="D486" s="29"/>
+      <c r="D486" s="30"/>
     </row>
     <row r="487">
-      <c r="D487" s="29"/>
+      <c r="D487" s="30"/>
     </row>
     <row r="488">
-      <c r="D488" s="29"/>
+      <c r="D488" s="30"/>
     </row>
     <row r="489">
-      <c r="D489" s="29"/>
+      <c r="D489" s="30"/>
     </row>
     <row r="490">
-      <c r="D490" s="29"/>
+      <c r="D490" s="30"/>
     </row>
     <row r="491">
-      <c r="D491" s="29"/>
+      <c r="D491" s="30"/>
     </row>
     <row r="492">
-      <c r="D492" s="29"/>
+      <c r="D492" s="30"/>
     </row>
     <row r="493">
-      <c r="D493" s="29"/>
+      <c r="D493" s="30"/>
     </row>
     <row r="494">
-      <c r="D494" s="29"/>
+      <c r="D494" s="30"/>
     </row>
     <row r="495">
-      <c r="D495" s="29"/>
+      <c r="D495" s="30"/>
     </row>
     <row r="496">
-      <c r="D496" s="29"/>
+      <c r="D496" s="30"/>
     </row>
     <row r="497">
-      <c r="D497" s="29"/>
+      <c r="D497" s="30"/>
     </row>
     <row r="498">
-      <c r="D498" s="29"/>
+      <c r="D498" s="30"/>
     </row>
     <row r="499">
-      <c r="D499" s="29"/>
+      <c r="D499" s="30"/>
     </row>
     <row r="500">
-      <c r="D500" s="29"/>
+      <c r="D500" s="30"/>
     </row>
     <row r="501">
-      <c r="D501" s="29"/>
+      <c r="D501" s="30"/>
     </row>
     <row r="502">
-      <c r="D502" s="29"/>
+      <c r="D502" s="30"/>
     </row>
     <row r="503">
-      <c r="D503" s="29"/>
+      <c r="D503" s="30"/>
     </row>
     <row r="504">
-      <c r="D504" s="29"/>
+      <c r="D504" s="30"/>
     </row>
     <row r="505">
-      <c r="D505" s="29"/>
+      <c r="D505" s="30"/>
     </row>
     <row r="506">
-      <c r="D506" s="29"/>
+      <c r="D506" s="30"/>
     </row>
     <row r="507">
-      <c r="D507" s="29"/>
+      <c r="D507" s="30"/>
     </row>
     <row r="508">
-      <c r="D508" s="29"/>
+      <c r="D508" s="30"/>
     </row>
     <row r="509">
-      <c r="D509" s="29"/>
+      <c r="D509" s="30"/>
     </row>
     <row r="510">
-      <c r="D510" s="29"/>
+      <c r="D510" s="30"/>
     </row>
     <row r="511">
-      <c r="D511" s="29"/>
+      <c r="D511" s="30"/>
     </row>
     <row r="512">
-      <c r="D512" s="29"/>
+      <c r="D512" s="30"/>
     </row>
     <row r="513">
-      <c r="D513" s="29"/>
+      <c r="D513" s="30"/>
     </row>
     <row r="514">
-      <c r="D514" s="29"/>
+      <c r="D514" s="30"/>
     </row>
     <row r="515">
-      <c r="D515" s="29"/>
+      <c r="D515" s="30"/>
     </row>
     <row r="516">
-      <c r="D516" s="29"/>
+      <c r="D516" s="30"/>
     </row>
     <row r="517">
-      <c r="D517" s="29"/>
+      <c r="D517" s="30"/>
     </row>
     <row r="518">
-      <c r="D518" s="29"/>
+      <c r="D518" s="30"/>
     </row>
     <row r="519">
-      <c r="D519" s="29"/>
+      <c r="D519" s="30"/>
     </row>
     <row r="520">
-      <c r="D520" s="29"/>
+      <c r="D520" s="30"/>
     </row>
     <row r="521">
-      <c r="D521" s="29"/>
+      <c r="D521" s="30"/>
     </row>
     <row r="522">
-      <c r="D522" s="29"/>
+      <c r="D522" s="30"/>
     </row>
     <row r="523">
-      <c r="D523" s="29"/>
+      <c r="D523" s="30"/>
     </row>
     <row r="524">
-      <c r="D524" s="29"/>
+      <c r="D524" s="30"/>
     </row>
     <row r="525">
-      <c r="D525" s="29"/>
+      <c r="D525" s="30"/>
     </row>
     <row r="526">
-      <c r="D526" s="29"/>
+      <c r="D526" s="30"/>
     </row>
     <row r="527">
-      <c r="D527" s="29"/>
+      <c r="D527" s="30"/>
     </row>
     <row r="528">
-      <c r="D528" s="29"/>
+      <c r="D528" s="30"/>
     </row>
     <row r="529">
-      <c r="D529" s="29"/>
+      <c r="D529" s="30"/>
     </row>
     <row r="530">
-      <c r="D530" s="29"/>
+      <c r="D530" s="30"/>
     </row>
     <row r="531">
-      <c r="D531" s="29"/>
+      <c r="D531" s="30"/>
     </row>
     <row r="532">
-      <c r="D532" s="29"/>
+      <c r="D532" s="30"/>
     </row>
     <row r="533">
-      <c r="D533" s="29"/>
+      <c r="D533" s="30"/>
     </row>
     <row r="534">
-      <c r="D534" s="29"/>
+      <c r="D534" s="30"/>
     </row>
     <row r="535">
-      <c r="D535" s="29"/>
+      <c r="D535" s="30"/>
     </row>
     <row r="536">
-      <c r="D536" s="29"/>
+      <c r="D536" s="30"/>
     </row>
     <row r="537">
-      <c r="D537" s="29"/>
+      <c r="D537" s="30"/>
     </row>
     <row r="538">
-      <c r="D538" s="29"/>
+      <c r="D538" s="30"/>
     </row>
     <row r="539">
-      <c r="D539" s="29"/>
+      <c r="D539" s="30"/>
     </row>
     <row r="540">
-      <c r="D540" s="29"/>
+      <c r="D540" s="30"/>
     </row>
     <row r="541">
-      <c r="D541" s="29"/>
+      <c r="D541" s="30"/>
     </row>
     <row r="542">
-      <c r="D542" s="29"/>
+      <c r="D542" s="30"/>
     </row>
     <row r="543">
-      <c r="D543" s="29"/>
+      <c r="D543" s="30"/>
     </row>
     <row r="544">
-      <c r="D544" s="29"/>
+      <c r="D544" s="30"/>
     </row>
     <row r="545">
-      <c r="D545" s="29"/>
+      <c r="D545" s="30"/>
     </row>
     <row r="546">
-      <c r="D546" s="29"/>
+      <c r="D546" s="30"/>
     </row>
     <row r="547">
-      <c r="D547" s="29"/>
+      <c r="D547" s="30"/>
     </row>
     <row r="548">
-      <c r="D548" s="29"/>
+      <c r="D548" s="30"/>
     </row>
     <row r="549">
-      <c r="D549" s="29"/>
+      <c r="D549" s="30"/>
     </row>
     <row r="550">
-      <c r="D550" s="29"/>
+      <c r="D550" s="30"/>
     </row>
     <row r="551">
-      <c r="D551" s="29"/>
+      <c r="D551" s="30"/>
     </row>
     <row r="552">
-      <c r="D552" s="29"/>
+      <c r="D552" s="30"/>
     </row>
     <row r="553">
-      <c r="D553" s="29"/>
+      <c r="D553" s="30"/>
     </row>
     <row r="554">
-      <c r="D554" s="29"/>
+      <c r="D554" s="30"/>
     </row>
     <row r="555">
-      <c r="D555" s="29"/>
+      <c r="D555" s="30"/>
     </row>
     <row r="556">
-      <c r="D556" s="29"/>
+      <c r="D556" s="30"/>
     </row>
     <row r="557">
-      <c r="D557" s="29"/>
+      <c r="D557" s="30"/>
     </row>
     <row r="558">
-      <c r="D558" s="29"/>
+      <c r="D558" s="30"/>
     </row>
     <row r="559">
-      <c r="D559" s="29"/>
+      <c r="D559" s="30"/>
     </row>
     <row r="560">
-      <c r="D560" s="29"/>
+      <c r="D560" s="30"/>
     </row>
     <row r="561">
-      <c r="D561" s="29"/>
+      <c r="D561" s="30"/>
     </row>
     <row r="562">
-      <c r="D562" s="29"/>
+      <c r="D562" s="30"/>
     </row>
     <row r="563">
-      <c r="D563" s="29"/>
+      <c r="D563" s="30"/>
     </row>
     <row r="564">
-      <c r="D564" s="29"/>
+      <c r="D564" s="30"/>
     </row>
     <row r="565">
-      <c r="D565" s="29"/>
+      <c r="D565" s="30"/>
     </row>
     <row r="566">
-      <c r="D566" s="29"/>
+      <c r="D566" s="30"/>
     </row>
     <row r="567">
-      <c r="D567" s="29"/>
+      <c r="D567" s="30"/>
     </row>
     <row r="568">
-      <c r="D568" s="29"/>
+      <c r="D568" s="30"/>
     </row>
     <row r="569">
-      <c r="D569" s="29"/>
+      <c r="D569" s="30"/>
     </row>
     <row r="570">
-      <c r="D570" s="29"/>
+      <c r="D570" s="30"/>
     </row>
     <row r="571">
-      <c r="D571" s="29"/>
+      <c r="D571" s="30"/>
     </row>
     <row r="572">
-      <c r="D572" s="29"/>
+      <c r="D572" s="30"/>
     </row>
     <row r="573">
-      <c r="D573" s="29"/>
+      <c r="D573" s="30"/>
     </row>
     <row r="574">
-      <c r="D574" s="29"/>
+      <c r="D574" s="30"/>
     </row>
     <row r="575">
-      <c r="D575" s="29"/>
+      <c r="D575" s="30"/>
     </row>
     <row r="576">
-      <c r="D576" s="29"/>
+      <c r="D576" s="30"/>
     </row>
     <row r="577">
-      <c r="D577" s="29"/>
+      <c r="D577" s="30"/>
     </row>
     <row r="578">
-      <c r="D578" s="29"/>
+      <c r="D578" s="30"/>
     </row>
     <row r="579">
-      <c r="D579" s="29"/>
+      <c r="D579" s="30"/>
     </row>
     <row r="580">
-      <c r="D580" s="29"/>
+      <c r="D580" s="30"/>
     </row>
     <row r="581">
-      <c r="D581" s="29"/>
+      <c r="D581" s="30"/>
     </row>
     <row r="582">
-      <c r="D582" s="29"/>
+      <c r="D582" s="30"/>
     </row>
     <row r="583">
-      <c r="D583" s="29"/>
+      <c r="D583" s="30"/>
     </row>
     <row r="584">
-      <c r="D584" s="29"/>
+      <c r="D584" s="30"/>
     </row>
     <row r="585">
-      <c r="D585" s="29"/>
+      <c r="D585" s="30"/>
     </row>
     <row r="586">
-      <c r="D586" s="29"/>
+      <c r="D586" s="30"/>
     </row>
     <row r="587">
-      <c r="D587" s="29"/>
+      <c r="D587" s="30"/>
     </row>
     <row r="588">
-      <c r="D588" s="29"/>
+      <c r="D588" s="30"/>
     </row>
     <row r="589">
-      <c r="D589" s="29"/>
+      <c r="D589" s="30"/>
     </row>
     <row r="590">
-      <c r="D590" s="29"/>
+      <c r="D590" s="30"/>
     </row>
     <row r="591">
-      <c r="D591" s="29"/>
+      <c r="D591" s="30"/>
     </row>
     <row r="592">
-      <c r="D592" s="29"/>
+      <c r="D592" s="30"/>
     </row>
     <row r="593">
-      <c r="D593" s="29"/>
+      <c r="D593" s="30"/>
     </row>
     <row r="594">
-      <c r="D594" s="29"/>
+      <c r="D594" s="30"/>
     </row>
     <row r="595">
-      <c r="D595" s="29"/>
+      <c r="D595" s="30"/>
     </row>
     <row r="596">
-      <c r="D596" s="29"/>
+      <c r="D596" s="30"/>
     </row>
     <row r="597">
-      <c r="D597" s="29"/>
+      <c r="D597" s="30"/>
     </row>
     <row r="598">
-      <c r="D598" s="29"/>
+      <c r="D598" s="30"/>
     </row>
     <row r="599">
-      <c r="D599" s="29"/>
+      <c r="D599" s="30"/>
     </row>
     <row r="600">
-      <c r="D600" s="29"/>
+      <c r="D600" s="30"/>
     </row>
     <row r="601">
-      <c r="D601" s="29"/>
+      <c r="D601" s="30"/>
     </row>
     <row r="602">
-      <c r="D602" s="29"/>
+      <c r="D602" s="30"/>
     </row>
     <row r="603">
-      <c r="D603" s="29"/>
+      <c r="D603" s="30"/>
     </row>
     <row r="604">
-      <c r="D604" s="29"/>
+      <c r="D604" s="30"/>
     </row>
     <row r="605">
-      <c r="D605" s="29"/>
+      <c r="D605" s="30"/>
     </row>
     <row r="606">
-      <c r="D606" s="29"/>
+      <c r="D606" s="30"/>
     </row>
     <row r="607">
-      <c r="D607" s="29"/>
+      <c r="D607" s="30"/>
     </row>
     <row r="608">
-      <c r="D608" s="29"/>
+      <c r="D608" s="30"/>
     </row>
     <row r="609">
-      <c r="D609" s="29"/>
+      <c r="D609" s="30"/>
     </row>
     <row r="610">
-      <c r="D610" s="29"/>
+      <c r="D610" s="30"/>
     </row>
     <row r="611">
-      <c r="D611" s="29"/>
+      <c r="D611" s="30"/>
     </row>
     <row r="612">
-      <c r="D612" s="29"/>
+      <c r="D612" s="30"/>
     </row>
     <row r="613">
-      <c r="D613" s="29"/>
+      <c r="D613" s="30"/>
     </row>
     <row r="614">
-      <c r="D614" s="29"/>
+      <c r="D614" s="30"/>
     </row>
     <row r="615">
-      <c r="D615" s="29"/>
+      <c r="D615" s="30"/>
     </row>
     <row r="616">
-      <c r="D616" s="29"/>
+      <c r="D616" s="30"/>
     </row>
     <row r="617">
-      <c r="D617" s="29"/>
+      <c r="D617" s="30"/>
     </row>
     <row r="618">
-      <c r="D618" s="29"/>
+      <c r="D618" s="30"/>
     </row>
     <row r="619">
-      <c r="D619" s="29"/>
+      <c r="D619" s="30"/>
     </row>
     <row r="620">
-      <c r="D620" s="29"/>
+      <c r="D620" s="30"/>
     </row>
     <row r="621">
-      <c r="D621" s="29"/>
+      <c r="D621" s="30"/>
     </row>
     <row r="622">
-      <c r="D622" s="29"/>
+      <c r="D622" s="30"/>
     </row>
     <row r="623">
-      <c r="D623" s="29"/>
+      <c r="D623" s="30"/>
     </row>
     <row r="624">
-      <c r="D624" s="29"/>
+      <c r="D624" s="30"/>
     </row>
     <row r="625">
-      <c r="D625" s="29"/>
+      <c r="D625" s="30"/>
     </row>
     <row r="626">
-      <c r="D626" s="29"/>
+      <c r="D626" s="30"/>
     </row>
     <row r="627">
-      <c r="D627" s="29"/>
+      <c r="D627" s="30"/>
     </row>
     <row r="628">
-      <c r="D628" s="29"/>
+      <c r="D628" s="30"/>
     </row>
     <row r="629">
-      <c r="D629" s="29"/>
+      <c r="D629" s="30"/>
     </row>
     <row r="630">
-      <c r="D630" s="29"/>
+      <c r="D630" s="30"/>
     </row>
     <row r="631">
-      <c r="D631" s="29"/>
+      <c r="D631" s="30"/>
     </row>
     <row r="632">
-      <c r="D632" s="29"/>
+      <c r="D632" s="30"/>
     </row>
     <row r="633">
-      <c r="D633" s="29"/>
+      <c r="D633" s="30"/>
     </row>
     <row r="634">
-      <c r="D634" s="29"/>
+      <c r="D634" s="30"/>
     </row>
     <row r="635">
-      <c r="D635" s="29"/>
+      <c r="D635" s="30"/>
     </row>
     <row r="636">
-      <c r="D636" s="29"/>
+      <c r="D636" s="30"/>
     </row>
     <row r="637">
-      <c r="D637" s="29"/>
+      <c r="D637" s="30"/>
     </row>
     <row r="638">
-      <c r="D638" s="29"/>
+      <c r="D638" s="30"/>
     </row>
     <row r="639">
-      <c r="D639" s="29"/>
+      <c r="D639" s="30"/>
     </row>
     <row r="640">
-      <c r="D640" s="29"/>
+      <c r="D640" s="30"/>
     </row>
     <row r="641">
-      <c r="D641" s="29"/>
+      <c r="D641" s="30"/>
     </row>
     <row r="642">
-      <c r="D642" s="29"/>
+      <c r="D642" s="30"/>
     </row>
     <row r="643">
-      <c r="D643" s="29"/>
+      <c r="D643" s="30"/>
     </row>
     <row r="644">
-      <c r="D644" s="29"/>
+      <c r="D644" s="30"/>
     </row>
     <row r="645">
-      <c r="D645" s="29"/>
+      <c r="D645" s="30"/>
     </row>
     <row r="646">
-      <c r="D646" s="29"/>
+      <c r="D646" s="30"/>
     </row>
     <row r="647">
-      <c r="D647" s="29"/>
+      <c r="D647" s="30"/>
     </row>
     <row r="648">
-      <c r="D648" s="29"/>
+      <c r="D648" s="30"/>
     </row>
     <row r="649">
-      <c r="D649" s="29"/>
+      <c r="D649" s="30"/>
     </row>
     <row r="650">
-      <c r="D650" s="29"/>
+      <c r="D650" s="30"/>
     </row>
     <row r="651">
-      <c r="D651" s="29"/>
+      <c r="D651" s="30"/>
     </row>
     <row r="652">
-      <c r="D652" s="29"/>
+      <c r="D652" s="30"/>
     </row>
     <row r="653">
-      <c r="D653" s="29"/>
+      <c r="D653" s="30"/>
     </row>
     <row r="654">
-      <c r="D654" s="29"/>
+      <c r="D654" s="30"/>
     </row>
     <row r="655">
-      <c r="D655" s="29"/>
+      <c r="D655" s="30"/>
     </row>
     <row r="656">
-      <c r="D656" s="29"/>
+      <c r="D656" s="30"/>
     </row>
     <row r="657">
-      <c r="D657" s="29"/>
+      <c r="D657" s="30"/>
     </row>
     <row r="658">
-      <c r="D658" s="29"/>
+      <c r="D658" s="30"/>
     </row>
     <row r="659">
-      <c r="D659" s="29"/>
+      <c r="D659" s="30"/>
     </row>
     <row r="660">
-      <c r="D660" s="29"/>
+      <c r="D660" s="30"/>
     </row>
     <row r="661">
-      <c r="D661" s="29"/>
+      <c r="D661" s="30"/>
     </row>
     <row r="662">
-      <c r="D662" s="29"/>
+      <c r="D662" s="30"/>
     </row>
     <row r="663">
-      <c r="D663" s="29"/>
+      <c r="D663" s="30"/>
     </row>
     <row r="664">
-      <c r="D664" s="29"/>
+      <c r="D664" s="30"/>
     </row>
     <row r="665">
-      <c r="D665" s="29"/>
+      <c r="D665" s="30"/>
     </row>
     <row r="666">
-      <c r="D666" s="29"/>
+      <c r="D666" s="30"/>
     </row>
     <row r="667">
-      <c r="D667" s="29"/>
+      <c r="D667" s="30"/>
     </row>
     <row r="668">
-      <c r="D668" s="29"/>
+      <c r="D668" s="30"/>
     </row>
     <row r="669">
-      <c r="D669" s="29"/>
+      <c r="D669" s="30"/>
     </row>
     <row r="670">
-      <c r="D670" s="29"/>
+      <c r="D670" s="30"/>
     </row>
     <row r="671">
-      <c r="D671" s="29"/>
+      <c r="D671" s="30"/>
     </row>
     <row r="672">
-      <c r="D672" s="29"/>
+      <c r="D672" s="30"/>
     </row>
     <row r="673">
-      <c r="D673" s="29"/>
+      <c r="D673" s="30"/>
     </row>
     <row r="674">
-      <c r="D674" s="29"/>
+      <c r="D674" s="30"/>
     </row>
     <row r="675">
-      <c r="D675" s="29"/>
+      <c r="D675" s="30"/>
     </row>
     <row r="676">
-      <c r="D676" s="29"/>
+      <c r="D676" s="30"/>
     </row>
     <row r="677">
-      <c r="D677" s="29"/>
+      <c r="D677" s="30"/>
     </row>
     <row r="678">
-      <c r="D678" s="29"/>
+      <c r="D678" s="30"/>
     </row>
     <row r="679">
-      <c r="D679" s="29"/>
+      <c r="D679" s="30"/>
     </row>
     <row r="680">
-      <c r="D680" s="29"/>
+      <c r="D680" s="30"/>
     </row>
     <row r="681">
-      <c r="D681" s="29"/>
+      <c r="D681" s="30"/>
     </row>
     <row r="682">
-      <c r="D682" s="29"/>
+      <c r="D682" s="30"/>
     </row>
     <row r="683">
-      <c r="D683" s="29"/>
+      <c r="D683" s="30"/>
     </row>
     <row r="684">
-      <c r="D684" s="29"/>
+      <c r="D684" s="30"/>
     </row>
     <row r="685">
-      <c r="D685" s="29"/>
+      <c r="D685" s="30"/>
     </row>
     <row r="686">
-      <c r="D686" s="29"/>
+      <c r="D686" s="30"/>
     </row>
     <row r="687">
-      <c r="D687" s="29"/>
+      <c r="D687" s="30"/>
     </row>
     <row r="688">
-      <c r="D688" s="29"/>
+      <c r="D688" s="30"/>
     </row>
     <row r="689">
-      <c r="D689" s="29"/>
+      <c r="D689" s="30"/>
     </row>
     <row r="690">
-      <c r="D690" s="29"/>
+      <c r="D690" s="30"/>
     </row>
     <row r="691">
-      <c r="D691" s="29"/>
+      <c r="D691" s="30"/>
     </row>
     <row r="692">
-      <c r="D692" s="29"/>
+      <c r="D692" s="30"/>
     </row>
     <row r="693">
-      <c r="D693" s="29"/>
+      <c r="D693" s="30"/>
     </row>
     <row r="694">
-      <c r="D694" s="29"/>
+      <c r="D694" s="30"/>
     </row>
     <row r="695">
-      <c r="D695" s="29"/>
+      <c r="D695" s="30"/>
     </row>
     <row r="696">
-      <c r="D696" s="29"/>
+      <c r="D696" s="30"/>
     </row>
     <row r="697">
-      <c r="D697" s="29"/>
+      <c r="D697" s="30"/>
     </row>
     <row r="698">
-      <c r="D698" s="29"/>
+      <c r="D698" s="30"/>
     </row>
     <row r="699">
-      <c r="D699" s="29"/>
+      <c r="D699" s="30"/>
     </row>
     <row r="700">
-      <c r="D700" s="29"/>
+      <c r="D700" s="30"/>
     </row>
     <row r="701">
-      <c r="D701" s="29"/>
+      <c r="D701" s="30"/>
     </row>
     <row r="702">
-      <c r="D702" s="29"/>
+      <c r="D702" s="30"/>
     </row>
     <row r="703">
-      <c r="D703" s="29"/>
+      <c r="D703" s="30"/>
     </row>
     <row r="704">
-      <c r="D704" s="29"/>
+      <c r="D704" s="30"/>
     </row>
     <row r="705">
-      <c r="D705" s="29"/>
+      <c r="D705" s="30"/>
     </row>
     <row r="706">
-      <c r="D706" s="29"/>
+      <c r="D706" s="30"/>
     </row>
     <row r="707">
-      <c r="D707" s="29"/>
+      <c r="D707" s="30"/>
     </row>
     <row r="708">
-      <c r="D708" s="29"/>
+      <c r="D708" s="30"/>
     </row>
     <row r="709">
-      <c r="D709" s="29"/>
+      <c r="D709" s="30"/>
     </row>
     <row r="710">
-      <c r="D710" s="29"/>
+      <c r="D710" s="30"/>
     </row>
     <row r="711">
-      <c r="D711" s="29"/>
+      <c r="D711" s="30"/>
     </row>
     <row r="712">
-      <c r="D712" s="29"/>
+      <c r="D712" s="30"/>
     </row>
     <row r="713">
-      <c r="D713" s="29"/>
+      <c r="D713" s="30"/>
     </row>
     <row r="714">
-      <c r="D714" s="29"/>
+      <c r="D714" s="30"/>
     </row>
     <row r="715">
-      <c r="D715" s="29"/>
+      <c r="D715" s="30"/>
     </row>
     <row r="716">
-      <c r="D716" s="29"/>
+      <c r="D716" s="30"/>
     </row>
     <row r="717">
-      <c r="D717" s="29"/>
+      <c r="D717" s="30"/>
     </row>
     <row r="718">
-      <c r="D718" s="29"/>
+      <c r="D718" s="30"/>
     </row>
     <row r="719">
-      <c r="D719" s="29"/>
+      <c r="D719" s="30"/>
     </row>
     <row r="720">
-      <c r="D720" s="29"/>
+      <c r="D720" s="30"/>
     </row>
     <row r="721">
-      <c r="D721" s="29"/>
+      <c r="D721" s="30"/>
     </row>
     <row r="722">
-      <c r="D722" s="29"/>
+      <c r="D722" s="30"/>
     </row>
     <row r="723">
-      <c r="D723" s="29"/>
+      <c r="D723" s="30"/>
     </row>
     <row r="724">
-      <c r="D724" s="29"/>
+      <c r="D724" s="30"/>
     </row>
     <row r="725">
-      <c r="D725" s="29"/>
+      <c r="D725" s="30"/>
     </row>
     <row r="726">
-      <c r="D726" s="29"/>
+      <c r="D726" s="30"/>
     </row>
     <row r="727">
-      <c r="D727" s="29"/>
+      <c r="D727" s="30"/>
     </row>
     <row r="728">
-      <c r="D728" s="29"/>
+      <c r="D728" s="30"/>
     </row>
     <row r="729">
-      <c r="D729" s="29"/>
+      <c r="D729" s="30"/>
     </row>
     <row r="730">
-      <c r="D730" s="29"/>
+      <c r="D730" s="30"/>
     </row>
     <row r="731">
-      <c r="D731" s="29"/>
+      <c r="D731" s="30"/>
     </row>
     <row r="732">
-      <c r="D732" s="29"/>
+      <c r="D732" s="30"/>
     </row>
     <row r="733">
-      <c r="D733" s="29"/>
+      <c r="D733" s="30"/>
     </row>
     <row r="734">
-      <c r="D734" s="29"/>
+      <c r="D734" s="30"/>
     </row>
     <row r="735">
-      <c r="D735" s="29"/>
+      <c r="D735" s="30"/>
     </row>
     <row r="736">
-      <c r="D736" s="29"/>
+      <c r="D736" s="30"/>
     </row>
     <row r="737">
-      <c r="D737" s="29"/>
+      <c r="D737" s="30"/>
     </row>
     <row r="738">
-      <c r="D738" s="29"/>
+      <c r="D738" s="30"/>
     </row>
     <row r="739">
-      <c r="D739" s="29"/>
+      <c r="D739" s="30"/>
     </row>
     <row r="740">
-      <c r="D740" s="29"/>
+      <c r="D740" s="30"/>
     </row>
     <row r="741">
-      <c r="D741" s="29"/>
+      <c r="D741" s="30"/>
     </row>
     <row r="742">
-      <c r="D742" s="29"/>
+      <c r="D742" s="30"/>
     </row>
     <row r="743">
-      <c r="D743" s="29"/>
+      <c r="D743" s="30"/>
     </row>
     <row r="744">
-      <c r="D744" s="29"/>
+      <c r="D744" s="30"/>
     </row>
     <row r="745">
-      <c r="D745" s="29"/>
+      <c r="D745" s="30"/>
     </row>
     <row r="746">
-      <c r="D746" s="29"/>
+      <c r="D746" s="30"/>
     </row>
     <row r="747">
-      <c r="D747" s="29"/>
+      <c r="D747" s="30"/>
     </row>
     <row r="748">
-      <c r="D748" s="29"/>
+      <c r="D748" s="30"/>
     </row>
     <row r="749">
-      <c r="D749" s="29"/>
+      <c r="D749" s="30"/>
     </row>
     <row r="750">
-      <c r="D750" s="29"/>
+      <c r="D750" s="30"/>
     </row>
     <row r="751">
-      <c r="D751" s="29"/>
+      <c r="D751" s="30"/>
     </row>
     <row r="752">
-      <c r="D752" s="29"/>
+      <c r="D752" s="30"/>
     </row>
     <row r="753">
-      <c r="D753" s="29"/>
+      <c r="D753" s="30"/>
     </row>
     <row r="754">
-      <c r="D754" s="29"/>
+      <c r="D754" s="30"/>
     </row>
     <row r="755">
-      <c r="D755" s="29"/>
+      <c r="D755" s="30"/>
     </row>
     <row r="756">
-      <c r="D756" s="29"/>
+      <c r="D756" s="30"/>
     </row>
     <row r="757">
-      <c r="D757" s="29"/>
+      <c r="D757" s="30"/>
     </row>
     <row r="758">
-      <c r="D758" s="29"/>
+      <c r="D758" s="30"/>
     </row>
     <row r="759">
-      <c r="D759" s="29"/>
+      <c r="D759" s="30"/>
     </row>
     <row r="760">
-      <c r="D760" s="29"/>
+      <c r="D760" s="30"/>
     </row>
     <row r="761">
-      <c r="D761" s="29"/>
+      <c r="D761" s="30"/>
     </row>
     <row r="762">
-      <c r="D762" s="29"/>
+      <c r="D762" s="30"/>
     </row>
     <row r="763">
-      <c r="D763" s="29"/>
+      <c r="D763" s="30"/>
     </row>
     <row r="764">
-      <c r="D764" s="29"/>
+      <c r="D764" s="30"/>
     </row>
     <row r="765">
-      <c r="D765" s="29"/>
+      <c r="D765" s="30"/>
     </row>
     <row r="766">
-      <c r="D766" s="29"/>
+      <c r="D766" s="30"/>
     </row>
     <row r="767">
-      <c r="D767" s="29"/>
+      <c r="D767" s="30"/>
     </row>
     <row r="768">
-      <c r="D768" s="29"/>
+      <c r="D768" s="30"/>
     </row>
     <row r="769">
-      <c r="D769" s="29"/>
+      <c r="D769" s="30"/>
     </row>
     <row r="770">
-      <c r="D770" s="29"/>
+      <c r="D770" s="30"/>
     </row>
     <row r="771">
-      <c r="D771" s="29"/>
+      <c r="D771" s="30"/>
     </row>
     <row r="772">
-      <c r="D772" s="29"/>
+      <c r="D772" s="30"/>
     </row>
     <row r="773">
-      <c r="D773" s="29"/>
+      <c r="D773" s="30"/>
     </row>
     <row r="774">
-      <c r="D774" s="29"/>
+      <c r="D774" s="30"/>
     </row>
     <row r="775">
-      <c r="D775" s="29"/>
+      <c r="D775" s="30"/>
     </row>
     <row r="776">
-      <c r="D776" s="29"/>
+      <c r="D776" s="30"/>
     </row>
     <row r="777">
-      <c r="D777" s="29"/>
+      <c r="D777" s="30"/>
     </row>
     <row r="778">
-      <c r="D778" s="29"/>
+      <c r="D778" s="30"/>
     </row>
     <row r="779">
-      <c r="D779" s="29"/>
+      <c r="D779" s="30"/>
     </row>
     <row r="780">
-      <c r="D780" s="29"/>
+      <c r="D780" s="30"/>
     </row>
     <row r="781">
-      <c r="D781" s="29"/>
+      <c r="D781" s="30"/>
     </row>
     <row r="782">
-      <c r="D782" s="29"/>
+      <c r="D782" s="30"/>
     </row>
     <row r="783">
-      <c r="D783" s="29"/>
+      <c r="D783" s="30"/>
     </row>
     <row r="784">
-      <c r="D784" s="29"/>
+      <c r="D784" s="30"/>
     </row>
     <row r="785">
-      <c r="D785" s="29"/>
+      <c r="D785" s="30"/>
     </row>
     <row r="786">
-      <c r="D786" s="29"/>
+      <c r="D786" s="30"/>
     </row>
     <row r="787">
-      <c r="D787" s="29"/>
+      <c r="D787" s="30"/>
     </row>
     <row r="788">
-      <c r="D788" s="29"/>
+      <c r="D788" s="30"/>
     </row>
     <row r="789">
-      <c r="D789" s="29"/>
+      <c r="D789" s="30"/>
     </row>
     <row r="790">
-      <c r="D790" s="29"/>
+      <c r="D790" s="30"/>
     </row>
     <row r="791">
-      <c r="D791" s="29"/>
+      <c r="D791" s="30"/>
     </row>
     <row r="792">
-      <c r="D792" s="29"/>
+      <c r="D792" s="30"/>
     </row>
     <row r="793">
-      <c r="D793" s="29"/>
+      <c r="D793" s="30"/>
     </row>
     <row r="794">
-      <c r="D794" s="29"/>
+      <c r="D794" s="30"/>
     </row>
     <row r="795">
-      <c r="D795" s="29"/>
+      <c r="D795" s="30"/>
     </row>
     <row r="796">
-      <c r="D796" s="29"/>
+      <c r="D796" s="30"/>
     </row>
     <row r="797">
-      <c r="D797" s="29"/>
+      <c r="D797" s="30"/>
     </row>
     <row r="798">
-      <c r="D798" s="29"/>
+      <c r="D798" s="30"/>
     </row>
     <row r="799">
-      <c r="D799" s="29"/>
+      <c r="D799" s="30"/>
     </row>
     <row r="800">
-      <c r="D800" s="29"/>
+      <c r="D800" s="30"/>
     </row>
     <row r="801">
-      <c r="D801" s="29"/>
+      <c r="D801" s="30"/>
     </row>
     <row r="802">
-      <c r="D802" s="29"/>
+      <c r="D802" s="30"/>
     </row>
     <row r="803">
-      <c r="D803" s="29"/>
+      <c r="D803" s="30"/>
     </row>
     <row r="804">
-      <c r="D804" s="29"/>
+      <c r="D804" s="30"/>
     </row>
     <row r="805">
-      <c r="D805" s="29"/>
+      <c r="D805" s="30"/>
     </row>
     <row r="806">
-      <c r="D806" s="29"/>
+      <c r="D806" s="30"/>
     </row>
     <row r="807">
-      <c r="D807" s="29"/>
+      <c r="D807" s="30"/>
     </row>
     <row r="808">
-      <c r="D808" s="29"/>
+      <c r="D808" s="30"/>
     </row>
     <row r="809">
-      <c r="D809" s="29"/>
+      <c r="D809" s="30"/>
     </row>
     <row r="810">
-      <c r="D810" s="29"/>
+      <c r="D810" s="30"/>
     </row>
     <row r="811">
-      <c r="D811" s="29"/>
+      <c r="D811" s="30"/>
     </row>
     <row r="812">
-      <c r="D812" s="29"/>
+      <c r="D812" s="30"/>
     </row>
     <row r="813">
-      <c r="D813" s="29"/>
+      <c r="D813" s="30"/>
     </row>
     <row r="814">
-      <c r="D814" s="29"/>
+      <c r="D814" s="30"/>
     </row>
     <row r="815">
-      <c r="D815" s="29"/>
+      <c r="D815" s="30"/>
     </row>
     <row r="816">
-      <c r="D816" s="29"/>
+      <c r="D816" s="30"/>
     </row>
     <row r="817">
-      <c r="D817" s="29"/>
+      <c r="D817" s="30"/>
     </row>
     <row r="818">
-      <c r="D818" s="29"/>
+      <c r="D818" s="30"/>
     </row>
     <row r="819">
-      <c r="D819" s="29"/>
+      <c r="D819" s="30"/>
     </row>
     <row r="820">
-      <c r="D820" s="29"/>
+      <c r="D820" s="30"/>
     </row>
     <row r="821">
-      <c r="D821" s="29"/>
+      <c r="D821" s="30"/>
     </row>
     <row r="822">
-      <c r="D822" s="29"/>
+      <c r="D822" s="30"/>
     </row>
     <row r="823">
-      <c r="D823" s="29"/>
+      <c r="D823" s="30"/>
     </row>
     <row r="824">
-      <c r="D824" s="29"/>
+      <c r="D824" s="30"/>
     </row>
     <row r="825">
-      <c r="D825" s="29"/>
+      <c r="D825" s="30"/>
     </row>
     <row r="826">
-      <c r="D826" s="29"/>
+      <c r="D826" s="30"/>
     </row>
     <row r="827">
-      <c r="D827" s="29"/>
+      <c r="D827" s="30"/>
     </row>
     <row r="828">
-      <c r="D828" s="29"/>
+      <c r="D828" s="30"/>
     </row>
     <row r="829">
-      <c r="D829" s="29"/>
+      <c r="D829" s="30"/>
     </row>
     <row r="830">
-      <c r="D830" s="29"/>
+      <c r="D830" s="30"/>
     </row>
     <row r="831">
-      <c r="D831" s="29"/>
+      <c r="D831" s="30"/>
     </row>
     <row r="832">
-      <c r="D832" s="29"/>
+      <c r="D832" s="30"/>
     </row>
     <row r="833">
-      <c r="D833" s="29"/>
+      <c r="D833" s="30"/>
     </row>
     <row r="834">
-      <c r="D834" s="29"/>
+      <c r="D834" s="30"/>
     </row>
     <row r="835">
-      <c r="D835" s="29"/>
+      <c r="D835" s="30"/>
     </row>
     <row r="836">
-      <c r="D836" s="29"/>
+      <c r="D836" s="30"/>
     </row>
     <row r="837">
-      <c r="D837" s="29"/>
+      <c r="D837" s="30"/>
     </row>
     <row r="838">
-      <c r="D838" s="29"/>
+      <c r="D838" s="30"/>
     </row>
     <row r="839">
-      <c r="D839" s="29"/>
+      <c r="D839" s="30"/>
     </row>
     <row r="840">
-      <c r="D840" s="29"/>
+      <c r="D840" s="30"/>
     </row>
     <row r="841">
-      <c r="D841" s="29"/>
+      <c r="D841" s="30"/>
     </row>
     <row r="842">
-      <c r="D842" s="29"/>
+      <c r="D842" s="30"/>
     </row>
     <row r="843">
-      <c r="D843" s="29"/>
+      <c r="D843" s="30"/>
     </row>
     <row r="844">
-      <c r="D844" s="29"/>
+      <c r="D844" s="30"/>
     </row>
     <row r="845">
-      <c r="D845" s="29"/>
+      <c r="D845" s="30"/>
     </row>
     <row r="846">
-      <c r="D846" s="29"/>
+      <c r="D846" s="30"/>
     </row>
     <row r="847">
-      <c r="D847" s="29"/>
+      <c r="D847" s="30"/>
     </row>
     <row r="848">
-      <c r="D848" s="29"/>
+      <c r="D848" s="30"/>
     </row>
     <row r="849">
-      <c r="D849" s="29"/>
+      <c r="D849" s="30"/>
     </row>
     <row r="850">
-      <c r="D850" s="29"/>
+      <c r="D850" s="30"/>
     </row>
     <row r="851">
-      <c r="D851" s="29"/>
+      <c r="D851" s="30"/>
     </row>
     <row r="852">
-      <c r="D852" s="29"/>
+      <c r="D852" s="30"/>
     </row>
     <row r="853">
-      <c r="D853" s="29"/>
+      <c r="D853" s="30"/>
     </row>
     <row r="854">
-      <c r="D854" s="29"/>
+      <c r="D854" s="30"/>
     </row>
     <row r="855">
-      <c r="D855" s="29"/>
+      <c r="D855" s="30"/>
     </row>
     <row r="856">
-      <c r="D856" s="29"/>
+      <c r="D856" s="30"/>
     </row>
     <row r="857">
-      <c r="D857" s="29"/>
+      <c r="D857" s="30"/>
     </row>
     <row r="858">
-      <c r="D858" s="29"/>
+      <c r="D858" s="30"/>
     </row>
     <row r="859">
-      <c r="D859" s="29"/>
+      <c r="D859" s="30"/>
     </row>
     <row r="860">
-      <c r="D860" s="29"/>
+      <c r="D860" s="30"/>
     </row>
     <row r="861">
-      <c r="D861" s="29"/>
+      <c r="D861" s="30"/>
     </row>
     <row r="862">
-      <c r="D862" s="29"/>
+      <c r="D862" s="30"/>
     </row>
     <row r="863">
-      <c r="D863" s="29"/>
+      <c r="D863" s="30"/>
     </row>
     <row r="864">
-      <c r="D864" s="29"/>
+      <c r="D864" s="30"/>
     </row>
     <row r="865">
-      <c r="D865" s="29"/>
+      <c r="D865" s="30"/>
     </row>
     <row r="866">
-      <c r="D866" s="29"/>
+      <c r="D866" s="30"/>
     </row>
     <row r="867">
-      <c r="D867" s="29"/>
+      <c r="D867" s="30"/>
     </row>
     <row r="868">
-      <c r="D868" s="29"/>
+      <c r="D868" s="30"/>
     </row>
     <row r="869">
-      <c r="D869" s="29"/>
+      <c r="D869" s="30"/>
     </row>
     <row r="870">
-      <c r="D870" s="29"/>
+      <c r="D870" s="30"/>
     </row>
     <row r="871">
-      <c r="D871" s="29"/>
+      <c r="D871" s="30"/>
     </row>
     <row r="872">
-      <c r="D872" s="29"/>
+      <c r="D872" s="30"/>
     </row>
     <row r="873">
-      <c r="D873" s="29"/>
+      <c r="D873" s="30"/>
     </row>
     <row r="874">
-      <c r="D874" s="29"/>
+      <c r="D874" s="30"/>
     </row>
     <row r="875">
-      <c r="D875" s="29"/>
+      <c r="D875" s="30"/>
     </row>
     <row r="876">
-      <c r="D876" s="29"/>
+      <c r="D876" s="30"/>
     </row>
     <row r="877">
-      <c r="D877" s="29"/>
+      <c r="D877" s="30"/>
     </row>
     <row r="878">
-      <c r="D878" s="29"/>
+      <c r="D878" s="30"/>
     </row>
     <row r="879">
-      <c r="D879" s="29"/>
+      <c r="D879" s="30"/>
     </row>
     <row r="880">
-      <c r="D880" s="29"/>
+      <c r="D880" s="30"/>
     </row>
     <row r="881">
-      <c r="D881" s="29"/>
+      <c r="D881" s="30"/>
     </row>
     <row r="882">
-      <c r="D882" s="29"/>
+      <c r="D882" s="30"/>
     </row>
     <row r="883">
-      <c r="D883" s="29"/>
+      <c r="D883" s="30"/>
     </row>
     <row r="884">
-      <c r="D884" s="29"/>
+      <c r="D884" s="30"/>
     </row>
     <row r="885">
-      <c r="D885" s="29"/>
+      <c r="D885" s="30"/>
     </row>
     <row r="886">
-      <c r="D886" s="29"/>
+      <c r="D886" s="30"/>
     </row>
     <row r="887">
-      <c r="D887" s="29"/>
+      <c r="D887" s="30"/>
     </row>
     <row r="888">
-      <c r="D888" s="29"/>
+      <c r="D888" s="30"/>
     </row>
     <row r="889">
-      <c r="D889" s="29"/>
+      <c r="D889" s="30"/>
     </row>
     <row r="890">
-      <c r="D890" s="29"/>
+      <c r="D890" s="30"/>
     </row>
     <row r="891">
-      <c r="D891" s="29"/>
+      <c r="D891" s="30"/>
     </row>
     <row r="892">
-      <c r="D892" s="29"/>
+      <c r="D892" s="30"/>
     </row>
     <row r="893">
-      <c r="D893" s="29"/>
+      <c r="D893" s="30"/>
     </row>
     <row r="894">
-      <c r="D894" s="29"/>
+      <c r="D894" s="30"/>
     </row>
     <row r="895">
-      <c r="D895" s="29"/>
+      <c r="D895" s="30"/>
     </row>
     <row r="896">
-      <c r="D896" s="29"/>
+      <c r="D896" s="30"/>
     </row>
     <row r="897">
-      <c r="D897" s="29"/>
+      <c r="D897" s="30"/>
     </row>
     <row r="898">
-      <c r="D898" s="29"/>
+      <c r="D898" s="30"/>
     </row>
     <row r="899">
-      <c r="D899" s="29"/>
+      <c r="D899" s="30"/>
     </row>
     <row r="900">
-      <c r="D900" s="29"/>
+      <c r="D900" s="30"/>
     </row>
     <row r="901">
-      <c r="D901" s="29"/>
+      <c r="D901" s="30"/>
     </row>
     <row r="902">
-      <c r="D902" s="29"/>
+      <c r="D902" s="30"/>
     </row>
     <row r="903">
-      <c r="D903" s="29"/>
+      <c r="D903" s="30"/>
     </row>
     <row r="904">
-      <c r="D904" s="29"/>
+      <c r="D904" s="30"/>
     </row>
     <row r="905">
-      <c r="D905" s="29"/>
+      <c r="D905" s="30"/>
     </row>
     <row r="906">
-      <c r="D906" s="29"/>
+      <c r="D906" s="30"/>
     </row>
     <row r="907">
-      <c r="D907" s="29"/>
+      <c r="D907" s="30"/>
     </row>
     <row r="908">
-      <c r="D908" s="29"/>
+      <c r="D908" s="30"/>
     </row>
     <row r="909">
-      <c r="D909" s="29"/>
+      <c r="D909" s="30"/>
     </row>
     <row r="910">
-      <c r="D910" s="29"/>
+      <c r="D910" s="30"/>
     </row>
     <row r="911">
-      <c r="D911" s="29"/>
+      <c r="D911" s="30"/>
     </row>
     <row r="912">
-      <c r="D912" s="29"/>
+      <c r="D912" s="30"/>
     </row>
     <row r="913">
-      <c r="D913" s="29"/>
+      <c r="D913" s="30"/>
     </row>
     <row r="914">
-      <c r="D914" s="29"/>
+      <c r="D914" s="30"/>
     </row>
     <row r="915">
-      <c r="D915" s="29"/>
+      <c r="D915" s="30"/>
     </row>
     <row r="916">
-      <c r="D916" s="29"/>
+      <c r="D916" s="30"/>
     </row>
     <row r="917">
-      <c r="D917" s="29"/>
+      <c r="D917" s="30"/>
     </row>
     <row r="918">
-      <c r="D918" s="29"/>
+      <c r="D918" s="30"/>
     </row>
     <row r="919">
-      <c r="D919" s="29"/>
+      <c r="D919" s="30"/>
     </row>
     <row r="920">
-      <c r="D920" s="29"/>
+      <c r="D920" s="30"/>
     </row>
     <row r="921">
-      <c r="D921" s="29"/>
+      <c r="D921" s="30"/>
     </row>
     <row r="922">
-      <c r="D922" s="29"/>
+      <c r="D922" s="30"/>
     </row>
     <row r="923">
-      <c r="D923" s="29"/>
+      <c r="D923" s="30"/>
     </row>
     <row r="924">
-      <c r="D924" s="29"/>
+      <c r="D924" s="30"/>
     </row>
     <row r="925">
-      <c r="D925" s="29"/>
+      <c r="D925" s="30"/>
     </row>
     <row r="926">
-      <c r="D926" s="29"/>
+      <c r="D926" s="30"/>
     </row>
     <row r="927">
-      <c r="D927" s="29"/>
+      <c r="D927" s="30"/>
     </row>
     <row r="928">
-      <c r="D928" s="29"/>
+      <c r="D928" s="30"/>
     </row>
     <row r="929">
-      <c r="D929" s="29"/>
+      <c r="D929" s="30"/>
     </row>
     <row r="930">
-      <c r="D930" s="29"/>
+      <c r="D930" s="30"/>
     </row>
     <row r="931">
-      <c r="D931" s="29"/>
+      <c r="D931" s="30"/>
     </row>
     <row r="932">
-      <c r="D932" s="29"/>
+      <c r="D932" s="30"/>
     </row>
     <row r="933">
-      <c r="D933" s="29"/>
+      <c r="D933" s="30"/>
     </row>
     <row r="934">
-      <c r="D934" s="29"/>
+      <c r="D934" s="30"/>
     </row>
     <row r="935">
-      <c r="D935" s="29"/>
+      <c r="D935" s="30"/>
     </row>
     <row r="936">
-      <c r="D936" s="29"/>
+      <c r="D936" s="30"/>
     </row>
     <row r="937">
-      <c r="D937" s="29"/>
+      <c r="D937" s="30"/>
     </row>
     <row r="938">
-      <c r="D938" s="29"/>
+      <c r="D938" s="30"/>
     </row>
     <row r="939">
-      <c r="D939" s="29"/>
+      <c r="D939" s="30"/>
     </row>
     <row r="940">
-      <c r="D940" s="29"/>
+      <c r="D940" s="30"/>
     </row>
     <row r="941">
-      <c r="D941" s="29"/>
+      <c r="D941" s="30"/>
     </row>
     <row r="942">
-      <c r="D942" s="29"/>
+      <c r="D942" s="30"/>
     </row>
     <row r="943">
-      <c r="D943" s="29"/>
+      <c r="D943" s="30"/>
     </row>
     <row r="944">
-      <c r="D944" s="29"/>
+      <c r="D944" s="30"/>
     </row>
     <row r="945">
-      <c r="D945" s="29"/>
+      <c r="D945" s="30"/>
     </row>
     <row r="946">
-      <c r="D946" s="29"/>
+      <c r="D946" s="30"/>
     </row>
     <row r="947">
-      <c r="D947" s="29"/>
+      <c r="D947" s="30"/>
     </row>
     <row r="948">
-      <c r="D948" s="29"/>
+      <c r="D948" s="30"/>
     </row>
     <row r="949">
-      <c r="D949" s="29"/>
+      <c r="D949" s="30"/>
     </row>
     <row r="950">
-      <c r="D950" s="29"/>
+      <c r="D950" s="30"/>
     </row>
     <row r="951">
-      <c r="D951" s="29"/>
+      <c r="D951" s="30"/>
     </row>
     <row r="952">
-      <c r="D952" s="29"/>
+      <c r="D952" s="30"/>
     </row>
     <row r="953">
-      <c r="D953" s="29"/>
+      <c r="D953" s="30"/>
     </row>
     <row r="954">
-      <c r="D954" s="29"/>
+      <c r="D954" s="30"/>
     </row>
     <row r="955">
-      <c r="D955" s="29"/>
+      <c r="D955" s="30"/>
     </row>
     <row r="956">
-      <c r="D956" s="29"/>
+      <c r="D956" s="30"/>
     </row>
     <row r="957">
-      <c r="D957" s="29"/>
+      <c r="D957" s="30"/>
     </row>
     <row r="958">
-      <c r="D958" s="29"/>
+      <c r="D958" s="30"/>
     </row>
     <row r="959">
-      <c r="D959" s="29"/>
+      <c r="D959" s="30"/>
     </row>
     <row r="960">
-      <c r="D960" s="29"/>
+      <c r="D960" s="30"/>
     </row>
     <row r="961">
-      <c r="D961" s="29"/>
+      <c r="D961" s="30"/>
     </row>
     <row r="962">
-      <c r="D962" s="29"/>
+      <c r="D962" s="30"/>
     </row>
     <row r="963">
-      <c r="D963" s="29"/>
+      <c r="D963" s="30"/>
     </row>
     <row r="964">
-      <c r="D964" s="29"/>
+      <c r="D964" s="30"/>
     </row>
     <row r="965">
-      <c r="D965" s="29"/>
+      <c r="D965" s="30"/>
     </row>
     <row r="966">
-      <c r="D966" s="29"/>
+      <c r="D966" s="30"/>
     </row>
     <row r="967">
-      <c r="D967" s="29"/>
+      <c r="D967" s="30"/>
     </row>
     <row r="968">
-      <c r="D968" s="29"/>
+      <c r="D968" s="30"/>
     </row>
     <row r="969">
-      <c r="D969" s="29"/>
+      <c r="D969" s="30"/>
     </row>
     <row r="970">
-      <c r="D970" s="29"/>
+      <c r="D970" s="30"/>
     </row>
     <row r="971">
-      <c r="D971" s="29"/>
+      <c r="D971" s="30"/>
     </row>
     <row r="972">
-      <c r="D972" s="29"/>
+      <c r="D972" s="30"/>
     </row>
     <row r="973">
-      <c r="D973" s="29"/>
+      <c r="D973" s="30"/>
     </row>
     <row r="974">
-      <c r="D974" s="29"/>
+      <c r="D974" s="30"/>
     </row>
     <row r="975">
-      <c r="D975" s="29"/>
+      <c r="D975" s="30"/>
     </row>
     <row r="976">
-      <c r="D976" s="29"/>
+      <c r="D976" s="30"/>
     </row>
     <row r="977">
-      <c r="D977" s="29"/>
+      <c r="D977" s="30"/>
     </row>
     <row r="978">
-      <c r="D978" s="29"/>
+      <c r="D978" s="30"/>
     </row>
     <row r="979">
-      <c r="D979" s="29"/>
+      <c r="D979" s="30"/>
     </row>
     <row r="980">
-      <c r="D980" s="29"/>
+      <c r="D980" s="30"/>
     </row>
     <row r="981">
-      <c r="D981" s="29"/>
+      <c r="D981" s="30"/>
     </row>
     <row r="982">
-      <c r="D982" s="29"/>
+      <c r="D982" s="30"/>
     </row>
     <row r="983">
-      <c r="D983" s="29"/>
+      <c r="D983" s="30"/>
     </row>
     <row r="984">
-      <c r="D984" s="29"/>
+      <c r="D984" s="30"/>
     </row>
     <row r="985">
-      <c r="D985" s="29"/>
+      <c r="D985" s="30"/>
     </row>
     <row r="986">
-      <c r="D986" s="29"/>
+      <c r="D986" s="30"/>
     </row>
     <row r="987">
-      <c r="D987" s="29"/>
+      <c r="D987" s="30"/>
     </row>
     <row r="988">
-      <c r="D988" s="29"/>
+      <c r="D988" s="30"/>
     </row>
     <row r="989">
-      <c r="D989" s="29"/>
+      <c r="D989" s="30"/>
     </row>
     <row r="990">
-      <c r="D990" s="29"/>
+      <c r="D990" s="30"/>
     </row>
     <row r="991">
-      <c r="D991" s="29"/>
+      <c r="D991" s="30"/>
     </row>
     <row r="992">
-      <c r="D992" s="29"/>
+      <c r="D992" s="30"/>
     </row>
     <row r="993">
-      <c r="D993" s="29"/>
+      <c r="D993" s="30"/>
+    </row>
+    <row r="994">
+      <c r="D994" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9088,556 +9861,657 @@
     <hyperlink r:id="rId180" ref="E43"/>
     <hyperlink r:id="rId181" ref="G43"/>
     <hyperlink r:id="rId182" ref="A44"/>
-    <hyperlink r:id="rId183" ref="C44"/>
-    <hyperlink r:id="rId184" ref="E44"/>
-    <hyperlink r:id="rId185" ref="G44"/>
-    <hyperlink r:id="rId186" ref="A45"/>
-    <hyperlink r:id="rId187" ref="B45"/>
-    <hyperlink r:id="rId188" ref="C45"/>
-    <hyperlink r:id="rId189" ref="E45"/>
-    <hyperlink r:id="rId190" ref="G45"/>
-    <hyperlink r:id="rId191" ref="A46"/>
-    <hyperlink r:id="rId192" ref="C46"/>
-    <hyperlink r:id="rId193" ref="E46"/>
-    <hyperlink r:id="rId194" ref="F46"/>
-    <hyperlink r:id="rId195" ref="G46"/>
-    <hyperlink r:id="rId196" ref="A47"/>
-    <hyperlink r:id="rId197" ref="B47"/>
-    <hyperlink r:id="rId198" ref="C47"/>
-    <hyperlink r:id="rId199" ref="E47"/>
-    <hyperlink r:id="rId200" ref="F47"/>
-    <hyperlink r:id="rId201" ref="G47"/>
-    <hyperlink r:id="rId202" ref="A48"/>
-    <hyperlink r:id="rId203" ref="C48"/>
-    <hyperlink r:id="rId204" ref="E48"/>
-    <hyperlink r:id="rId205" ref="G48"/>
-    <hyperlink r:id="rId206" ref="A49"/>
-    <hyperlink r:id="rId207" ref="C49"/>
-    <hyperlink r:id="rId208" ref="E49"/>
-    <hyperlink r:id="rId209" ref="G49"/>
-    <hyperlink r:id="rId210" ref="A50"/>
-    <hyperlink r:id="rId211" ref="C50"/>
-    <hyperlink r:id="rId212" ref="E50"/>
-    <hyperlink r:id="rId213" ref="G50"/>
-    <hyperlink r:id="rId214" ref="A51"/>
-    <hyperlink r:id="rId215" ref="C51"/>
-    <hyperlink r:id="rId216" ref="E51"/>
-    <hyperlink r:id="rId217" ref="G51"/>
-    <hyperlink r:id="rId218" ref="A52"/>
-    <hyperlink r:id="rId219" ref="C52"/>
-    <hyperlink r:id="rId220" ref="E52"/>
-    <hyperlink r:id="rId221" ref="G52"/>
-    <hyperlink r:id="rId222" ref="A53"/>
-    <hyperlink r:id="rId223" ref="C53"/>
-    <hyperlink r:id="rId224" ref="E53"/>
-    <hyperlink r:id="rId225" ref="G53"/>
-    <hyperlink r:id="rId226" ref="A54"/>
-    <hyperlink r:id="rId227" ref="C54"/>
-    <hyperlink r:id="rId228" ref="E54"/>
-    <hyperlink r:id="rId229" ref="G54"/>
-    <hyperlink r:id="rId230" ref="A55"/>
-    <hyperlink r:id="rId231" ref="B55"/>
-    <hyperlink r:id="rId232" ref="C55"/>
-    <hyperlink r:id="rId233" ref="E55"/>
-    <hyperlink r:id="rId234" ref="F55"/>
-    <hyperlink r:id="rId235" ref="G55"/>
-    <hyperlink r:id="rId236" ref="A56"/>
-    <hyperlink r:id="rId237" ref="C56"/>
-    <hyperlink r:id="rId238" ref="E56"/>
-    <hyperlink r:id="rId239" ref="G56"/>
-    <hyperlink r:id="rId240" ref="A57"/>
-    <hyperlink r:id="rId241" ref="C57"/>
-    <hyperlink r:id="rId242" ref="E57"/>
-    <hyperlink r:id="rId243" ref="G57"/>
-    <hyperlink r:id="rId244" ref="A58"/>
-    <hyperlink r:id="rId245" ref="C58"/>
-    <hyperlink r:id="rId246" ref="E58"/>
-    <hyperlink r:id="rId247" ref="G58"/>
-    <hyperlink r:id="rId248" ref="A59"/>
-    <hyperlink r:id="rId249" ref="C59"/>
-    <hyperlink r:id="rId250" ref="E59"/>
-    <hyperlink r:id="rId251" ref="G59"/>
-    <hyperlink r:id="rId252" ref="A60"/>
-    <hyperlink r:id="rId253" ref="C60"/>
-    <hyperlink r:id="rId254" ref="E60"/>
-    <hyperlink r:id="rId255" ref="G60"/>
-    <hyperlink r:id="rId256" ref="A61"/>
-    <hyperlink r:id="rId257" ref="C61"/>
-    <hyperlink r:id="rId258" ref="E61"/>
-    <hyperlink r:id="rId259" ref="G61"/>
-    <hyperlink r:id="rId260" ref="A62"/>
-    <hyperlink r:id="rId261" ref="C62"/>
-    <hyperlink r:id="rId262" ref="E62"/>
-    <hyperlink r:id="rId263" ref="G62"/>
-    <hyperlink r:id="rId264" ref="A63"/>
-    <hyperlink r:id="rId265" ref="C63"/>
-    <hyperlink r:id="rId266" ref="E63"/>
-    <hyperlink r:id="rId267" ref="G63"/>
-    <hyperlink r:id="rId268" ref="A64"/>
-    <hyperlink r:id="rId269" ref="B64"/>
-    <hyperlink r:id="rId270" ref="C64"/>
-    <hyperlink r:id="rId271" ref="E64"/>
-    <hyperlink r:id="rId272" ref="G64"/>
-    <hyperlink r:id="rId273" ref="A65"/>
-    <hyperlink r:id="rId274" ref="C65"/>
-    <hyperlink r:id="rId275" ref="E65"/>
-    <hyperlink r:id="rId276" ref="G65"/>
-    <hyperlink r:id="rId277" ref="A66"/>
-    <hyperlink r:id="rId278" ref="C66"/>
-    <hyperlink r:id="rId279" ref="E66"/>
-    <hyperlink r:id="rId280" ref="G66"/>
-    <hyperlink r:id="rId281" ref="A67"/>
-    <hyperlink r:id="rId282" ref="C67"/>
-    <hyperlink r:id="rId283" ref="E67"/>
-    <hyperlink r:id="rId284" ref="G67"/>
-    <hyperlink r:id="rId285" ref="A68"/>
-    <hyperlink r:id="rId286" ref="C68"/>
-    <hyperlink r:id="rId287" ref="E68"/>
-    <hyperlink r:id="rId288" ref="G68"/>
-    <hyperlink r:id="rId289" ref="A69"/>
-    <hyperlink r:id="rId290" ref="C69"/>
-    <hyperlink r:id="rId291" ref="E69"/>
-    <hyperlink r:id="rId292" ref="G69"/>
-    <hyperlink r:id="rId293" ref="A70"/>
-    <hyperlink r:id="rId294" ref="C70"/>
-    <hyperlink r:id="rId295" ref="E70"/>
-    <hyperlink r:id="rId296" ref="G70"/>
-    <hyperlink r:id="rId297" ref="A71"/>
-    <hyperlink r:id="rId298" ref="B71"/>
-    <hyperlink r:id="rId299" ref="C71"/>
-    <hyperlink r:id="rId300" ref="E71"/>
-    <hyperlink r:id="rId301" ref="G71"/>
-    <hyperlink r:id="rId302" ref="A72"/>
-    <hyperlink r:id="rId303" ref="C72"/>
-    <hyperlink r:id="rId304" ref="E72"/>
-    <hyperlink r:id="rId305" ref="G72"/>
-    <hyperlink r:id="rId306" ref="A73"/>
-    <hyperlink r:id="rId307" ref="C73"/>
-    <hyperlink r:id="rId308" ref="E73"/>
-    <hyperlink r:id="rId309" ref="G73"/>
-    <hyperlink r:id="rId310" ref="A74"/>
-    <hyperlink r:id="rId311" ref="C74"/>
-    <hyperlink r:id="rId312" ref="E74"/>
-    <hyperlink r:id="rId313" ref="G74"/>
-    <hyperlink r:id="rId314" ref="A75"/>
-    <hyperlink r:id="rId315" ref="C75"/>
-    <hyperlink r:id="rId316" ref="E75"/>
-    <hyperlink r:id="rId317" ref="G75"/>
-    <hyperlink r:id="rId318" ref="A76"/>
-    <hyperlink r:id="rId319" ref="B76"/>
-    <hyperlink r:id="rId320" ref="C76"/>
-    <hyperlink r:id="rId321" ref="E76"/>
-    <hyperlink r:id="rId322" ref="G76"/>
-    <hyperlink r:id="rId323" ref="A77"/>
-    <hyperlink r:id="rId324" ref="B77"/>
-    <hyperlink r:id="rId325" ref="C77"/>
-    <hyperlink r:id="rId326" ref="E77"/>
-    <hyperlink r:id="rId327" ref="G77"/>
-    <hyperlink r:id="rId328" ref="A78"/>
-    <hyperlink r:id="rId329" ref="C78"/>
-    <hyperlink r:id="rId330" ref="E78"/>
-    <hyperlink r:id="rId331" ref="G78"/>
-    <hyperlink r:id="rId332" ref="A79"/>
-    <hyperlink r:id="rId333" ref="C79"/>
-    <hyperlink r:id="rId334" ref="E79"/>
-    <hyperlink r:id="rId335" ref="G79"/>
-    <hyperlink r:id="rId336" ref="A80"/>
-    <hyperlink r:id="rId337" ref="C80"/>
-    <hyperlink r:id="rId338" ref="E80"/>
-    <hyperlink r:id="rId339" ref="G80"/>
-    <hyperlink r:id="rId340" ref="A81"/>
-    <hyperlink r:id="rId341" ref="C81"/>
-    <hyperlink r:id="rId342" ref="E81"/>
-    <hyperlink r:id="rId343" ref="G81"/>
-    <hyperlink r:id="rId344" ref="A82"/>
-    <hyperlink r:id="rId345" ref="C82"/>
-    <hyperlink r:id="rId346" ref="E82"/>
-    <hyperlink r:id="rId347" ref="G82"/>
-    <hyperlink r:id="rId348" ref="A83"/>
-    <hyperlink r:id="rId349" ref="C83"/>
-    <hyperlink r:id="rId350" ref="E83"/>
-    <hyperlink r:id="rId351" ref="G83"/>
-    <hyperlink r:id="rId352" ref="A84"/>
-    <hyperlink r:id="rId353" ref="C84"/>
-    <hyperlink r:id="rId354" ref="E84"/>
-    <hyperlink r:id="rId355" ref="G84"/>
-    <hyperlink r:id="rId356" ref="A85"/>
-    <hyperlink r:id="rId357" ref="C85"/>
-    <hyperlink r:id="rId358" ref="E85"/>
-    <hyperlink r:id="rId359" ref="G85"/>
-    <hyperlink r:id="rId360" ref="A86"/>
-    <hyperlink r:id="rId361" ref="C86"/>
-    <hyperlink r:id="rId362" ref="E86"/>
-    <hyperlink r:id="rId363" ref="G86"/>
-    <hyperlink r:id="rId364" ref="A87"/>
-    <hyperlink r:id="rId365" ref="C87"/>
-    <hyperlink r:id="rId366" ref="E87"/>
-    <hyperlink r:id="rId367" ref="G87"/>
-    <hyperlink r:id="rId368" ref="A88"/>
-    <hyperlink r:id="rId369" ref="C88"/>
-    <hyperlink r:id="rId370" ref="E88"/>
-    <hyperlink r:id="rId371" ref="G88"/>
-    <hyperlink r:id="rId372" ref="A89"/>
-    <hyperlink r:id="rId373" ref="C89"/>
-    <hyperlink r:id="rId374" ref="E89"/>
-    <hyperlink r:id="rId375" ref="G89"/>
-    <hyperlink r:id="rId376" ref="A90"/>
-    <hyperlink r:id="rId377" ref="C90"/>
-    <hyperlink r:id="rId378" ref="E90"/>
-    <hyperlink r:id="rId379" ref="G90"/>
-    <hyperlink r:id="rId380" ref="A91"/>
-    <hyperlink r:id="rId381" ref="C91"/>
-    <hyperlink r:id="rId382" ref="E91"/>
-    <hyperlink r:id="rId383" ref="F91"/>
-    <hyperlink r:id="rId384" ref="G91"/>
-    <hyperlink r:id="rId385" ref="A92"/>
-    <hyperlink r:id="rId386" ref="C92"/>
-    <hyperlink r:id="rId387" ref="E92"/>
-    <hyperlink r:id="rId388" ref="G92"/>
-    <hyperlink r:id="rId389" ref="A93"/>
-    <hyperlink r:id="rId390" ref="C93"/>
-    <hyperlink r:id="rId391" ref="E93"/>
-    <hyperlink r:id="rId392" ref="G93"/>
-    <hyperlink r:id="rId393" ref="A94"/>
-    <hyperlink r:id="rId394" ref="B94"/>
-    <hyperlink r:id="rId395" ref="C94"/>
-    <hyperlink r:id="rId396" ref="E94"/>
-    <hyperlink r:id="rId397" ref="G94"/>
-    <hyperlink r:id="rId398" ref="A95"/>
-    <hyperlink r:id="rId399" ref="B95"/>
-    <hyperlink r:id="rId400" ref="C95"/>
-    <hyperlink r:id="rId401" ref="E95"/>
-    <hyperlink r:id="rId402" ref="G95"/>
-    <hyperlink r:id="rId403" ref="A96"/>
-    <hyperlink r:id="rId404" ref="C96"/>
-    <hyperlink r:id="rId405" ref="E96"/>
-    <hyperlink r:id="rId406" ref="G96"/>
-    <hyperlink r:id="rId407" ref="A97"/>
-    <hyperlink r:id="rId408" ref="C97"/>
-    <hyperlink r:id="rId409" ref="E97"/>
-    <hyperlink r:id="rId410" ref="G97"/>
-    <hyperlink r:id="rId411" ref="A98"/>
-    <hyperlink r:id="rId412" ref="C98"/>
-    <hyperlink r:id="rId413" ref="E98"/>
-    <hyperlink r:id="rId414" ref="G98"/>
-    <hyperlink r:id="rId415" ref="A99"/>
-    <hyperlink r:id="rId416" ref="C99"/>
-    <hyperlink r:id="rId417" ref="E99"/>
-    <hyperlink r:id="rId418" ref="A100"/>
-    <hyperlink r:id="rId419" ref="C100"/>
-    <hyperlink r:id="rId420" ref="E100"/>
-    <hyperlink r:id="rId421" ref="G100"/>
-    <hyperlink r:id="rId422" ref="A101"/>
-    <hyperlink r:id="rId423" ref="C101"/>
-    <hyperlink r:id="rId424" ref="E101"/>
-    <hyperlink r:id="rId425" ref="G101"/>
-    <hyperlink r:id="rId426" ref="A102"/>
-    <hyperlink r:id="rId427" ref="C102"/>
-    <hyperlink r:id="rId428" ref="E102"/>
-    <hyperlink r:id="rId429" ref="G102"/>
-    <hyperlink r:id="rId430" ref="A103"/>
-    <hyperlink r:id="rId431" ref="C103"/>
-    <hyperlink r:id="rId432" ref="E103"/>
-    <hyperlink r:id="rId433" ref="G103"/>
-    <hyperlink r:id="rId434" ref="A104"/>
-    <hyperlink r:id="rId435" ref="C104"/>
-    <hyperlink r:id="rId436" ref="E104"/>
-    <hyperlink r:id="rId437" ref="G104"/>
-    <hyperlink r:id="rId438" ref="A105"/>
-    <hyperlink r:id="rId439" ref="C105"/>
-    <hyperlink r:id="rId440" ref="E105"/>
-    <hyperlink r:id="rId441" ref="G105"/>
-    <hyperlink r:id="rId442" ref="A106"/>
-    <hyperlink r:id="rId443" ref="C106"/>
-    <hyperlink r:id="rId444" ref="E106"/>
-    <hyperlink r:id="rId445" ref="G106"/>
-    <hyperlink r:id="rId446" ref="A107"/>
-    <hyperlink r:id="rId447" ref="C107"/>
-    <hyperlink r:id="rId448" ref="E107"/>
-    <hyperlink r:id="rId449" ref="G107"/>
-    <hyperlink r:id="rId450" ref="A108"/>
+    <hyperlink r:id="rId183" ref="E44"/>
+    <hyperlink r:id="rId184" ref="G44"/>
+    <hyperlink r:id="rId185" ref="A45"/>
+    <hyperlink r:id="rId186" ref="B45"/>
+    <hyperlink r:id="rId187" ref="C45"/>
+    <hyperlink r:id="rId188" ref="E45"/>
+    <hyperlink r:id="rId189" ref="G45"/>
+    <hyperlink r:id="rId190" ref="A46"/>
+    <hyperlink r:id="rId191" ref="C46"/>
+    <hyperlink r:id="rId192" ref="E46"/>
+    <hyperlink r:id="rId193" ref="F46"/>
+    <hyperlink r:id="rId194" ref="G46"/>
+    <hyperlink r:id="rId195" ref="A47"/>
+    <hyperlink r:id="rId196" ref="B47"/>
+    <hyperlink r:id="rId197" ref="C47"/>
+    <hyperlink r:id="rId198" ref="E47"/>
+    <hyperlink r:id="rId199" ref="F47"/>
+    <hyperlink r:id="rId200" ref="G47"/>
+    <hyperlink r:id="rId201" ref="A48"/>
+    <hyperlink r:id="rId202" ref="C48"/>
+    <hyperlink r:id="rId203" ref="E48"/>
+    <hyperlink r:id="rId204" ref="G48"/>
+    <hyperlink r:id="rId205" ref="A49"/>
+    <hyperlink r:id="rId206" ref="C49"/>
+    <hyperlink r:id="rId207" ref="E49"/>
+    <hyperlink r:id="rId208" ref="G49"/>
+    <hyperlink r:id="rId209" ref="A50"/>
+    <hyperlink r:id="rId210" ref="C50"/>
+    <hyperlink r:id="rId211" ref="E50"/>
+    <hyperlink r:id="rId212" ref="G50"/>
+    <hyperlink r:id="rId213" ref="A51"/>
+    <hyperlink r:id="rId214" ref="C51"/>
+    <hyperlink r:id="rId215" ref="E51"/>
+    <hyperlink r:id="rId216" ref="G51"/>
+    <hyperlink r:id="rId217" ref="A52"/>
+    <hyperlink r:id="rId218" ref="C52"/>
+    <hyperlink r:id="rId219" ref="E52"/>
+    <hyperlink r:id="rId220" ref="G52"/>
+    <hyperlink r:id="rId221" ref="A53"/>
+    <hyperlink r:id="rId222" ref="C53"/>
+    <hyperlink r:id="rId223" ref="E53"/>
+    <hyperlink r:id="rId224" ref="G53"/>
+    <hyperlink r:id="rId225" ref="A54"/>
+    <hyperlink r:id="rId226" ref="C54"/>
+    <hyperlink r:id="rId227" ref="E54"/>
+    <hyperlink r:id="rId228" ref="G54"/>
+    <hyperlink r:id="rId229" ref="A55"/>
+    <hyperlink r:id="rId230" ref="B55"/>
+    <hyperlink r:id="rId231" ref="C55"/>
+    <hyperlink r:id="rId232" ref="E55"/>
+    <hyperlink r:id="rId233" ref="F55"/>
+    <hyperlink r:id="rId234" ref="G55"/>
+    <hyperlink r:id="rId235" ref="A56"/>
+    <hyperlink r:id="rId236" ref="C56"/>
+    <hyperlink r:id="rId237" ref="E56"/>
+    <hyperlink r:id="rId238" ref="G56"/>
+    <hyperlink r:id="rId239" ref="A57"/>
+    <hyperlink r:id="rId240" ref="C57"/>
+    <hyperlink r:id="rId241" ref="E57"/>
+    <hyperlink r:id="rId242" ref="G57"/>
+    <hyperlink r:id="rId243" ref="A58"/>
+    <hyperlink r:id="rId244" ref="C58"/>
+    <hyperlink r:id="rId245" ref="E58"/>
+    <hyperlink r:id="rId246" ref="G58"/>
+    <hyperlink r:id="rId247" ref="A59"/>
+    <hyperlink r:id="rId248" ref="C59"/>
+    <hyperlink r:id="rId249" ref="E59"/>
+    <hyperlink r:id="rId250" ref="G59"/>
+    <hyperlink r:id="rId251" ref="A60"/>
+    <hyperlink r:id="rId252" ref="C60"/>
+    <hyperlink r:id="rId253" ref="E60"/>
+    <hyperlink r:id="rId254" ref="G60"/>
+    <hyperlink r:id="rId255" ref="A61"/>
+    <hyperlink r:id="rId256" ref="C61"/>
+    <hyperlink r:id="rId257" ref="E61"/>
+    <hyperlink r:id="rId258" ref="G61"/>
+    <hyperlink r:id="rId259" ref="A62"/>
+    <hyperlink r:id="rId260" ref="C62"/>
+    <hyperlink r:id="rId261" ref="E62"/>
+    <hyperlink r:id="rId262" ref="G62"/>
+    <hyperlink r:id="rId263" ref="A63"/>
+    <hyperlink r:id="rId264" ref="C63"/>
+    <hyperlink r:id="rId265" ref="E63"/>
+    <hyperlink r:id="rId266" ref="G63"/>
+    <hyperlink r:id="rId267" ref="A64"/>
+    <hyperlink r:id="rId268" ref="B64"/>
+    <hyperlink r:id="rId269" ref="C64"/>
+    <hyperlink r:id="rId270" ref="E64"/>
+    <hyperlink r:id="rId271" ref="G64"/>
+    <hyperlink r:id="rId272" ref="A65"/>
+    <hyperlink r:id="rId273" ref="C65"/>
+    <hyperlink r:id="rId274" ref="E65"/>
+    <hyperlink r:id="rId275" ref="G65"/>
+    <hyperlink r:id="rId276" ref="A66"/>
+    <hyperlink r:id="rId277" ref="C66"/>
+    <hyperlink r:id="rId278" ref="E66"/>
+    <hyperlink r:id="rId279" ref="G66"/>
+    <hyperlink r:id="rId280" ref="A67"/>
+    <hyperlink r:id="rId281" ref="C67"/>
+    <hyperlink r:id="rId282" ref="E67"/>
+    <hyperlink r:id="rId283" ref="G67"/>
+    <hyperlink r:id="rId284" ref="A68"/>
+    <hyperlink r:id="rId285" ref="C68"/>
+    <hyperlink r:id="rId286" ref="E68"/>
+    <hyperlink r:id="rId287" ref="G68"/>
+    <hyperlink r:id="rId288" ref="A69"/>
+    <hyperlink r:id="rId289" ref="C69"/>
+    <hyperlink r:id="rId290" ref="E69"/>
+    <hyperlink r:id="rId291" ref="G69"/>
+    <hyperlink r:id="rId292" ref="A70"/>
+    <hyperlink r:id="rId293" ref="C70"/>
+    <hyperlink r:id="rId294" ref="E70"/>
+    <hyperlink r:id="rId295" ref="G70"/>
+    <hyperlink r:id="rId296" ref="A71"/>
+    <hyperlink r:id="rId297" ref="B71"/>
+    <hyperlink r:id="rId298" ref="C71"/>
+    <hyperlink r:id="rId299" ref="E71"/>
+    <hyperlink r:id="rId300" ref="G71"/>
+    <hyperlink r:id="rId301" ref="A72"/>
+    <hyperlink r:id="rId302" ref="C72"/>
+    <hyperlink r:id="rId303" ref="E72"/>
+    <hyperlink r:id="rId304" ref="G72"/>
+    <hyperlink r:id="rId305" ref="A73"/>
+    <hyperlink r:id="rId306" ref="C73"/>
+    <hyperlink r:id="rId307" ref="E73"/>
+    <hyperlink r:id="rId308" ref="G73"/>
+    <hyperlink r:id="rId309" ref="A74"/>
+    <hyperlink r:id="rId310" ref="C74"/>
+    <hyperlink r:id="rId311" ref="E74"/>
+    <hyperlink r:id="rId312" ref="G74"/>
+    <hyperlink r:id="rId313" ref="A75"/>
+    <hyperlink r:id="rId314" ref="C75"/>
+    <hyperlink r:id="rId315" ref="E75"/>
+    <hyperlink r:id="rId316" ref="G75"/>
+    <hyperlink r:id="rId317" ref="A76"/>
+    <hyperlink r:id="rId318" ref="B76"/>
+    <hyperlink r:id="rId319" ref="C76"/>
+    <hyperlink r:id="rId320" ref="E76"/>
+    <hyperlink r:id="rId321" ref="G76"/>
+    <hyperlink r:id="rId322" ref="A77"/>
+    <hyperlink r:id="rId323" ref="B77"/>
+    <hyperlink r:id="rId324" ref="C77"/>
+    <hyperlink r:id="rId325" ref="E77"/>
+    <hyperlink r:id="rId326" ref="G77"/>
+    <hyperlink r:id="rId327" ref="A78"/>
+    <hyperlink r:id="rId328" ref="C78"/>
+    <hyperlink r:id="rId329" ref="E78"/>
+    <hyperlink r:id="rId330" ref="G78"/>
+    <hyperlink r:id="rId331" ref="A79"/>
+    <hyperlink r:id="rId332" ref="C79"/>
+    <hyperlink r:id="rId333" ref="E79"/>
+    <hyperlink r:id="rId334" ref="G79"/>
+    <hyperlink r:id="rId335" ref="A80"/>
+    <hyperlink r:id="rId336" ref="C80"/>
+    <hyperlink r:id="rId337" ref="E80"/>
+    <hyperlink r:id="rId338" ref="G80"/>
+    <hyperlink r:id="rId339" ref="A81"/>
+    <hyperlink r:id="rId340" ref="C81"/>
+    <hyperlink r:id="rId341" ref="E81"/>
+    <hyperlink r:id="rId342" ref="G81"/>
+    <hyperlink r:id="rId343" ref="A82"/>
+    <hyperlink r:id="rId344" ref="C82"/>
+    <hyperlink r:id="rId345" ref="E82"/>
+    <hyperlink r:id="rId346" ref="G82"/>
+    <hyperlink r:id="rId347" ref="A83"/>
+    <hyperlink r:id="rId348" ref="C83"/>
+    <hyperlink r:id="rId349" ref="E83"/>
+    <hyperlink r:id="rId350" ref="G83"/>
+    <hyperlink r:id="rId351" ref="A84"/>
+    <hyperlink r:id="rId352" ref="C84"/>
+    <hyperlink r:id="rId353" ref="E84"/>
+    <hyperlink r:id="rId354" ref="G84"/>
+    <hyperlink r:id="rId355" ref="A85"/>
+    <hyperlink r:id="rId356" ref="C85"/>
+    <hyperlink r:id="rId357" ref="E85"/>
+    <hyperlink r:id="rId358" ref="G85"/>
+    <hyperlink r:id="rId359" ref="A86"/>
+    <hyperlink r:id="rId360" ref="C86"/>
+    <hyperlink r:id="rId361" ref="E86"/>
+    <hyperlink r:id="rId362" ref="G86"/>
+    <hyperlink r:id="rId363" ref="A87"/>
+    <hyperlink r:id="rId364" ref="C87"/>
+    <hyperlink r:id="rId365" ref="E87"/>
+    <hyperlink r:id="rId366" ref="G87"/>
+    <hyperlink r:id="rId367" ref="A88"/>
+    <hyperlink r:id="rId368" ref="C88"/>
+    <hyperlink r:id="rId369" ref="E88"/>
+    <hyperlink r:id="rId370" ref="G88"/>
+    <hyperlink r:id="rId371" ref="A89"/>
+    <hyperlink r:id="rId372" ref="C89"/>
+    <hyperlink r:id="rId373" ref="E89"/>
+    <hyperlink r:id="rId374" ref="G89"/>
+    <hyperlink r:id="rId375" ref="A90"/>
+    <hyperlink r:id="rId376" ref="C90"/>
+    <hyperlink r:id="rId377" ref="E90"/>
+    <hyperlink r:id="rId378" ref="G90"/>
+    <hyperlink r:id="rId379" ref="A91"/>
+    <hyperlink r:id="rId380" ref="C91"/>
+    <hyperlink r:id="rId381" ref="E91"/>
+    <hyperlink r:id="rId382" ref="F91"/>
+    <hyperlink r:id="rId383" ref="G91"/>
+    <hyperlink r:id="rId384" ref="A92"/>
+    <hyperlink r:id="rId385" ref="C92"/>
+    <hyperlink r:id="rId386" ref="E92"/>
+    <hyperlink r:id="rId387" ref="G92"/>
+    <hyperlink r:id="rId388" ref="A93"/>
+    <hyperlink r:id="rId389" ref="C93"/>
+    <hyperlink r:id="rId390" ref="E93"/>
+    <hyperlink r:id="rId391" ref="G93"/>
+    <hyperlink r:id="rId392" ref="A94"/>
+    <hyperlink r:id="rId393" ref="B94"/>
+    <hyperlink r:id="rId394" ref="C94"/>
+    <hyperlink r:id="rId395" ref="E94"/>
+    <hyperlink r:id="rId396" ref="G94"/>
+    <hyperlink r:id="rId397" ref="A95"/>
+    <hyperlink r:id="rId398" ref="B95"/>
+    <hyperlink r:id="rId399" ref="C95"/>
+    <hyperlink r:id="rId400" ref="E95"/>
+    <hyperlink r:id="rId401" ref="G95"/>
+    <hyperlink r:id="rId402" ref="A96"/>
+    <hyperlink r:id="rId403" ref="C96"/>
+    <hyperlink r:id="rId404" ref="E96"/>
+    <hyperlink r:id="rId405" ref="G96"/>
+    <hyperlink r:id="rId406" ref="A97"/>
+    <hyperlink r:id="rId407" ref="C97"/>
+    <hyperlink r:id="rId408" ref="E97"/>
+    <hyperlink r:id="rId409" ref="G97"/>
+    <hyperlink r:id="rId410" ref="A98"/>
+    <hyperlink r:id="rId411" ref="C98"/>
+    <hyperlink r:id="rId412" ref="E98"/>
+    <hyperlink r:id="rId413" ref="G98"/>
+    <hyperlink r:id="rId414" ref="A99"/>
+    <hyperlink r:id="rId415" ref="C99"/>
+    <hyperlink r:id="rId416" ref="E99"/>
+    <hyperlink r:id="rId417" ref="A100"/>
+    <hyperlink r:id="rId418" ref="C100"/>
+    <hyperlink r:id="rId419" ref="E100"/>
+    <hyperlink r:id="rId420" ref="G100"/>
+    <hyperlink r:id="rId421" ref="A101"/>
+    <hyperlink r:id="rId422" ref="C101"/>
+    <hyperlink r:id="rId423" ref="E101"/>
+    <hyperlink r:id="rId424" ref="G101"/>
+    <hyperlink r:id="rId425" ref="A102"/>
+    <hyperlink r:id="rId426" ref="C102"/>
+    <hyperlink r:id="rId427" ref="E102"/>
+    <hyperlink r:id="rId428" ref="G102"/>
+    <hyperlink r:id="rId429" ref="A103"/>
+    <hyperlink r:id="rId430" ref="C103"/>
+    <hyperlink r:id="rId431" ref="E103"/>
+    <hyperlink r:id="rId432" ref="G103"/>
+    <hyperlink r:id="rId433" ref="A104"/>
+    <hyperlink r:id="rId434" ref="C104"/>
+    <hyperlink r:id="rId435" ref="E104"/>
+    <hyperlink r:id="rId436" ref="G104"/>
+    <hyperlink r:id="rId437" ref="A105"/>
+    <hyperlink r:id="rId438" ref="C105"/>
+    <hyperlink r:id="rId439" ref="E105"/>
+    <hyperlink r:id="rId440" ref="G105"/>
+    <hyperlink r:id="rId441" ref="A106"/>
+    <hyperlink r:id="rId442" ref="C106"/>
+    <hyperlink r:id="rId443" ref="E106"/>
+    <hyperlink r:id="rId444" ref="G106"/>
+    <hyperlink r:id="rId445" ref="A107"/>
+    <hyperlink r:id="rId446" ref="C107"/>
+    <hyperlink r:id="rId447" ref="E107"/>
+    <hyperlink r:id="rId448" ref="G107"/>
+    <hyperlink r:id="rId449" ref="A108"/>
+    <hyperlink r:id="rId450" ref="B108"/>
     <hyperlink r:id="rId451" ref="C108"/>
     <hyperlink r:id="rId452" ref="E108"/>
     <hyperlink r:id="rId453" ref="G108"/>
     <hyperlink r:id="rId454" ref="A109"/>
-    <hyperlink r:id="rId455" ref="C109"/>
-    <hyperlink r:id="rId456" ref="E109"/>
-    <hyperlink r:id="rId457" ref="G109"/>
-    <hyperlink r:id="rId458" ref="A110"/>
-    <hyperlink r:id="rId459" ref="C110"/>
-    <hyperlink r:id="rId460" ref="E110"/>
-    <hyperlink r:id="rId461" ref="F110"/>
-    <hyperlink r:id="rId462" ref="G110"/>
-    <hyperlink r:id="rId463" ref="A111"/>
-    <hyperlink r:id="rId464" ref="C111"/>
-    <hyperlink r:id="rId465" ref="E111"/>
-    <hyperlink r:id="rId466" ref="F111"/>
-    <hyperlink r:id="rId467" ref="G111"/>
-    <hyperlink r:id="rId468" ref="A112"/>
-    <hyperlink r:id="rId469" ref="C112"/>
-    <hyperlink r:id="rId470" ref="E112"/>
-    <hyperlink r:id="rId471" ref="G112"/>
-    <hyperlink r:id="rId472" ref="A113"/>
-    <hyperlink r:id="rId473" ref="C113"/>
-    <hyperlink r:id="rId474" ref="E113"/>
-    <hyperlink r:id="rId475" ref="G113"/>
-    <hyperlink r:id="rId476" ref="A114"/>
-    <hyperlink r:id="rId477" ref="C114"/>
-    <hyperlink r:id="rId478" ref="E114"/>
-    <hyperlink r:id="rId479" ref="G114"/>
-    <hyperlink r:id="rId480" ref="A115"/>
-    <hyperlink r:id="rId481" ref="C115"/>
-    <hyperlink r:id="rId482" ref="E115"/>
-    <hyperlink r:id="rId483" ref="G115"/>
-    <hyperlink r:id="rId484" ref="A116"/>
-    <hyperlink r:id="rId485" ref="C116"/>
-    <hyperlink r:id="rId486" ref="E116"/>
-    <hyperlink r:id="rId487" ref="G116"/>
-    <hyperlink r:id="rId488" ref="A117"/>
-    <hyperlink r:id="rId489" ref="B117"/>
-    <hyperlink r:id="rId490" ref="C117"/>
-    <hyperlink r:id="rId491" ref="E117"/>
-    <hyperlink r:id="rId492" ref="G117"/>
-    <hyperlink r:id="rId493" ref="A118"/>
-    <hyperlink r:id="rId494" ref="C118"/>
-    <hyperlink r:id="rId495" ref="E118"/>
-    <hyperlink r:id="rId496" ref="G118"/>
-    <hyperlink r:id="rId497" ref="A119"/>
-    <hyperlink r:id="rId498" ref="C119"/>
-    <hyperlink r:id="rId499" ref="E119"/>
-    <hyperlink r:id="rId500" ref="G119"/>
-    <hyperlink r:id="rId501" ref="A120"/>
-    <hyperlink r:id="rId502" ref="C120"/>
-    <hyperlink r:id="rId503" ref="E120"/>
-    <hyperlink r:id="rId504" ref="G120"/>
-    <hyperlink r:id="rId505" ref="A121"/>
-    <hyperlink r:id="rId506" ref="C121"/>
-    <hyperlink r:id="rId507" ref="E121"/>
-    <hyperlink r:id="rId508" ref="G121"/>
-    <hyperlink r:id="rId509" ref="A122"/>
-    <hyperlink r:id="rId510" ref="B122"/>
-    <hyperlink r:id="rId511" ref="C122"/>
-    <hyperlink r:id="rId512" ref="E122"/>
-    <hyperlink r:id="rId513" ref="G122"/>
-    <hyperlink r:id="rId514" ref="A123"/>
-    <hyperlink r:id="rId515" ref="C123"/>
-    <hyperlink r:id="rId516" ref="E123"/>
-    <hyperlink r:id="rId517" ref="G123"/>
-    <hyperlink r:id="rId518" ref="A124"/>
-    <hyperlink r:id="rId519" ref="C124"/>
-    <hyperlink r:id="rId520" ref="E124"/>
-    <hyperlink r:id="rId521" ref="G124"/>
-    <hyperlink r:id="rId522" ref="A125"/>
-    <hyperlink r:id="rId523" ref="C125"/>
-    <hyperlink r:id="rId524" ref="E125"/>
-    <hyperlink r:id="rId525" ref="G125"/>
-    <hyperlink r:id="rId526" ref="A126"/>
-    <hyperlink r:id="rId527" ref="C126"/>
-    <hyperlink r:id="rId528" ref="E126"/>
-    <hyperlink r:id="rId529" ref="G126"/>
-    <hyperlink r:id="rId530" ref="A127"/>
-    <hyperlink r:id="rId531" ref="C127"/>
-    <hyperlink r:id="rId532" ref="A128"/>
-    <hyperlink r:id="rId533" ref="C128"/>
-    <hyperlink r:id="rId534" ref="A129"/>
-    <hyperlink r:id="rId535" ref="C129"/>
-    <hyperlink r:id="rId536" ref="A130"/>
-    <hyperlink r:id="rId537" ref="C130"/>
-    <hyperlink r:id="rId538" ref="A131"/>
-    <hyperlink r:id="rId539" ref="C131"/>
-    <hyperlink r:id="rId540" ref="A132"/>
-    <hyperlink r:id="rId541" ref="C132"/>
-    <hyperlink r:id="rId542" ref="A133"/>
-    <hyperlink r:id="rId543" ref="C133"/>
-    <hyperlink r:id="rId544" ref="A134"/>
-    <hyperlink r:id="rId545" ref="B134"/>
-    <hyperlink r:id="rId546" ref="C134"/>
-    <hyperlink r:id="rId547" ref="A135"/>
-    <hyperlink r:id="rId548" ref="B135"/>
-    <hyperlink r:id="rId549" ref="C135"/>
-    <hyperlink r:id="rId550" ref="A136"/>
-    <hyperlink r:id="rId551" ref="C136"/>
-    <hyperlink r:id="rId552" ref="A137"/>
-    <hyperlink r:id="rId553" ref="C137"/>
-    <hyperlink r:id="rId554" ref="A138"/>
-    <hyperlink r:id="rId555" ref="C138"/>
-    <hyperlink r:id="rId556" ref="A139"/>
-    <hyperlink r:id="rId557" ref="C139"/>
-    <hyperlink r:id="rId558" ref="A140"/>
-    <hyperlink r:id="rId559" ref="C140"/>
-    <hyperlink r:id="rId560" ref="A141"/>
-    <hyperlink r:id="rId561" ref="C141"/>
-    <hyperlink r:id="rId562" ref="A142"/>
-    <hyperlink r:id="rId563" ref="C142"/>
-    <hyperlink r:id="rId564" ref="A143"/>
-    <hyperlink r:id="rId565" ref="C143"/>
-    <hyperlink r:id="rId566" ref="A144"/>
-    <hyperlink r:id="rId567" ref="C144"/>
-    <hyperlink r:id="rId568" ref="A145"/>
-    <hyperlink r:id="rId569" ref="C145"/>
-    <hyperlink r:id="rId570" ref="A146"/>
-    <hyperlink r:id="rId571" ref="C146"/>
-    <hyperlink r:id="rId572" ref="A147"/>
-    <hyperlink r:id="rId573" ref="C147"/>
-    <hyperlink r:id="rId574" ref="A148"/>
-    <hyperlink r:id="rId575" ref="C148"/>
-    <hyperlink r:id="rId576" ref="A149"/>
-    <hyperlink r:id="rId577" ref="C149"/>
-    <hyperlink r:id="rId578" ref="A150"/>
-    <hyperlink r:id="rId579" ref="C150"/>
-    <hyperlink r:id="rId580" ref="A151"/>
-    <hyperlink r:id="rId581" ref="C151"/>
-    <hyperlink r:id="rId582" ref="A152"/>
-    <hyperlink r:id="rId583" ref="C152"/>
-    <hyperlink r:id="rId584" ref="A153"/>
-    <hyperlink r:id="rId585" ref="B153"/>
-    <hyperlink r:id="rId586" ref="C153"/>
-    <hyperlink r:id="rId587" ref="A154"/>
-    <hyperlink r:id="rId588" ref="C154"/>
-    <hyperlink r:id="rId589" ref="A155"/>
-    <hyperlink r:id="rId590" ref="C155"/>
-    <hyperlink r:id="rId591" ref="A156"/>
-    <hyperlink r:id="rId592" ref="B156"/>
-    <hyperlink r:id="rId593" ref="C156"/>
-    <hyperlink r:id="rId594" ref="A157"/>
-    <hyperlink r:id="rId595" ref="B157"/>
-    <hyperlink r:id="rId596" ref="C157"/>
-    <hyperlink r:id="rId597" ref="A158"/>
-    <hyperlink r:id="rId598" ref="C158"/>
-    <hyperlink r:id="rId599" ref="A159"/>
-    <hyperlink r:id="rId600" ref="B159"/>
-    <hyperlink r:id="rId601" ref="C159"/>
-    <hyperlink r:id="rId602" ref="A160"/>
-    <hyperlink r:id="rId603" ref="C160"/>
-    <hyperlink r:id="rId604" ref="A161"/>
-    <hyperlink r:id="rId605" ref="C161"/>
-    <hyperlink r:id="rId606" ref="A162"/>
-    <hyperlink r:id="rId607" ref="C162"/>
-    <hyperlink r:id="rId608" ref="A163"/>
-    <hyperlink r:id="rId609" ref="C163"/>
-    <hyperlink r:id="rId610" ref="A164"/>
-    <hyperlink r:id="rId611" ref="C164"/>
-    <hyperlink r:id="rId612" ref="A165"/>
-    <hyperlink r:id="rId613" ref="C165"/>
-    <hyperlink r:id="rId614" ref="A166"/>
-    <hyperlink r:id="rId615" ref="C166"/>
-    <hyperlink r:id="rId616" ref="A167"/>
-    <hyperlink r:id="rId617" ref="C167"/>
-    <hyperlink r:id="rId618" ref="A168"/>
-    <hyperlink r:id="rId619" ref="C168"/>
-    <hyperlink r:id="rId620" ref="A169"/>
-    <hyperlink r:id="rId621" ref="C169"/>
-    <hyperlink r:id="rId622" ref="A170"/>
-    <hyperlink r:id="rId623" ref="C170"/>
-    <hyperlink r:id="rId624" ref="A171"/>
-    <hyperlink r:id="rId625" ref="C171"/>
-    <hyperlink r:id="rId626" ref="A172"/>
-    <hyperlink r:id="rId627" ref="C172"/>
-    <hyperlink r:id="rId628" ref="A173"/>
-    <hyperlink r:id="rId629" ref="C173"/>
-    <hyperlink r:id="rId630" ref="A174"/>
-    <hyperlink r:id="rId631" ref="C174"/>
-    <hyperlink r:id="rId632" ref="A175"/>
-    <hyperlink r:id="rId633" ref="C175"/>
-    <hyperlink r:id="rId634" ref="A176"/>
-    <hyperlink r:id="rId635" ref="C176"/>
-    <hyperlink r:id="rId636" ref="A177"/>
-    <hyperlink r:id="rId637" ref="C177"/>
-    <hyperlink r:id="rId638" ref="A178"/>
-    <hyperlink r:id="rId639" ref="C178"/>
-    <hyperlink r:id="rId640" ref="A179"/>
-    <hyperlink r:id="rId641" ref="C179"/>
-    <hyperlink r:id="rId642" ref="A180"/>
-    <hyperlink r:id="rId643" ref="C180"/>
-    <hyperlink r:id="rId644" ref="A181"/>
-    <hyperlink r:id="rId645" ref="C181"/>
-    <hyperlink r:id="rId646" ref="A182"/>
-    <hyperlink r:id="rId647" ref="C182"/>
-    <hyperlink r:id="rId648" ref="A183"/>
-    <hyperlink r:id="rId649" ref="C183"/>
-    <hyperlink r:id="rId650" ref="A184"/>
-    <hyperlink r:id="rId651" ref="C184"/>
-    <hyperlink r:id="rId652" ref="A185"/>
-    <hyperlink r:id="rId653" ref="C185"/>
-    <hyperlink r:id="rId654" ref="A186"/>
-    <hyperlink r:id="rId655" ref="C186"/>
-    <hyperlink r:id="rId656" ref="A187"/>
-    <hyperlink r:id="rId657" ref="C187"/>
-    <hyperlink r:id="rId658" ref="A188"/>
-    <hyperlink r:id="rId659" ref="C188"/>
-    <hyperlink r:id="rId660" ref="A189"/>
-    <hyperlink r:id="rId661" ref="C189"/>
-    <hyperlink r:id="rId662" ref="A190"/>
-    <hyperlink r:id="rId663" ref="C190"/>
-    <hyperlink r:id="rId664" ref="A191"/>
-    <hyperlink r:id="rId665" ref="C191"/>
-    <hyperlink r:id="rId666" ref="A192"/>
-    <hyperlink r:id="rId667" ref="C192"/>
-    <hyperlink r:id="rId668" ref="A193"/>
-    <hyperlink r:id="rId669" ref="C193"/>
-    <hyperlink r:id="rId670" ref="A195"/>
-    <hyperlink r:id="rId671" ref="C195"/>
-    <hyperlink r:id="rId672" ref="A196"/>
-    <hyperlink r:id="rId673" ref="C196"/>
-    <hyperlink r:id="rId674" ref="A197"/>
-    <hyperlink r:id="rId675" ref="C197"/>
-    <hyperlink r:id="rId676" ref="A198"/>
-    <hyperlink r:id="rId677" ref="C198"/>
-    <hyperlink r:id="rId678" ref="A199"/>
-    <hyperlink r:id="rId679" ref="C199"/>
-    <hyperlink r:id="rId680" ref="A200"/>
-    <hyperlink r:id="rId681" ref="C200"/>
-    <hyperlink r:id="rId682" ref="A201"/>
-    <hyperlink r:id="rId683" ref="C201"/>
-    <hyperlink r:id="rId684" ref="A202"/>
-    <hyperlink r:id="rId685" ref="C202"/>
-    <hyperlink r:id="rId686" ref="A203"/>
-    <hyperlink r:id="rId687" ref="C203"/>
-    <hyperlink r:id="rId688" ref="A204"/>
-    <hyperlink r:id="rId689" ref="C204"/>
-    <hyperlink r:id="rId690" ref="A205"/>
-    <hyperlink r:id="rId691" ref="C205"/>
-    <hyperlink r:id="rId692" ref="A206"/>
-    <hyperlink r:id="rId693" ref="C206"/>
-    <hyperlink r:id="rId694" ref="A207"/>
-    <hyperlink r:id="rId695" ref="C207"/>
-    <hyperlink r:id="rId696" ref="A208"/>
-    <hyperlink r:id="rId697" ref="C208"/>
-    <hyperlink r:id="rId698" ref="A209"/>
-    <hyperlink r:id="rId699" ref="C209"/>
-    <hyperlink r:id="rId700" ref="A210"/>
-    <hyperlink r:id="rId701" ref="C210"/>
-    <hyperlink r:id="rId702" ref="A211"/>
-    <hyperlink r:id="rId703" ref="C211"/>
-    <hyperlink r:id="rId704" ref="A212"/>
-    <hyperlink r:id="rId705" ref="C212"/>
-    <hyperlink r:id="rId706" ref="A213"/>
-    <hyperlink r:id="rId707" ref="C213"/>
-    <hyperlink r:id="rId708" ref="A214"/>
-    <hyperlink r:id="rId709" ref="C214"/>
-    <hyperlink r:id="rId710" ref="A215"/>
-    <hyperlink r:id="rId711" ref="C215"/>
-    <hyperlink r:id="rId712" ref="A216"/>
-    <hyperlink r:id="rId713" ref="C216"/>
-    <hyperlink r:id="rId714" ref="A217"/>
-    <hyperlink r:id="rId715" ref="C217"/>
-    <hyperlink r:id="rId716" ref="A218"/>
-    <hyperlink r:id="rId717" ref="C218"/>
-    <hyperlink r:id="rId718" ref="A219"/>
-    <hyperlink r:id="rId719" ref="C219"/>
-    <hyperlink r:id="rId720" ref="A220"/>
-    <hyperlink r:id="rId721" ref="C220"/>
-    <hyperlink r:id="rId722" ref="A221"/>
-    <hyperlink r:id="rId723" ref="C221"/>
-    <hyperlink r:id="rId724" ref="A222"/>
-    <hyperlink r:id="rId725" ref="C222"/>
-    <hyperlink r:id="rId726" ref="A223"/>
-    <hyperlink r:id="rId727" ref="C223"/>
-    <hyperlink r:id="rId728" ref="A224"/>
-    <hyperlink r:id="rId729" ref="C224"/>
+    <hyperlink r:id="rId455" ref="B109"/>
+    <hyperlink r:id="rId456" ref="C109"/>
+    <hyperlink r:id="rId457" ref="E109"/>
+    <hyperlink r:id="rId458" ref="G109"/>
+    <hyperlink r:id="rId459" ref="A110"/>
+    <hyperlink r:id="rId460" ref="B110"/>
+    <hyperlink r:id="rId461" ref="C110"/>
+    <hyperlink r:id="rId462" ref="E110"/>
+    <hyperlink r:id="rId463" ref="F110"/>
+    <hyperlink r:id="rId464" ref="G110"/>
+    <hyperlink r:id="rId465" ref="A111"/>
+    <hyperlink r:id="rId466" ref="C111"/>
+    <hyperlink r:id="rId467" ref="E111"/>
+    <hyperlink r:id="rId468" ref="F111"/>
+    <hyperlink r:id="rId469" ref="G111"/>
+    <hyperlink r:id="rId470" ref="A112"/>
+    <hyperlink r:id="rId471" ref="B112"/>
+    <hyperlink r:id="rId472" ref="C112"/>
+    <hyperlink r:id="rId473" ref="E112"/>
+    <hyperlink r:id="rId474" ref="G112"/>
+    <hyperlink r:id="rId475" ref="A113"/>
+    <hyperlink r:id="rId476" ref="C113"/>
+    <hyperlink r:id="rId477" ref="E113"/>
+    <hyperlink r:id="rId478" ref="G113"/>
+    <hyperlink r:id="rId479" ref="A114"/>
+    <hyperlink r:id="rId480" ref="C114"/>
+    <hyperlink r:id="rId481" ref="E114"/>
+    <hyperlink r:id="rId482" ref="G114"/>
+    <hyperlink r:id="rId483" ref="A115"/>
+    <hyperlink r:id="rId484" ref="C115"/>
+    <hyperlink r:id="rId485" ref="E115"/>
+    <hyperlink r:id="rId486" ref="G115"/>
+    <hyperlink r:id="rId487" ref="A116"/>
+    <hyperlink r:id="rId488" ref="C116"/>
+    <hyperlink r:id="rId489" ref="E116"/>
+    <hyperlink r:id="rId490" ref="G116"/>
+    <hyperlink r:id="rId491" ref="A117"/>
+    <hyperlink r:id="rId492" ref="B117"/>
+    <hyperlink r:id="rId493" ref="C117"/>
+    <hyperlink r:id="rId494" ref="E117"/>
+    <hyperlink r:id="rId495" ref="G117"/>
+    <hyperlink r:id="rId496" ref="A118"/>
+    <hyperlink r:id="rId497" ref="C118"/>
+    <hyperlink r:id="rId498" ref="E118"/>
+    <hyperlink r:id="rId499" ref="G118"/>
+    <hyperlink r:id="rId500" ref="A119"/>
+    <hyperlink r:id="rId501" ref="C119"/>
+    <hyperlink r:id="rId502" ref="E119"/>
+    <hyperlink r:id="rId503" ref="G119"/>
+    <hyperlink r:id="rId504" ref="A120"/>
+    <hyperlink r:id="rId505" ref="C120"/>
+    <hyperlink r:id="rId506" ref="E120"/>
+    <hyperlink r:id="rId507" ref="G120"/>
+    <hyperlink r:id="rId508" ref="A121"/>
+    <hyperlink r:id="rId509" ref="C121"/>
+    <hyperlink r:id="rId510" ref="E121"/>
+    <hyperlink r:id="rId511" ref="G121"/>
+    <hyperlink r:id="rId512" ref="A122"/>
+    <hyperlink r:id="rId513" ref="B122"/>
+    <hyperlink r:id="rId514" ref="C122"/>
+    <hyperlink r:id="rId515" ref="E122"/>
+    <hyperlink r:id="rId516" ref="G122"/>
+    <hyperlink r:id="rId517" ref="A123"/>
+    <hyperlink r:id="rId518" ref="C123"/>
+    <hyperlink r:id="rId519" ref="E123"/>
+    <hyperlink r:id="rId520" ref="G123"/>
+    <hyperlink r:id="rId521" ref="A124"/>
+    <hyperlink r:id="rId522" ref="C124"/>
+    <hyperlink r:id="rId523" ref="E124"/>
+    <hyperlink r:id="rId524" ref="G124"/>
+    <hyperlink r:id="rId525" ref="A125"/>
+    <hyperlink r:id="rId526" ref="C125"/>
+    <hyperlink r:id="rId527" ref="E125"/>
+    <hyperlink r:id="rId528" ref="G125"/>
+    <hyperlink r:id="rId529" ref="A126"/>
+    <hyperlink r:id="rId530" ref="C126"/>
+    <hyperlink r:id="rId531" ref="E126"/>
+    <hyperlink r:id="rId532" ref="G126"/>
+    <hyperlink r:id="rId533" ref="A127"/>
+    <hyperlink r:id="rId534" ref="C127"/>
+    <hyperlink r:id="rId535" ref="A128"/>
+    <hyperlink r:id="rId536" ref="C128"/>
+    <hyperlink r:id="rId537" ref="A129"/>
+    <hyperlink r:id="rId538" ref="C129"/>
+    <hyperlink r:id="rId539" ref="A130"/>
+    <hyperlink r:id="rId540" ref="C130"/>
+    <hyperlink r:id="rId541" ref="A131"/>
+    <hyperlink r:id="rId542" ref="C131"/>
+    <hyperlink r:id="rId543" ref="A132"/>
+    <hyperlink r:id="rId544" ref="B132"/>
+    <hyperlink r:id="rId545" ref="C132"/>
+    <hyperlink r:id="rId546" ref="A133"/>
+    <hyperlink r:id="rId547" ref="C133"/>
+    <hyperlink r:id="rId548" ref="A134"/>
+    <hyperlink r:id="rId549" ref="B134"/>
+    <hyperlink r:id="rId550" ref="C134"/>
+    <hyperlink r:id="rId551" ref="A135"/>
+    <hyperlink r:id="rId552" ref="B135"/>
+    <hyperlink r:id="rId553" ref="C135"/>
+    <hyperlink r:id="rId554" ref="A136"/>
+    <hyperlink r:id="rId555" ref="C136"/>
+    <hyperlink r:id="rId556" ref="A137"/>
+    <hyperlink r:id="rId557" ref="C137"/>
+    <hyperlink r:id="rId558" ref="A138"/>
+    <hyperlink r:id="rId559" ref="C138"/>
+    <hyperlink r:id="rId560" ref="A139"/>
+    <hyperlink r:id="rId561" ref="C139"/>
+    <hyperlink r:id="rId562" ref="A140"/>
+    <hyperlink r:id="rId563" ref="C140"/>
+    <hyperlink r:id="rId564" ref="A141"/>
+    <hyperlink r:id="rId565" ref="C141"/>
+    <hyperlink r:id="rId566" ref="A142"/>
+    <hyperlink r:id="rId567" ref="C142"/>
+    <hyperlink r:id="rId568" ref="A143"/>
+    <hyperlink r:id="rId569" ref="C143"/>
+    <hyperlink r:id="rId570" ref="A144"/>
+    <hyperlink r:id="rId571" ref="C144"/>
+    <hyperlink r:id="rId572" ref="A145"/>
+    <hyperlink r:id="rId573" ref="C145"/>
+    <hyperlink r:id="rId574" ref="A146"/>
+    <hyperlink r:id="rId575" ref="C146"/>
+    <hyperlink r:id="rId576" ref="A147"/>
+    <hyperlink r:id="rId577" ref="C147"/>
+    <hyperlink r:id="rId578" ref="A148"/>
+    <hyperlink r:id="rId579" ref="C148"/>
+    <hyperlink r:id="rId580" ref="A149"/>
+    <hyperlink r:id="rId581" ref="C149"/>
+    <hyperlink r:id="rId582" ref="A150"/>
+    <hyperlink r:id="rId583" ref="C150"/>
+    <hyperlink r:id="rId584" ref="A151"/>
+    <hyperlink r:id="rId585" ref="C151"/>
+    <hyperlink r:id="rId586" ref="A152"/>
+    <hyperlink r:id="rId587" ref="C152"/>
+    <hyperlink r:id="rId588" ref="A153"/>
+    <hyperlink r:id="rId589" ref="B153"/>
+    <hyperlink r:id="rId590" ref="C153"/>
+    <hyperlink r:id="rId591" ref="A154"/>
+    <hyperlink r:id="rId592" ref="C154"/>
+    <hyperlink r:id="rId593" ref="A155"/>
+    <hyperlink r:id="rId594" ref="C155"/>
+    <hyperlink r:id="rId595" ref="A156"/>
+    <hyperlink r:id="rId596" ref="B156"/>
+    <hyperlink r:id="rId597" ref="C156"/>
+    <hyperlink r:id="rId598" ref="A157"/>
+    <hyperlink r:id="rId599" ref="B157"/>
+    <hyperlink r:id="rId600" ref="C157"/>
+    <hyperlink r:id="rId601" ref="A158"/>
+    <hyperlink r:id="rId602" ref="B158"/>
+    <hyperlink r:id="rId603" ref="C158"/>
+    <hyperlink r:id="rId604" ref="A159"/>
+    <hyperlink r:id="rId605" ref="B159"/>
+    <hyperlink r:id="rId606" ref="C159"/>
+    <hyperlink r:id="rId607" ref="A160"/>
+    <hyperlink r:id="rId608" ref="C160"/>
+    <hyperlink r:id="rId609" ref="A161"/>
+    <hyperlink r:id="rId610" ref="C161"/>
+    <hyperlink r:id="rId611" ref="A162"/>
+    <hyperlink r:id="rId612" ref="C162"/>
+    <hyperlink r:id="rId613" ref="A163"/>
+    <hyperlink r:id="rId614" ref="C163"/>
+    <hyperlink r:id="rId615" ref="A164"/>
+    <hyperlink r:id="rId616" ref="C164"/>
+    <hyperlink r:id="rId617" ref="A165"/>
+    <hyperlink r:id="rId618" ref="B165"/>
+    <hyperlink r:id="rId619" ref="C165"/>
+    <hyperlink r:id="rId620" ref="A166"/>
+    <hyperlink r:id="rId621" ref="B166"/>
+    <hyperlink r:id="rId622" ref="C166"/>
+    <hyperlink r:id="rId623" ref="A167"/>
+    <hyperlink r:id="rId624" ref="C167"/>
+    <hyperlink r:id="rId625" ref="A168"/>
+    <hyperlink r:id="rId626" ref="B168"/>
+    <hyperlink r:id="rId627" ref="C168"/>
+    <hyperlink r:id="rId628" ref="A169"/>
+    <hyperlink r:id="rId629" ref="C169"/>
+    <hyperlink r:id="rId630" ref="A170"/>
+    <hyperlink r:id="rId631" ref="C170"/>
+    <hyperlink r:id="rId632" ref="A171"/>
+    <hyperlink r:id="rId633" ref="C171"/>
+    <hyperlink r:id="rId634" ref="A172"/>
+    <hyperlink r:id="rId635" ref="C172"/>
+    <hyperlink r:id="rId636" ref="A173"/>
+    <hyperlink r:id="rId637" ref="C173"/>
+    <hyperlink r:id="rId638" ref="A174"/>
+    <hyperlink r:id="rId639" ref="C174"/>
+    <hyperlink r:id="rId640" ref="A175"/>
+    <hyperlink r:id="rId641" ref="C175"/>
+    <hyperlink r:id="rId642" ref="A176"/>
+    <hyperlink r:id="rId643" ref="B176"/>
+    <hyperlink r:id="rId644" ref="C176"/>
+    <hyperlink r:id="rId645" ref="A177"/>
+    <hyperlink r:id="rId646" ref="C177"/>
+    <hyperlink r:id="rId647" ref="A178"/>
+    <hyperlink r:id="rId648" ref="C178"/>
+    <hyperlink r:id="rId649" ref="A179"/>
+    <hyperlink r:id="rId650" ref="C179"/>
+    <hyperlink r:id="rId651" ref="A180"/>
+    <hyperlink r:id="rId652" ref="B180"/>
+    <hyperlink r:id="rId653" ref="C180"/>
+    <hyperlink r:id="rId654" ref="A181"/>
+    <hyperlink r:id="rId655" ref="C181"/>
+    <hyperlink r:id="rId656" ref="A182"/>
+    <hyperlink r:id="rId657" ref="B182"/>
+    <hyperlink r:id="rId658" ref="C182"/>
+    <hyperlink r:id="rId659" ref="A183"/>
+    <hyperlink r:id="rId660" ref="B183"/>
+    <hyperlink r:id="rId661" ref="C183"/>
+    <hyperlink r:id="rId662" ref="A184"/>
+    <hyperlink r:id="rId663" ref="C184"/>
+    <hyperlink r:id="rId664" ref="A185"/>
+    <hyperlink r:id="rId665" ref="C185"/>
+    <hyperlink r:id="rId666" ref="A186"/>
+    <hyperlink r:id="rId667" ref="C186"/>
+    <hyperlink r:id="rId668" ref="A187"/>
+    <hyperlink r:id="rId669" ref="C187"/>
+    <hyperlink r:id="rId670" ref="A188"/>
+    <hyperlink r:id="rId671" ref="C188"/>
+    <hyperlink r:id="rId672" ref="A189"/>
+    <hyperlink r:id="rId673" ref="C189"/>
+    <hyperlink r:id="rId674" ref="A190"/>
+    <hyperlink r:id="rId675" ref="C190"/>
+    <hyperlink r:id="rId676" ref="A191"/>
+    <hyperlink r:id="rId677" ref="B191"/>
+    <hyperlink r:id="rId678" ref="C191"/>
+    <hyperlink r:id="rId679" ref="A193"/>
+    <hyperlink r:id="rId680" ref="C193"/>
+    <hyperlink r:id="rId681" ref="A195"/>
+    <hyperlink r:id="rId682" ref="C195"/>
+    <hyperlink r:id="rId683" ref="A196"/>
+    <hyperlink r:id="rId684" ref="C196"/>
+    <hyperlink r:id="rId685" ref="A197"/>
+    <hyperlink r:id="rId686" ref="C197"/>
+    <hyperlink r:id="rId687" ref="A198"/>
+    <hyperlink r:id="rId688" ref="C198"/>
+    <hyperlink r:id="rId689" ref="A199"/>
+    <hyperlink r:id="rId690" ref="C199"/>
+    <hyperlink r:id="rId691" ref="A200"/>
+    <hyperlink r:id="rId692" ref="C200"/>
+    <hyperlink r:id="rId693" ref="A201"/>
+    <hyperlink r:id="rId694" ref="C201"/>
+    <hyperlink r:id="rId695" ref="A202"/>
+    <hyperlink r:id="rId696" ref="C202"/>
+    <hyperlink r:id="rId697" ref="A203"/>
+    <hyperlink r:id="rId698" ref="B203"/>
+    <hyperlink r:id="rId699" ref="C203"/>
+    <hyperlink r:id="rId700" ref="A204"/>
+    <hyperlink r:id="rId701" ref="C204"/>
+    <hyperlink r:id="rId702" ref="A205"/>
+    <hyperlink r:id="rId703" ref="C205"/>
+    <hyperlink r:id="rId704" ref="A206"/>
+    <hyperlink r:id="rId705" ref="C206"/>
+    <hyperlink r:id="rId706" ref="A207"/>
+    <hyperlink r:id="rId707" ref="C207"/>
+    <hyperlink r:id="rId708" ref="A208"/>
+    <hyperlink r:id="rId709" ref="C208"/>
+    <hyperlink r:id="rId710" ref="A209"/>
+    <hyperlink r:id="rId711" ref="C209"/>
+    <hyperlink r:id="rId712" ref="A210"/>
+    <hyperlink r:id="rId713" ref="C210"/>
+    <hyperlink r:id="rId714" ref="A211"/>
+    <hyperlink r:id="rId715" ref="C211"/>
+    <hyperlink r:id="rId716" ref="A212"/>
+    <hyperlink r:id="rId717" ref="C212"/>
+    <hyperlink r:id="rId718" ref="A213"/>
+    <hyperlink r:id="rId719" ref="C213"/>
+    <hyperlink r:id="rId720" ref="A214"/>
+    <hyperlink r:id="rId721" ref="C214"/>
+    <hyperlink r:id="rId722" ref="A215"/>
+    <hyperlink r:id="rId723" ref="C215"/>
+    <hyperlink r:id="rId724" ref="A216"/>
+    <hyperlink r:id="rId725" ref="C216"/>
+    <hyperlink r:id="rId726" ref="A217"/>
+    <hyperlink r:id="rId727" ref="C217"/>
+    <hyperlink r:id="rId728" ref="A218"/>
+    <hyperlink r:id="rId729" ref="C218"/>
+    <hyperlink r:id="rId730" ref="A219"/>
+    <hyperlink r:id="rId731" ref="B219"/>
+    <hyperlink r:id="rId732" ref="C219"/>
+    <hyperlink r:id="rId733" ref="A220"/>
+    <hyperlink r:id="rId734" ref="C220"/>
+    <hyperlink r:id="rId735" ref="A221"/>
+    <hyperlink r:id="rId736" ref="C221"/>
+    <hyperlink r:id="rId737" ref="A222"/>
+    <hyperlink r:id="rId738" ref="C222"/>
+    <hyperlink r:id="rId739" ref="A223"/>
+    <hyperlink r:id="rId740" ref="B223"/>
+    <hyperlink r:id="rId741" ref="C223"/>
+    <hyperlink r:id="rId742" ref="A224"/>
+    <hyperlink r:id="rId743" ref="B224"/>
+    <hyperlink r:id="rId744" ref="C224"/>
+    <hyperlink r:id="rId745" ref="A225"/>
+    <hyperlink r:id="rId746" ref="C225"/>
+    <hyperlink r:id="rId747" ref="A226"/>
+    <hyperlink r:id="rId748" ref="C226"/>
+    <hyperlink r:id="rId749" ref="A227"/>
+    <hyperlink r:id="rId750" ref="C227"/>
+    <hyperlink r:id="rId751" ref="A228"/>
+    <hyperlink r:id="rId752" ref="C228"/>
+    <hyperlink r:id="rId753" ref="A229"/>
+    <hyperlink r:id="rId754" ref="C229"/>
+    <hyperlink r:id="rId755" ref="A230"/>
+    <hyperlink r:id="rId756" ref="C230"/>
+    <hyperlink r:id="rId757" ref="A231"/>
+    <hyperlink r:id="rId758" ref="C231"/>
+    <hyperlink r:id="rId759" ref="A232"/>
+    <hyperlink r:id="rId760" ref="B232"/>
+    <hyperlink r:id="rId761" ref="C232"/>
+    <hyperlink r:id="rId762" ref="A233"/>
+    <hyperlink r:id="rId763" ref="C233"/>
+    <hyperlink r:id="rId764" ref="A234"/>
+    <hyperlink r:id="rId765" ref="B234"/>
+    <hyperlink r:id="rId766" ref="C234"/>
+    <hyperlink r:id="rId767" ref="A235"/>
+    <hyperlink r:id="rId768" ref="C235"/>
+    <hyperlink r:id="rId769" ref="A236"/>
+    <hyperlink r:id="rId770" ref="C236"/>
+    <hyperlink r:id="rId771" ref="A237"/>
+    <hyperlink r:id="rId772" ref="C237"/>
+    <hyperlink r:id="rId773" ref="A238"/>
+    <hyperlink r:id="rId774" ref="C238"/>
+    <hyperlink r:id="rId775" ref="A239"/>
+    <hyperlink r:id="rId776" ref="C239"/>
+    <hyperlink r:id="rId777" ref="A240"/>
+    <hyperlink r:id="rId778" ref="C240"/>
+    <hyperlink r:id="rId779" ref="A241"/>
+    <hyperlink r:id="rId780" ref="C241"/>
+    <hyperlink r:id="rId781" ref="A242"/>
+    <hyperlink r:id="rId782" ref="C242"/>
+    <hyperlink r:id="rId783" ref="A243"/>
+    <hyperlink r:id="rId784" ref="C243"/>
+    <hyperlink r:id="rId785" ref="A244"/>
+    <hyperlink r:id="rId786" ref="C244"/>
+    <hyperlink r:id="rId787" ref="A245"/>
+    <hyperlink r:id="rId788" ref="C245"/>
+    <hyperlink r:id="rId789" ref="A246"/>
+    <hyperlink r:id="rId790" ref="C246"/>
+    <hyperlink r:id="rId791" ref="A247"/>
+    <hyperlink r:id="rId792" ref="C247"/>
+    <hyperlink r:id="rId793" ref="A248"/>
+    <hyperlink r:id="rId794" ref="C248"/>
+    <hyperlink r:id="rId795" ref="A249"/>
+    <hyperlink r:id="rId796" ref="B249"/>
+    <hyperlink r:id="rId797" ref="C249"/>
+    <hyperlink r:id="rId798" ref="A250"/>
+    <hyperlink r:id="rId799" ref="C250"/>
+    <hyperlink r:id="rId800" ref="A251"/>
+    <hyperlink r:id="rId801" ref="C251"/>
+    <hyperlink r:id="rId802" ref="A252"/>
+    <hyperlink r:id="rId803" ref="C252"/>
+    <hyperlink r:id="rId804" ref="A253"/>
+    <hyperlink r:id="rId805" ref="C253"/>
+    <hyperlink r:id="rId806" ref="A254"/>
+    <hyperlink r:id="rId807" ref="C254"/>
+    <hyperlink r:id="rId808" ref="A255"/>
+    <hyperlink r:id="rId809" ref="C255"/>
+    <hyperlink r:id="rId810" ref="A256"/>
+    <hyperlink r:id="rId811" ref="C256"/>
+    <hyperlink r:id="rId812" ref="A257"/>
+    <hyperlink r:id="rId813" ref="C257"/>
+    <hyperlink r:id="rId814" ref="A258"/>
+    <hyperlink r:id="rId815" ref="B258"/>
+    <hyperlink r:id="rId816" ref="C258"/>
+    <hyperlink r:id="rId817" ref="A259"/>
+    <hyperlink r:id="rId818" ref="C259"/>
+    <hyperlink r:id="rId819" ref="A260"/>
+    <hyperlink r:id="rId820" ref="C260"/>
+    <hyperlink r:id="rId821" ref="A261"/>
+    <hyperlink r:id="rId822" ref="C261"/>
+    <hyperlink r:id="rId823" ref="A262"/>
+    <hyperlink r:id="rId824" ref="C262"/>
+    <hyperlink r:id="rId825" ref="A263"/>
+    <hyperlink r:id="rId826" ref="C263"/>
+    <hyperlink r:id="rId827" ref="A264"/>
+    <hyperlink r:id="rId828" ref="C264"/>
+    <hyperlink r:id="rId829" ref="G274"/>
+    <hyperlink r:id="rId830" ref="G275"/>
   </hyperlinks>
-  <drawing r:id="rId730"/>
-  <legacyDrawing r:id="rId731"/>
+  <drawing r:id="rId831"/>
+  <legacyDrawing r:id="rId832"/>
 </worksheet>
 </file>
 
@@ -9658,215 +10532,272 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="46"/>
-      <c r="C1" s="47" t="s">
-        <v>743</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="47" t="s">
+      <c r="A1" s="41"/>
+      <c r="C1" s="42" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="47" t="s">
-        <v>744</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>745</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>746</v>
+      <c r="A2" s="42" t="s">
+        <v>847</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>848</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="49" t="s">
-        <v>747</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>748</v>
+      <c r="C3" s="44" t="s">
+        <v>850</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="50" t="s">
-        <v>749</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>750</v>
+      <c r="C4" s="45" t="s">
+        <v>852</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="46" t="s">
-        <v>751</v>
+      <c r="A6" s="41" t="s">
+        <v>854</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>752</v>
+        <v>855</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>753</v>
+        <v>856</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="51" t="s">
-        <v>754</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>748</v>
+      <c r="C7" s="46" t="s">
+        <v>857</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="52" t="s">
-        <v>755</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>750</v>
+      <c r="C8" s="47" t="s">
+        <v>858</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="30"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10">
-      <c r="A10" s="46" t="s">
-        <v>756</v>
+      <c r="A10" s="41" t="s">
+        <v>859</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>757</v>
+        <v>860</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>753</v>
+        <v>856</v>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="51" t="s">
-        <v>754</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>748</v>
+      <c r="C11" s="46" t="s">
+        <v>857</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="12">
-      <c r="C12" s="52" t="s">
-        <v>755</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>750</v>
+      <c r="C12" s="47" t="s">
+        <v>858</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="30"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>758</v>
+        <v>861</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>757</v>
-      </c>
-      <c r="E14" s="29"/>
+        <v>860</v>
+      </c>
+      <c r="E14" s="30"/>
     </row>
     <row r="15">
-      <c r="C15" s="51" t="s">
-        <v>754</v>
-      </c>
-      <c r="E15" s="29"/>
+      <c r="C15" s="46" t="s">
+        <v>857</v>
+      </c>
+      <c r="E15" s="30"/>
     </row>
     <row r="16">
-      <c r="C16" s="52" t="s">
-        <v>759</v>
-      </c>
-      <c r="E16" s="29"/>
+      <c r="C16" s="47" t="s">
+        <v>862</v>
+      </c>
+      <c r="E16" s="30"/>
     </row>
     <row r="17">
-      <c r="C17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="E17" s="30"/>
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>760</v>
+        <v>863</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>761</v>
-      </c>
-      <c r="E18" s="29"/>
+        <v>864</v>
+      </c>
+      <c r="E18" s="30"/>
     </row>
     <row r="19">
-      <c r="C19" s="51" t="s">
-        <v>762</v>
-      </c>
-      <c r="E19" s="29"/>
+      <c r="C19" s="46" t="s">
+        <v>865</v>
+      </c>
+      <c r="E19" s="30"/>
     </row>
     <row r="20">
-      <c r="C20" s="52" t="s">
-        <v>763</v>
-      </c>
-      <c r="E20" s="29"/>
+      <c r="C20" s="47" t="s">
+        <v>866</v>
+      </c>
+      <c r="E20" s="30"/>
     </row>
     <row r="21">
-      <c r="C21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>764</v>
+        <v>867</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>765</v>
-      </c>
-      <c r="E22" s="29"/>
+        <v>868</v>
+      </c>
+      <c r="E22" s="30"/>
     </row>
     <row r="23">
-      <c r="C23" s="51" t="s">
-        <v>766</v>
-      </c>
-      <c r="E23" s="29"/>
+      <c r="C23" s="46" t="s">
+        <v>869</v>
+      </c>
+      <c r="E23" s="30"/>
     </row>
     <row r="24">
-      <c r="C24" s="52" t="s">
-        <v>767</v>
-      </c>
-      <c r="E24" s="29"/>
+      <c r="C24" s="47" t="s">
+        <v>870</v>
+      </c>
+      <c r="E24" s="30"/>
     </row>
     <row r="25">
-      <c r="C25" s="53" t="s">
-        <v>768</v>
-      </c>
-      <c r="E25" s="29"/>
+      <c r="C25" s="48" t="s">
+        <v>871</v>
+      </c>
+      <c r="E25" s="30"/>
     </row>
     <row r="26">
-      <c r="C26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27">
-      <c r="C27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="E27" s="30"/>
     </row>
     <row r="28">
-      <c r="C28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="C28" s="46" t="s">
+        <v>874</v>
+      </c>
+      <c r="E28" s="30"/>
     </row>
     <row r="29">
-      <c r="C29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="C29" s="47" t="s">
+        <v>875</v>
+      </c>
+      <c r="E29" s="30"/>
     </row>
     <row r="30">
-      <c r="C30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="C30" s="48" t="s">
+        <v>876</v>
+      </c>
+      <c r="E30" s="30"/>
     </row>
     <row r="31">
-      <c r="C31" s="29"/>
-      <c r="E31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32">
-      <c r="C32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="A32" s="18" t="s">
+        <v>877</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>878</v>
+      </c>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33">
+      <c r="C33" s="46" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" s="47" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" s="48" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" s="46" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" s="47" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" s="48" t="s">
+        <v>884</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="A27:B30"/>
+    <mergeCell ref="A32:B35"/>
+    <mergeCell ref="A37:B40"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="A6:B8"/>
